--- a/data/2025/Q4预告/B/B.xlsx
+++ b/data/2025/Q4预告/B/B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zijiehe/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BaiduSyncdisk\AAA\记录\每日复盘\业绩断层\25Q4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14206167-8206-8046-B83F-4FA18BC5E986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024A32F1-A5D1-4601-9BA9-849F7DE11349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16500" yWindow="2880" windowWidth="13740" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22635" yWindow="4680" windowWidth="19935" windowHeight="14610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,16 +27,17 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>证券代码</t>
   </si>
@@ -45,143 +46,366 @@
   </si>
   <si>
     <t>YOY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>QOQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PETTM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>600501.SH</t>
+  </si>
+  <si>
+    <t>航天晨光</t>
+  </si>
+  <si>
+    <t>600606.SH</t>
+  </si>
+  <si>
+    <t>绿地控股</t>
+  </si>
+  <si>
+    <t>688208.SH</t>
+  </si>
+  <si>
+    <t>道通科技</t>
+  </si>
+  <si>
+    <t>688508.SH</t>
+  </si>
+  <si>
+    <t>芯朋微</t>
+  </si>
+  <si>
+    <t>688660.SH</t>
+  </si>
+  <si>
+    <t>电气风电</t>
+  </si>
+  <si>
+    <t>688707.SH</t>
+  </si>
+  <si>
+    <t>振华新材</t>
+  </si>
+  <si>
+    <t>688777.SH</t>
+  </si>
+  <si>
+    <t>中控技术</t>
+  </si>
+  <si>
+    <t>002925.SZ</t>
+  </si>
+  <si>
+    <t>盈趣科技</t>
+  </si>
+  <si>
+    <t>300482.SZ</t>
+  </si>
+  <si>
+    <t>万孚生物</t>
+  </si>
+  <si>
+    <t>300627.SZ</t>
+  </si>
+  <si>
+    <t>华测导航</t>
+  </si>
+  <si>
+    <t>300871.SZ</t>
+  </si>
+  <si>
+    <t>回盛生物</t>
+  </si>
+  <si>
+    <t>300887.SZ</t>
+  </si>
+  <si>
+    <t>谱尼测试</t>
+  </si>
+  <si>
+    <t>601872.SH</t>
+  </si>
+  <si>
+    <t>招商轮船</t>
+  </si>
+  <si>
+    <t>603895.SH</t>
+  </si>
+  <si>
+    <t>天永智能</t>
+  </si>
+  <si>
+    <t>688362.SH</t>
+  </si>
+  <si>
+    <t>甬矽电子</t>
+  </si>
+  <si>
+    <t>300389.SZ</t>
+  </si>
+  <si>
+    <t>艾比森</t>
+  </si>
+  <si>
+    <t>300498.SZ</t>
+  </si>
+  <si>
+    <t>温氏股份</t>
+  </si>
+  <si>
+    <t>300505.SZ</t>
+  </si>
+  <si>
+    <t>川金诺</t>
+  </si>
+  <si>
+    <t>300748.SZ</t>
+  </si>
+  <si>
+    <t>金力永磁</t>
+  </si>
+  <si>
+    <t>600189.SH</t>
+  </si>
+  <si>
+    <t>泉阳泉</t>
+  </si>
+  <si>
+    <t>600435.SH</t>
+  </si>
+  <si>
+    <t>北方导航</t>
+  </si>
+  <si>
+    <t>603309.SH</t>
+  </si>
+  <si>
+    <t>维力医疗</t>
+  </si>
+  <si>
+    <t>603588.SH</t>
+  </si>
+  <si>
+    <t>高能环境</t>
+  </si>
+  <si>
+    <t>603589.SH</t>
+  </si>
+  <si>
+    <t>口子窖</t>
+  </si>
+  <si>
+    <t>603590.SH</t>
+  </si>
+  <si>
+    <t>康辰药业</t>
+  </si>
+  <si>
+    <t>688332.SH</t>
+  </si>
+  <si>
+    <t>中科蓝讯</t>
+  </si>
+  <si>
+    <t>688516.SH</t>
+  </si>
+  <si>
+    <t>奥特维</t>
+  </si>
+  <si>
+    <t>002258.SZ</t>
+  </si>
+  <si>
+    <t>利尔化学</t>
+  </si>
+  <si>
+    <t>002080.SZ</t>
+  </si>
+  <si>
+    <t>中材科技</t>
+  </si>
+  <si>
+    <t>002204.SZ</t>
+  </si>
+  <si>
+    <t>大连重工</t>
+  </si>
+  <si>
+    <t>002444.SZ</t>
+  </si>
+  <si>
+    <t>巨星科技</t>
+  </si>
+  <si>
+    <t>002598.SZ</t>
+  </si>
+  <si>
+    <t>山东章鼓</t>
+  </si>
+  <si>
+    <t>002757.SZ</t>
+  </si>
+  <si>
+    <t>南兴股份</t>
+  </si>
+  <si>
+    <t>002846.SZ</t>
+  </si>
+  <si>
+    <t>英联股份</t>
+  </si>
+  <si>
+    <t>300435.SZ</t>
+  </si>
+  <si>
+    <t>中泰股份</t>
+  </si>
+  <si>
+    <t>301345.SZ</t>
+  </si>
+  <si>
+    <t>涛涛车业</t>
+  </si>
+  <si>
+    <t>600983.SH</t>
+  </si>
+  <si>
+    <t>惠而浦</t>
+  </si>
+  <si>
+    <t>600988.SH</t>
+  </si>
+  <si>
+    <t>赤峰黄金</t>
+  </si>
+  <si>
+    <t>603799.SH</t>
+  </si>
+  <si>
+    <t>华友钴业</t>
+  </si>
+  <si>
+    <t>003017.SZ</t>
+  </si>
+  <si>
+    <t>大洋生物</t>
+  </si>
+  <si>
+    <t>300428.SZ</t>
+  </si>
+  <si>
+    <t>立中集团</t>
+  </si>
+  <si>
+    <t>301377.SZ</t>
+  </si>
+  <si>
+    <t>鼎泰高科</t>
+  </si>
+  <si>
+    <t>301606.SZ</t>
+  </si>
+  <si>
+    <t>绿联科技</t>
+  </si>
+  <si>
+    <t>601339.SH</t>
+  </si>
+  <si>
+    <t>百隆东方</t>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预告下限(亿）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总市值（亿）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25Q4单季扣非</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2025PE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PETTM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002080.SZ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中材科技</t>
-  </si>
-  <si>
-    <t>002204.SZ</t>
-  </si>
-  <si>
-    <t>大连重工</t>
-  </si>
-  <si>
-    <t>002444.SZ</t>
-  </si>
-  <si>
-    <t>巨星科技</t>
-  </si>
-  <si>
-    <t>002598.SZ</t>
-  </si>
-  <si>
-    <t>山东章鼓</t>
-  </si>
-  <si>
-    <t>002757.SZ</t>
-  </si>
-  <si>
-    <t>南兴股份</t>
-  </si>
-  <si>
-    <t>002846.SZ</t>
-  </si>
-  <si>
-    <t>英联股份</t>
-  </si>
-  <si>
-    <t>301345.SZ</t>
-  </si>
-  <si>
-    <t>涛涛车业</t>
-  </si>
-  <si>
-    <t>600983.SH</t>
-  </si>
-  <si>
-    <t>惠而浦</t>
-  </si>
-  <si>
-    <t>600988.SH</t>
-  </si>
-  <si>
-    <t>赤峰黄金</t>
-  </si>
-  <si>
-    <t>603799.SH</t>
-  </si>
-  <si>
-    <t>华友钴业</t>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总市值（亿）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25Q4单季扣非</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预告下限(亿）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="0.00_ ;[Red]\-0.00\ "/>
-    <numFmt numFmtId="166" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="168" formatCode="0.0_ ;[Red]\-0.0\ "/>
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="###,###,###,##0.0000"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="###,###,##0.0000"/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -189,15 +413,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -205,27 +462,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -503,383 +754,1472 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="8.83203125" style="2"/>
+    <col min="1" max="1" width="11.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.75" style="8" customWidth="1"/>
+    <col min="11" max="11" width="20.875" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:11" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="12">
+        <v>46032</v>
+      </c>
+      <c r="D2" s="13">
+        <v>-2.1</v>
+      </c>
+      <c r="E2" s="14">
+        <v>156.54087478</v>
+      </c>
+      <c r="F2" s="3">
+        <v>-0.86640984460000015</v>
+      </c>
+      <c r="G2" s="4">
+        <v>-0.6302422425336377</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1.5614347530682355</v>
+      </c>
+      <c r="I2" s="3">
+        <v>-74.543273704761901</v>
+      </c>
+      <c r="J2" s="5">
+        <v>-53.290849701836358</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="12">
+        <v>46032</v>
+      </c>
+      <c r="D3" s="13">
+        <v>-189.5</v>
+      </c>
+      <c r="E3" s="14">
+        <v>240.32713317</v>
+      </c>
+      <c r="F3" s="3">
+        <v>-129.11789022470001</v>
+      </c>
+      <c r="G3" s="4">
+        <v>-8.3781473786499694E-2</v>
+      </c>
+      <c r="H3" s="4">
+        <v>3.3887843304228324</v>
+      </c>
+      <c r="I3" s="3">
+        <v>-1.2682170615831134</v>
+      </c>
+      <c r="J3" s="5">
+        <v>-0.57663707931280195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="12">
+        <v>46032</v>
+      </c>
+      <c r="D4" s="13">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E4" s="14">
+        <v>250.64860693</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1.5221024693999992</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.56635005398995331</v>
+      </c>
+      <c r="H4" s="4">
+        <v>-0.37395385440324913</v>
+      </c>
+      <c r="I4" s="3">
+        <v>28.810184704597702</v>
+      </c>
+      <c r="J4" s="5">
+        <v>35.819215619918715</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="12">
+        <v>46032</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E5" s="14">
+        <v>84.9709249</v>
+      </c>
+      <c r="F5" s="3">
+        <v>-0.17052074809999995</v>
+      </c>
+      <c r="G5" s="4">
+        <v>-3.65515537346911</v>
+      </c>
+      <c r="H5" s="4">
+        <v>-5.7229696998033841</v>
+      </c>
+      <c r="I5" s="3">
+        <v>154.49259072727273</v>
+      </c>
+      <c r="J5" s="5">
+        <v>-178.71395899655118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="12">
+        <v>46032</v>
+      </c>
+      <c r="D6" s="13">
+        <v>-11.3</v>
+      </c>
+      <c r="E6" s="14">
+        <v>239.86667866000005</v>
+      </c>
+      <c r="F6" s="3">
+        <v>-3.7766864598000005</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.15178615456059896</v>
+      </c>
+      <c r="H6" s="4">
+        <v>-0.17069644279891183</v>
+      </c>
+      <c r="I6" s="3">
+        <v>-21.227139704424783</v>
+      </c>
+      <c r="J6" s="5">
+        <v>-15.101050674673987</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="12">
+        <v>46032</v>
+      </c>
+      <c r="D7" s="13">
+        <v>-5.14</v>
+      </c>
+      <c r="E7" s="14">
+        <v>75.140928279999997</v>
+      </c>
+      <c r="F7" s="3">
+        <v>-1.7399659999999999</v>
+      </c>
+      <c r="G7" s="4">
+        <v>-0.12108724642366453</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.48458310454323028</v>
+      </c>
+      <c r="I7" s="3">
+        <v>-14.618857642023347</v>
+      </c>
+      <c r="J7" s="5">
+        <v>-11.755609099154524</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="12">
+        <v>46032</v>
+      </c>
+      <c r="D8" s="13">
+        <v>3.2762929999999999</v>
+      </c>
+      <c r="E8" s="14">
+        <v>424.39406228000001</v>
+      </c>
+      <c r="F8" s="3">
+        <v>-0.10669871990000024</v>
+      </c>
+      <c r="G8" s="4">
+        <v>-1.0279022011783037</v>
+      </c>
+      <c r="H8" s="4">
+        <v>-1.2152500340763859</v>
+      </c>
+      <c r="I8" s="3">
+        <v>129.53483167714245</v>
+      </c>
+      <c r="J8" s="5">
+        <v>2416.8159878459569</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="12">
+        <v>46031</v>
+      </c>
+      <c r="D9" s="13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E9" s="14">
+        <v>160.93044929000001</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.52116382790000015</v>
+      </c>
+      <c r="G9" s="4">
+        <v>-0.44490382094647929</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.36251249846232891</v>
+      </c>
+      <c r="I9" s="3">
+        <v>73.150204222727268</v>
+      </c>
+      <c r="J9" s="5">
+        <v>82.698347273498413</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="12">
+        <v>46031</v>
+      </c>
+      <c r="D10" s="13">
+        <v>-0.15</v>
+      </c>
+      <c r="E10" s="14">
+        <v>95.582938420000005</v>
+      </c>
+      <c r="F10" s="3">
+        <v>-0.97641577550000003</v>
+      </c>
+      <c r="G10" s="4">
+        <v>-1.8882004331611664</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.37704947468742578</v>
+      </c>
+      <c r="I10" s="3">
+        <v>-637.21958946666678</v>
+      </c>
+      <c r="J10" s="5">
+        <v>-26.271239074222148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="12">
+        <v>46031</v>
+      </c>
+      <c r="D11" s="13">
+        <v>5.98</v>
+      </c>
+      <c r="E11" s="14">
+        <v>335.65171621000002</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1.4542624598000007</v>
+      </c>
+      <c r="G11" s="4">
+        <v>-0.10347000466803613</v>
+      </c>
+      <c r="H11" s="4">
+        <v>-5.2685767658243621E-2</v>
+      </c>
+      <c r="I11" s="3">
+        <v>56.129049533444814</v>
+      </c>
+      <c r="J11" s="5">
+        <v>56.910088083722471</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="C12" s="12">
+        <v>46031</v>
+      </c>
+      <c r="D12" s="13">
+        <v>2.125</v>
+      </c>
+      <c r="E12" s="14">
+        <v>45.787857649999999</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.46652977839999998</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1.8871725842823266</v>
+      </c>
+      <c r="H12" s="4">
+        <v>-0.2989367930895116</v>
+      </c>
+      <c r="I12" s="3">
+        <v>21.547227129411766</v>
+      </c>
+      <c r="J12" s="5">
+        <v>22.172763018225726</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="12">
+        <v>46031</v>
+      </c>
+      <c r="D13" s="13">
+        <v>-2.61</v>
+      </c>
+      <c r="E13" s="14">
+        <v>79.513911930000006</v>
+      </c>
+      <c r="F13" s="3">
+        <v>-0.58928657779999982</v>
+      </c>
+      <c r="G13" s="4">
+        <v>-0.55925205695039359</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1.7621247172853143</v>
+      </c>
+      <c r="I13" s="3">
+        <v>-30.465100356321845</v>
+      </c>
+      <c r="J13" s="5">
+        <v>-40.134113803122979</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="12">
+        <v>46031</v>
+      </c>
+      <c r="D14" s="13">
+        <v>50.05</v>
+      </c>
+      <c r="E14" s="14">
+        <v>793.72713475</v>
+      </c>
+      <c r="F14" s="3">
+        <v>21.041035425299999</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.21848470096324668</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1.1152871829686535</v>
+      </c>
+      <c r="I14" s="3">
+        <v>15.858684010989013</v>
+      </c>
+      <c r="J14" s="5">
+        <v>10.862523254564591</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="12">
+        <v>46031</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0.04</v>
+      </c>
+      <c r="E15" s="14">
+        <v>32.499656000000002</v>
+      </c>
+      <c r="F15" s="3">
+        <v>-6.2014120099999993E-2</v>
+      </c>
+      <c r="G15" s="4">
+        <v>-0.96127448745840716</v>
+      </c>
+      <c r="H15" s="4">
+        <v>-3.7629370845594599</v>
+      </c>
+      <c r="I15" s="3">
+        <v>812.4914</v>
+      </c>
+      <c r="J15" s="5">
+        <v>-198.65635815728777</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="12">
+        <v>46031</v>
+      </c>
+      <c r="D16" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="E16" s="14">
+        <v>172.23867938999999</v>
+      </c>
+      <c r="F16" s="3">
+        <v>-0.1809939089</v>
+      </c>
+      <c r="G16" s="4">
+        <v>-20.432383824012348</v>
+      </c>
+      <c r="H16" s="4">
+        <v>-2.6067948019450897</v>
+      </c>
+      <c r="I16" s="3">
+        <v>-344.47735877999997</v>
+      </c>
+      <c r="J16" s="5">
+        <v>-400.23962395700664</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="12">
+        <v>46030</v>
+      </c>
+      <c r="D17" s="13">
+        <v>2.1884999999999999</v>
+      </c>
+      <c r="E17" s="14">
+        <v>68.615748929999995</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.55898551829999987</v>
+      </c>
+      <c r="G17" s="4">
+        <v>-21.932842021934842</v>
+      </c>
+      <c r="H17" s="4">
+        <v>5.2462280685470208E-3</v>
+      </c>
+      <c r="I17" s="3">
+        <v>31.35286677176148</v>
+      </c>
+      <c r="J17" s="5">
+        <v>30.727714511746182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="12">
+        <v>46030</v>
+      </c>
+      <c r="D18" s="13">
+        <v>48</v>
+      </c>
+      <c r="E18" s="14">
+        <v>1128.5060638</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-0.88838569450000193</v>
+      </c>
+      <c r="G18" s="4">
+        <v>-1.0285388543126617</v>
+      </c>
+      <c r="H18" s="4">
+        <v>-1.0544036240533785</v>
+      </c>
+      <c r="I18" s="3">
+        <v>23.510542995833333</v>
+      </c>
+      <c r="J18" s="5">
+        <v>82.587466257906641</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="12">
+        <v>46030</v>
+      </c>
+      <c r="D19" s="13">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="E19" s="14">
+        <v>71.740423500000006</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1.2430390383000005</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.88311515533316109</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1.1700547785269411E-3</v>
+      </c>
+      <c r="I19" s="3">
+        <v>17.286849036144577</v>
+      </c>
+      <c r="J19" s="5">
+        <v>14.432650131280534</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="12">
+        <v>46030</v>
+      </c>
+      <c r="D20" s="13">
+        <v>5.8</v>
+      </c>
+      <c r="E20" s="14">
+        <v>488.33420044000002</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1.4989346387999998</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.85036081414383458</v>
+      </c>
+      <c r="H20" s="4">
+        <v>-0.23560422387285163</v>
+      </c>
+      <c r="I20" s="3">
+        <v>84.195551800000004</v>
+      </c>
+      <c r="J20" s="5">
+        <v>75.619933001235765</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="12">
+        <v>46030</v>
+      </c>
+      <c r="D21" s="13">
+        <v>-0.15760299999999999</v>
+      </c>
+      <c r="E21" s="14">
+        <v>50.34992596</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-0.1315153563</v>
+      </c>
+      <c r="G21" s="4">
+        <v>-0.77761308606247015</v>
+      </c>
+      <c r="H21" s="4">
+        <v>4.611332852447303E-2</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-319.47314429293863</v>
+      </c>
+      <c r="J21" s="5">
+        <v>-96.777620229560242</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="12">
+        <v>46030</v>
+      </c>
+      <c r="D22" s="13">
+        <v>0.89</v>
+      </c>
+      <c r="E22" s="14">
+        <v>318.65377770999999</v>
+      </c>
+      <c r="F22" s="3">
+        <v>-0.27945015179999999</v>
+      </c>
+      <c r="G22" s="4">
+        <v>-1.215889552196231</v>
+      </c>
+      <c r="H22" s="4">
+        <v>-6.114659050176904</v>
+      </c>
+      <c r="I22" s="3">
+        <v>358.03795248314606</v>
+      </c>
+      <c r="J22" s="5">
+        <v>-406.59480486353078</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="12">
+        <v>46030</v>
+      </c>
+      <c r="D23" s="13">
+        <v>0.65</v>
+      </c>
+      <c r="E23" s="14">
+        <v>38.235155759999998</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-1.1937184042999998</v>
+      </c>
+      <c r="G23" s="4">
+        <v>-3.3870493236573886</v>
+      </c>
+      <c r="H23" s="4">
+        <v>-2.7883071388910277</v>
+      </c>
+      <c r="I23" s="3">
+        <v>58.823316553846148</v>
+      </c>
+      <c r="J23" s="5">
+        <v>-13.122804380752411</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="12">
+        <v>46030</v>
+      </c>
+      <c r="D24" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="E24" s="14">
+        <v>138.30968870000001</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1.5041718126000001</v>
+      </c>
+      <c r="G24" s="4">
+        <v>-2.067761601164174</v>
+      </c>
+      <c r="H24" s="4">
+        <v>3.6692649363822438E-2</v>
+      </c>
+      <c r="I24" s="3">
+        <v>18.441291826666667</v>
+      </c>
+      <c r="J24" s="5">
+        <v>23.192903375511577</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="12">
+        <v>46030</v>
+      </c>
+      <c r="D25" s="13">
+        <v>6.4527000000000001</v>
+      </c>
+      <c r="E25" s="14">
+        <v>179.67508939000001</v>
+      </c>
+      <c r="F25" s="3">
+        <v>-0.79526324769999945</v>
+      </c>
+      <c r="G25" s="4">
+        <v>-1.2313549459108819</v>
+      </c>
+      <c r="H25" s="4">
+        <v>-3.9908502338647569</v>
+      </c>
+      <c r="I25" s="3">
+        <v>27.844946981883552</v>
+      </c>
+      <c r="J25" s="5">
+        <v>-84.756757492822203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="12">
+        <v>46030</v>
+      </c>
+      <c r="D26" s="13">
+        <v>1.4</v>
+      </c>
+      <c r="E26" s="14">
+        <v>70.584750740000004</v>
+      </c>
+      <c r="F26" s="3">
+        <v>6.9736847599999985E-2</v>
+      </c>
+      <c r="G26" s="4">
+        <v>-1.0934984144581934</v>
+      </c>
+      <c r="H26" s="4">
+        <v>-0.81033726030608033</v>
+      </c>
+      <c r="I26" s="3">
+        <v>50.417679100000008</v>
+      </c>
+      <c r="J26" s="5">
+        <v>122.35195437596708</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="12">
+        <v>46030</v>
+      </c>
+      <c r="D27" s="13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E27" s="14">
+        <v>171.40622166</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0.38592278410000014</v>
+      </c>
+      <c r="G27" s="4">
+        <v>-0.44540560203288138</v>
+      </c>
+      <c r="H27" s="4">
+        <v>-0.45434279054801441</v>
+      </c>
+      <c r="I27" s="3">
+        <v>77.911918936363634</v>
+      </c>
+      <c r="J27" s="5">
+        <v>91.905309745847561</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="12">
+        <v>46030</v>
+      </c>
+      <c r="D28" s="13">
+        <v>3.935997</v>
+      </c>
+      <c r="E28" s="14">
+        <v>184.40453772000001</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0.50138628940000007</v>
+      </c>
+      <c r="G28" s="4">
+        <v>-0.41475384534107851</v>
+      </c>
+      <c r="H28" s="4">
+        <v>-8.6654813870212122E-2</v>
+      </c>
+      <c r="I28" s="3">
+        <v>46.850782081388786</v>
+      </c>
+      <c r="J28" s="5">
+        <v>89.816962306906277</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="12">
+        <v>46029</v>
+      </c>
+      <c r="D29" s="13">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E29" s="14">
+        <v>112.94169287</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0.74101392009999945</v>
+      </c>
+      <c r="G29" s="4">
+        <v>-0.11128152436163574</v>
+      </c>
+      <c r="H29" s="4">
+        <v>-0.34727230073267856</v>
+      </c>
+      <c r="I29" s="3">
+        <v>24.552541928260872</v>
+      </c>
+      <c r="J29" s="5">
+        <v>33.630623437535021</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="12">
         <v>46028</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D30" s="13">
         <v>10.5</v>
       </c>
-      <c r="E2" s="7">
-        <v>637.3513372000001</v>
-      </c>
-      <c r="F2" s="8">
+      <c r="E30" s="14">
+        <v>620.06666428999995</v>
+      </c>
+      <c r="F30" s="3">
         <v>-1.4726384748000001</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G30" s="4">
         <v>-3.4659085236588472</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H30" s="4">
         <v>-1.3784662943693422</v>
       </c>
-      <c r="I2" s="10">
-        <v>60.70012735238096</v>
-      </c>
-      <c r="J2" s="10">
-        <v>-1209.7479212157471</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="I30" s="3">
+        <v>59.053968027619042</v>
+      </c>
+      <c r="J30" s="5">
+        <v>-1176.9401182014335</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="12">
         <v>46028</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D31" s="13">
         <v>3.6446000000000001</v>
       </c>
-      <c r="E3" s="7">
-        <v>146.39784842999998</v>
-      </c>
-      <c r="F3" s="8">
+      <c r="E31" s="14">
+        <v>144.85275240000001</v>
+      </c>
+      <c r="F31" s="3">
         <v>-0.10388885729999986</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G31" s="4">
         <v>-1.1784037590974692</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H31" s="4">
         <v>-1.094805613098722</v>
       </c>
-      <c r="I3" s="10">
-        <v>40.168426831476701</v>
-      </c>
-      <c r="J3" s="10">
-        <v>186.69799918750093</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="I31" s="3">
+        <v>39.744485650002744</v>
+      </c>
+      <c r="J31" s="5">
+        <v>184.72757174989093</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="12">
         <v>46028</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D32" s="13">
         <v>23.088055000000001</v>
       </c>
-      <c r="E4" s="7">
-        <v>408.86988170000001</v>
-      </c>
-      <c r="F4" s="8">
+      <c r="E32" s="14">
+        <v>445.30146624999998</v>
+      </c>
+      <c r="F32" s="3">
         <v>2.733146102900001</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G32" s="4">
         <v>-0.26380285372150991</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H32" s="4">
         <v>-0.65012486567479122</v>
       </c>
-      <c r="I4" s="10">
-        <v>17.709152273762342</v>
-      </c>
-      <c r="J4" s="10">
-        <v>25.536469579914357</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="I32" s="3">
+        <v>19.287093098574132</v>
+      </c>
+      <c r="J32" s="5">
+        <v>27.811848844195225</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="12">
         <v>46028</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D33" s="13">
         <v>0.66</v>
       </c>
-      <c r="E5" s="7">
-        <v>30.018925060000004</v>
-      </c>
-      <c r="F5" s="8">
+      <c r="E33" s="14">
+        <v>29.363636339999996</v>
+      </c>
+      <c r="F33" s="3">
         <v>0.11276508360000004</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G33" s="4">
         <v>-1.4081659753178475</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H33" s="4">
         <v>-0.44716229252463924</v>
       </c>
-      <c r="I5" s="10">
-        <v>45.483219787878795</v>
-      </c>
-      <c r="J5" s="10">
-        <v>55.357865920737623</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="I33" s="3">
+        <v>44.490358090909083</v>
+      </c>
+      <c r="J33" s="5">
+        <v>54.149448729628105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="12">
         <v>46028</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D34" s="13">
         <v>0.75</v>
       </c>
-      <c r="E6" s="7">
-        <v>63.286656559999997</v>
-      </c>
-      <c r="F6" s="8">
+      <c r="E34" s="14">
+        <v>69.609413100000012</v>
+      </c>
+      <c r="F34" s="3">
         <v>-8.3983389599999958E-2</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G34" s="4">
         <v>-0.97820342262151239</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H34" s="4">
         <v>-1.312527283771749</v>
       </c>
-      <c r="I6" s="10">
-        <v>84.382208746666663</v>
-      </c>
-      <c r="J6" s="10">
-        <v>3773.0782102480498</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="I34" s="3">
+        <v>92.812550800000011</v>
+      </c>
+      <c r="J34" s="5">
+        <v>4150.0337365233254</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="12">
         <v>46028</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D35" s="13">
         <v>0.20200000000000001</v>
       </c>
-      <c r="E7" s="7">
-        <v>70.012939119999999</v>
-      </c>
-      <c r="F7" s="8">
+      <c r="E35" s="14">
+        <v>70.894925760000007</v>
+      </c>
+      <c r="F35" s="3">
         <v>-6.6484206800000001E-2</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G35" s="4">
         <v>-0.84466173917481935</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H35" s="4">
         <v>-1.9192901667278055</v>
       </c>
-      <c r="I7" s="10">
-        <v>346.59870851485147</v>
-      </c>
-      <c r="J7" s="10">
-        <v>-550.71328661172333</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="I35" s="3">
+        <v>350.96497900990101</v>
+      </c>
+      <c r="J35" s="5">
+        <v>-557.65088653778162</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="12">
         <v>46028</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D36" s="13">
+        <v>4.03</v>
+      </c>
+      <c r="E36" s="14">
+        <v>90.063985500000001</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0.80094345580000015</v>
+      </c>
+      <c r="G36" s="4">
+        <v>-1.2858293626321196</v>
+      </c>
+      <c r="H36" s="4">
+        <v>-0.59425728716139126</v>
+      </c>
+      <c r="I36" s="3">
+        <v>22.348383498759304</v>
+      </c>
+      <c r="J36" s="5">
+        <v>20.577359791525463</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="12">
+        <v>46028</v>
+      </c>
+      <c r="D37" s="13">
         <v>7.89</v>
       </c>
-      <c r="E8" s="7">
-        <v>280.9104069</v>
-      </c>
-      <c r="F8" s="8">
+      <c r="E37" s="14">
+        <v>265.97068417000003</v>
+      </c>
+      <c r="F37" s="3">
         <v>1.8714762679999994</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G37" s="4">
         <v>0.48651435074850657</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H37" s="4">
         <v>-0.28860722640422576</v>
       </c>
-      <c r="I8" s="10">
-        <v>35.60334688212928</v>
-      </c>
-      <c r="J8" s="10">
-        <v>34.06977391223203</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="I37" s="3">
+        <v>33.709845902408119</v>
+      </c>
+      <c r="J37" s="5">
+        <v>32.257833296220156</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="12">
         <v>46028</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D38" s="13">
         <v>4.55</v>
       </c>
-      <c r="E9" s="7">
-        <v>75.034378099999998</v>
-      </c>
-      <c r="F9" s="8">
+      <c r="E38" s="14">
+        <v>82.392192499999993</v>
+      </c>
+      <c r="F38" s="3">
         <v>1.5602262200999997</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G38" s="4">
         <v>8.7884507507891119E-2</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H38" s="4">
         <v>0.65750233945878489</v>
       </c>
-      <c r="I9" s="10">
-        <v>16.491072109890109</v>
-      </c>
-      <c r="J9" s="10">
-        <v>13.346586225913411</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="I38" s="3">
+        <v>18.108174175824175</v>
+      </c>
+      <c r="J38" s="5">
+        <v>14.65534238289777</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="12">
         <v>46028</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D39" s="13">
         <v>29.7</v>
       </c>
-      <c r="E10" s="7">
-        <v>607.94153584000003</v>
-      </c>
-      <c r="F10" s="8">
+      <c r="E39" s="14">
+        <v>608.32161808000001</v>
+      </c>
+      <c r="F39" s="3">
         <v>9.4403574307000007</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G39" s="4">
         <v>0.42596668327549247</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H39" s="4">
         <v>3.2799025652821889E-2</v>
       </c>
-      <c r="I10" s="10">
-        <v>20.469411981144784</v>
-      </c>
-      <c r="J10" s="10">
-        <v>16.228379864558558</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="I39" s="3">
+        <v>20.482209362962962</v>
+      </c>
+      <c r="J39" s="5">
+        <v>16.238525772687648</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="12">
         <v>46028</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D40" s="13">
         <v>56</v>
       </c>
-      <c r="E11" s="7">
-        <v>1289.7746979599999</v>
-      </c>
-      <c r="F11" s="8">
+      <c r="E40" s="14">
+        <v>1393.9050375500001</v>
+      </c>
+      <c r="F40" s="3">
         <v>15.876938041199999</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G40" s="4">
         <v>1.1066323433139691</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H40" s="4">
         <v>0.11408335990772889</v>
       </c>
-      <c r="I11" s="10">
-        <v>23.031691034999998</v>
-      </c>
-      <c r="J11" s="10">
-        <v>20.842507131194534</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C13" s="2"/>
+      <c r="I40" s="3">
+        <v>24.89116138482143</v>
+      </c>
+      <c r="J40" s="5">
+        <v>22.525233074656636</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="12">
+        <v>46027</v>
+      </c>
+      <c r="D41" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="E41" s="14">
+        <v>27.594000000000001</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0.15016428980000007</v>
+      </c>
+      <c r="G41" s="4">
+        <v>0.15682643216677539</v>
+      </c>
+      <c r="H41" s="4">
+        <v>-0.46792996369576445</v>
+      </c>
+      <c r="I41" s="3">
+        <v>30.66</v>
+      </c>
+      <c r="J41" s="5">
+        <v>37.659708932809941</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="12">
+        <v>46027</v>
+      </c>
+      <c r="D42" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="E42" s="14">
+        <v>161.31733942</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1.9039578037</v>
+      </c>
+      <c r="G42" s="4">
+        <v>0.10287908438798188</v>
+      </c>
+      <c r="H42" s="4">
+        <v>-4.848428610376132E-2</v>
+      </c>
+      <c r="I42" s="3">
+        <v>21.508978589333331</v>
+      </c>
+      <c r="J42" s="5">
+        <v>20.915407711689269</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="12">
+        <v>46027</v>
+      </c>
+      <c r="D43" s="13">
+        <v>3.8</v>
+      </c>
+      <c r="E43" s="14">
+        <v>585.93100000000004</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1.1736889479999997</v>
+      </c>
+      <c r="G43" s="4">
+        <v>1.0956248781961242</v>
+      </c>
+      <c r="H43" s="4">
+        <v>2.2297593733174637E-2</v>
+      </c>
+      <c r="I43" s="3">
+        <v>154.19236842105266</v>
+      </c>
+      <c r="J43" s="5">
+        <v>125.48969868864462</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="12">
+        <v>46027</v>
+      </c>
+      <c r="D44" s="13">
+        <v>6.23</v>
+      </c>
+      <c r="E44" s="14">
+        <v>251.89174322</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1.7657430041000008</v>
+      </c>
+      <c r="G44" s="4">
+        <v>0.34603534721136908</v>
+      </c>
+      <c r="H44" s="4">
+        <v>-5.9916549815653863E-2</v>
+      </c>
+      <c r="I44" s="3">
+        <v>40.432061512038523</v>
+      </c>
+      <c r="J44" s="5">
+        <v>35.104356844147041</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="12">
+        <v>46027</v>
+      </c>
+      <c r="D45" s="13">
+        <v>5.5</v>
+      </c>
+      <c r="E45" s="14">
+        <v>87.724786499999993</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0.4117901220000002</v>
+      </c>
+      <c r="G45" s="4">
+        <v>-2.1612575903014815</v>
+      </c>
+      <c r="H45" s="4">
+        <v>-0.72238387058545861</v>
+      </c>
+      <c r="I45" s="3">
+        <v>15.94996118181818</v>
+      </c>
+      <c r="J45" s="5">
+        <v>32.267442757842517</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/2025/Q4预告/B/B.xlsx
+++ b/data/2025/Q4预告/B/B.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BaiduSyncdisk\AAA\记录\每日复盘\业绩断层\25Q4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024A32F1-A5D1-4601-9BA9-849F7DE11349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A1CE4E-3932-4DC2-A46C-D048DBBF33A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22635" yWindow="4680" windowWidth="19935" windowHeight="14610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30000" yWindow="4305" windowWidth="19935" windowHeight="14610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>证券代码</t>
   </si>
@@ -339,6 +339,12 @@
   <si>
     <t>2025PE</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>605555.SH</t>
+  </si>
+  <si>
+    <t>德昌股份</t>
   </si>
 </sst>
 </file>
@@ -432,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -473,6 +479,15 @@
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -754,10 +769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -809,1411 +824,1444 @@
       </c>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="12">
-        <v>46032</v>
-      </c>
-      <c r="D2" s="13">
-        <v>-2.1</v>
-      </c>
-      <c r="E2" s="14">
-        <v>156.54087478</v>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="16">
+        <v>46034</v>
+      </c>
+      <c r="D2" s="17">
+        <v>1.4536</v>
+      </c>
+      <c r="E2" s="17">
+        <v>90.666131191999995</v>
       </c>
       <c r="F2" s="3">
-        <v>-0.86640984460000015</v>
+        <v>-4.0653663999999923E-2</v>
       </c>
       <c r="G2" s="4">
-        <v>-0.6302422425336377</v>
+        <v>-1.0381267090572344</v>
       </c>
       <c r="H2" s="4">
-        <v>1.5614347530682355</v>
+        <v>-1.0802088631594189</v>
       </c>
       <c r="I2" s="3">
-        <v>-74.543273704761901</v>
+        <v>62.373507974683541</v>
       </c>
       <c r="J2" s="5">
-        <v>-53.290849701836358</v>
-      </c>
+        <v>235.56586879181745</v>
+      </c>
+      <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="12">
         <v>46032</v>
       </c>
       <c r="D3" s="13">
-        <v>-189.5</v>
+        <v>-2.1</v>
       </c>
       <c r="E3" s="14">
-        <v>240.32713317</v>
+        <v>156.54087478</v>
       </c>
       <c r="F3" s="3">
-        <v>-129.11789022470001</v>
+        <v>-0.86640984460000015</v>
       </c>
       <c r="G3" s="4">
-        <v>-8.3781473786499694E-2</v>
+        <v>-0.6302422425336377</v>
       </c>
       <c r="H3" s="4">
-        <v>3.3887843304228324</v>
+        <v>1.5614347530682355</v>
       </c>
       <c r="I3" s="3">
-        <v>-1.2682170615831134</v>
+        <v>-74.543273704761901</v>
       </c>
       <c r="J3" s="5">
-        <v>-0.57663707931280195</v>
+        <v>-53.290849701836358</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="12">
         <v>46032</v>
       </c>
       <c r="D4" s="13">
-        <v>8.6999999999999993</v>
+        <v>-189.5</v>
       </c>
       <c r="E4" s="14">
-        <v>250.64860693</v>
+        <v>240.32713317</v>
       </c>
       <c r="F4" s="3">
-        <v>1.5221024693999992</v>
+        <v>-129.11789022470001</v>
       </c>
       <c r="G4" s="4">
-        <v>0.56635005398995331</v>
+        <v>-8.3781473786499694E-2</v>
       </c>
       <c r="H4" s="4">
-        <v>-0.37395385440324913</v>
+        <v>3.3887843304228324</v>
       </c>
       <c r="I4" s="3">
-        <v>28.810184704597702</v>
+        <v>-1.2682170615831134</v>
       </c>
       <c r="J4" s="5">
-        <v>35.819215619918715</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" customFormat="1" x14ac:dyDescent="0.2">
+        <v>-0.57663707931280195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="12">
         <v>46032</v>
       </c>
       <c r="D5" s="13">
-        <v>0.55000000000000004</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="E5" s="14">
-        <v>84.9709249</v>
+        <v>250.64860693</v>
       </c>
       <c r="F5" s="3">
-        <v>-0.17052074809999995</v>
+        <v>1.5221024693999992</v>
       </c>
       <c r="G5" s="4">
-        <v>-3.65515537346911</v>
+        <v>0.56635005398995331</v>
       </c>
       <c r="H5" s="4">
-        <v>-5.7229696998033841</v>
+        <v>-0.37395385440324913</v>
       </c>
       <c r="I5" s="3">
-        <v>154.49259072727273</v>
+        <v>28.810184704597702</v>
       </c>
       <c r="J5" s="5">
-        <v>-178.71395899655118</v>
+        <v>35.819215619918715</v>
       </c>
     </row>
     <row r="6" spans="1:11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="12">
         <v>46032</v>
       </c>
       <c r="D6" s="13">
-        <v>-11.3</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E6" s="14">
-        <v>239.86667866000005</v>
+        <v>84.9709249</v>
       </c>
       <c r="F6" s="3">
-        <v>-3.7766864598000005</v>
+        <v>-0.17052074809999995</v>
       </c>
       <c r="G6" s="4">
-        <v>0.15178615456059896</v>
+        <v>-3.65515537346911</v>
       </c>
       <c r="H6" s="4">
-        <v>-0.17069644279891183</v>
+        <v>-5.7229696998033841</v>
       </c>
       <c r="I6" s="3">
-        <v>-21.227139704424783</v>
+        <v>154.49259072727273</v>
       </c>
       <c r="J6" s="5">
-        <v>-15.101050674673987</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>-178.71395899655118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="12">
         <v>46032</v>
       </c>
       <c r="D7" s="13">
-        <v>-5.14</v>
+        <v>-11.3</v>
       </c>
       <c r="E7" s="14">
-        <v>75.140928279999997</v>
+        <v>239.86667866000005</v>
       </c>
       <c r="F7" s="3">
-        <v>-1.7399659999999999</v>
+        <v>-3.7766864598000005</v>
       </c>
       <c r="G7" s="4">
-        <v>-0.12108724642366453</v>
+        <v>0.15178615456059896</v>
       </c>
       <c r="H7" s="4">
-        <v>0.48458310454323028</v>
+        <v>-0.17069644279891183</v>
       </c>
       <c r="I7" s="3">
-        <v>-14.618857642023347</v>
+        <v>-21.227139704424783</v>
       </c>
       <c r="J7" s="5">
-        <v>-11.755609099154524</v>
+        <v>-15.101050674673987</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="12">
         <v>46032</v>
       </c>
       <c r="D8" s="13">
-        <v>3.2762929999999999</v>
+        <v>-5.14</v>
       </c>
       <c r="E8" s="14">
-        <v>424.39406228000001</v>
+        <v>75.140928279999997</v>
       </c>
       <c r="F8" s="3">
-        <v>-0.10669871990000024</v>
+        <v>-1.7399659999999999</v>
       </c>
       <c r="G8" s="4">
-        <v>-1.0279022011783037</v>
+        <v>-0.12108724642366453</v>
       </c>
       <c r="H8" s="4">
-        <v>-1.2152500340763859</v>
+        <v>0.48458310454323028</v>
       </c>
       <c r="I8" s="3">
-        <v>129.53483167714245</v>
+        <v>-14.618857642023347</v>
       </c>
       <c r="J8" s="5">
-        <v>2416.8159878459569</v>
+        <v>-11.755609099154524</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" s="12">
-        <v>46031</v>
+        <v>46032</v>
       </c>
       <c r="D9" s="13">
-        <v>2.2000000000000002</v>
+        <v>3.2762929999999999</v>
       </c>
       <c r="E9" s="14">
-        <v>160.93044929000001</v>
+        <v>424.39406228000001</v>
       </c>
       <c r="F9" s="3">
-        <v>0.52116382790000015</v>
+        <v>-0.10669871990000024</v>
       </c>
       <c r="G9" s="4">
-        <v>-0.44490382094647929</v>
+        <v>-1.0279022011783037</v>
       </c>
       <c r="H9" s="4">
-        <v>0.36251249846232891</v>
+        <v>-1.2152500340763859</v>
       </c>
       <c r="I9" s="3">
-        <v>73.150204222727268</v>
+        <v>129.53483167714245</v>
       </c>
       <c r="J9" s="5">
-        <v>82.698347273498413</v>
+        <v>2416.8159878459569</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="12">
         <v>46031</v>
       </c>
       <c r="D10" s="13">
-        <v>-0.15</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E10" s="14">
-        <v>95.582938420000005</v>
+        <v>160.93044929000001</v>
       </c>
       <c r="F10" s="3">
-        <v>-0.97641577550000003</v>
+        <v>0.52116382790000015</v>
       </c>
       <c r="G10" s="4">
-        <v>-1.8882004331611664</v>
+        <v>-0.44490382094647929</v>
       </c>
       <c r="H10" s="4">
-        <v>0.37704947468742578</v>
+        <v>0.36251249846232891</v>
       </c>
       <c r="I10" s="3">
-        <v>-637.21958946666678</v>
+        <v>73.150204222727268</v>
       </c>
       <c r="J10" s="5">
-        <v>-26.271239074222148</v>
+        <v>82.698347273498413</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" s="12">
         <v>46031</v>
       </c>
       <c r="D11" s="13">
-        <v>5.98</v>
+        <v>-0.15</v>
       </c>
       <c r="E11" s="14">
-        <v>335.65171621000002</v>
+        <v>95.582938420000005</v>
       </c>
       <c r="F11" s="3">
-        <v>1.4542624598000007</v>
+        <v>-0.97641577550000003</v>
       </c>
       <c r="G11" s="4">
-        <v>-0.10347000466803613</v>
+        <v>-1.8882004331611664</v>
       </c>
       <c r="H11" s="4">
-        <v>-5.2685767658243621E-2</v>
+        <v>0.37704947468742578</v>
       </c>
       <c r="I11" s="3">
-        <v>56.129049533444814</v>
+        <v>-637.21958946666678</v>
       </c>
       <c r="J11" s="5">
-        <v>56.910088083722471</v>
+        <v>-26.271239074222148</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" s="12">
         <v>46031</v>
       </c>
       <c r="D12" s="13">
-        <v>2.125</v>
+        <v>5.98</v>
       </c>
       <c r="E12" s="14">
-        <v>45.787857649999999</v>
+        <v>335.65171621000002</v>
       </c>
       <c r="F12" s="3">
-        <v>0.46652977839999998</v>
+        <v>1.4542624598000007</v>
       </c>
       <c r="G12" s="4">
-        <v>1.8871725842823266</v>
+        <v>-0.10347000466803613</v>
       </c>
       <c r="H12" s="4">
-        <v>-0.2989367930895116</v>
+        <v>-5.2685767658243621E-2</v>
       </c>
       <c r="I12" s="3">
-        <v>21.547227129411766</v>
+        <v>56.129049533444814</v>
       </c>
       <c r="J12" s="5">
-        <v>22.172763018225726</v>
+        <v>56.910088083722471</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="12">
         <v>46031</v>
       </c>
       <c r="D13" s="13">
-        <v>-2.61</v>
+        <v>2.125</v>
       </c>
       <c r="E13" s="14">
-        <v>79.513911930000006</v>
+        <v>45.787857649999999</v>
       </c>
       <c r="F13" s="3">
-        <v>-0.58928657779999982</v>
+        <v>0.46652977839999998</v>
       </c>
       <c r="G13" s="4">
-        <v>-0.55925205695039359</v>
+        <v>1.8871725842823266</v>
       </c>
       <c r="H13" s="4">
-        <v>1.7621247172853143</v>
+        <v>-0.2989367930895116</v>
       </c>
       <c r="I13" s="3">
-        <v>-30.465100356321845</v>
+        <v>21.547227129411766</v>
       </c>
       <c r="J13" s="5">
-        <v>-40.134113803122979</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>22.172763018225726</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" s="12">
         <v>46031</v>
       </c>
       <c r="D14" s="13">
-        <v>50.05</v>
+        <v>-2.61</v>
       </c>
       <c r="E14" s="14">
-        <v>793.72713475</v>
+        <v>79.513911930000006</v>
       </c>
       <c r="F14" s="3">
-        <v>21.041035425299999</v>
+        <v>-0.58928657779999982</v>
       </c>
       <c r="G14" s="4">
-        <v>0.21848470096324668</v>
+        <v>-0.55925205695039359</v>
       </c>
       <c r="H14" s="4">
-        <v>1.1152871829686535</v>
+        <v>1.7621247172853143</v>
       </c>
       <c r="I14" s="3">
-        <v>15.858684010989013</v>
+        <v>-30.465100356321845</v>
       </c>
       <c r="J14" s="5">
-        <v>10.862523254564591</v>
+        <v>-40.134113803122979</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" s="12">
         <v>46031</v>
       </c>
       <c r="D15" s="13">
-        <v>0.04</v>
+        <v>50.05</v>
       </c>
       <c r="E15" s="14">
-        <v>32.499656000000002</v>
+        <v>793.72713475</v>
       </c>
       <c r="F15" s="3">
-        <v>-6.2014120099999993E-2</v>
+        <v>21.041035425299999</v>
       </c>
       <c r="G15" s="4">
-        <v>-0.96127448745840716</v>
+        <v>0.21848470096324668</v>
       </c>
       <c r="H15" s="4">
-        <v>-3.7629370845594599</v>
+        <v>1.1152871829686535</v>
       </c>
       <c r="I15" s="3">
-        <v>812.4914</v>
+        <v>15.858684010989013</v>
       </c>
       <c r="J15" s="5">
-        <v>-198.65635815728777</v>
+        <v>10.862523254564591</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" s="12">
         <v>46031</v>
       </c>
       <c r="D16" s="13">
-        <v>-0.5</v>
+        <v>0.04</v>
       </c>
       <c r="E16" s="14">
-        <v>172.23867938999999</v>
+        <v>32.499656000000002</v>
       </c>
       <c r="F16" s="3">
-        <v>-0.1809939089</v>
+        <v>-6.2014120099999993E-2</v>
       </c>
       <c r="G16" s="4">
-        <v>-20.432383824012348</v>
+        <v>-0.96127448745840716</v>
       </c>
       <c r="H16" s="4">
-        <v>-2.6067948019450897</v>
+        <v>-3.7629370845594599</v>
       </c>
       <c r="I16" s="3">
-        <v>-344.47735877999997</v>
+        <v>812.4914</v>
       </c>
       <c r="J16" s="5">
-        <v>-400.23962395700664</v>
+        <v>-198.65635815728777</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17" s="12">
-        <v>46030</v>
+        <v>46031</v>
       </c>
       <c r="D17" s="13">
-        <v>2.1884999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="E17" s="14">
-        <v>68.615748929999995</v>
+        <v>172.23867938999999</v>
       </c>
       <c r="F17" s="3">
-        <v>0.55898551829999987</v>
+        <v>-0.1809939089</v>
       </c>
       <c r="G17" s="4">
-        <v>-21.932842021934842</v>
+        <v>-20.432383824012348</v>
       </c>
       <c r="H17" s="4">
-        <v>5.2462280685470208E-3</v>
+        <v>-2.6067948019450897</v>
       </c>
       <c r="I17" s="3">
-        <v>31.35286677176148</v>
+        <v>-344.47735877999997</v>
       </c>
       <c r="J17" s="5">
-        <v>30.727714511746182</v>
+        <v>-400.23962395700664</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C18" s="12">
         <v>46030</v>
       </c>
       <c r="D18" s="13">
-        <v>48</v>
+        <v>2.1884999999999999</v>
       </c>
       <c r="E18" s="14">
-        <v>1128.5060638</v>
+        <v>68.615748929999995</v>
       </c>
       <c r="F18" s="3">
-        <v>-0.88838569450000193</v>
+        <v>0.55898551829999987</v>
       </c>
       <c r="G18" s="4">
-        <v>-1.0285388543126617</v>
+        <v>-21.932842021934842</v>
       </c>
       <c r="H18" s="4">
-        <v>-1.0544036240533785</v>
+        <v>5.2462280685470208E-3</v>
       </c>
       <c r="I18" s="3">
-        <v>23.510542995833333</v>
+        <v>31.35286677176148</v>
       </c>
       <c r="J18" s="5">
-        <v>82.587466257906641</v>
+        <v>30.727714511746182</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C19" s="12">
         <v>46030</v>
       </c>
       <c r="D19" s="13">
-        <v>4.1500000000000004</v>
+        <v>48</v>
       </c>
       <c r="E19" s="14">
-        <v>71.740423500000006</v>
+        <v>1128.5060638</v>
       </c>
       <c r="F19" s="3">
-        <v>1.2430390383000005</v>
+        <v>-0.88838569450000193</v>
       </c>
       <c r="G19" s="4">
-        <v>0.88311515533316109</v>
+        <v>-1.0285388543126617</v>
       </c>
       <c r="H19" s="4">
-        <v>1.1700547785269411E-3</v>
+        <v>-1.0544036240533785</v>
       </c>
       <c r="I19" s="3">
-        <v>17.286849036144577</v>
+        <v>23.510542995833333</v>
       </c>
       <c r="J19" s="5">
-        <v>14.432650131280534</v>
+        <v>82.587466257906641</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C20" s="12">
         <v>46030</v>
       </c>
       <c r="D20" s="13">
-        <v>5.8</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="E20" s="14">
-        <v>488.33420044000002</v>
+        <v>71.740423500000006</v>
       </c>
       <c r="F20" s="3">
-        <v>1.4989346387999998</v>
+        <v>1.2430390383000005</v>
       </c>
       <c r="G20" s="4">
-        <v>0.85036081414383458</v>
+        <v>0.88311515533316109</v>
       </c>
       <c r="H20" s="4">
-        <v>-0.23560422387285163</v>
+        <v>1.1700547785269411E-3</v>
       </c>
       <c r="I20" s="3">
-        <v>84.195551800000004</v>
+        <v>17.286849036144577</v>
       </c>
       <c r="J20" s="5">
-        <v>75.619933001235765</v>
+        <v>14.432650131280534</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C21" s="12">
         <v>46030</v>
       </c>
       <c r="D21" s="13">
-        <v>-0.15760299999999999</v>
+        <v>5.8</v>
       </c>
       <c r="E21" s="14">
-        <v>50.34992596</v>
+        <v>488.33420044000002</v>
       </c>
       <c r="F21" s="3">
-        <v>-0.1315153563</v>
+        <v>1.4989346387999998</v>
       </c>
       <c r="G21" s="4">
-        <v>-0.77761308606247015</v>
+        <v>0.85036081414383458</v>
       </c>
       <c r="H21" s="4">
-        <v>4.611332852447303E-2</v>
+        <v>-0.23560422387285163</v>
       </c>
       <c r="I21" s="3">
-        <v>-319.47314429293863</v>
+        <v>84.195551800000004</v>
       </c>
       <c r="J21" s="5">
-        <v>-96.777620229560242</v>
+        <v>75.619933001235765</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C22" s="12">
         <v>46030</v>
       </c>
       <c r="D22" s="13">
-        <v>0.89</v>
+        <v>-0.15760299999999999</v>
       </c>
       <c r="E22" s="14">
-        <v>318.65377770999999</v>
+        <v>50.34992596</v>
       </c>
       <c r="F22" s="3">
-        <v>-0.27945015179999999</v>
+        <v>-0.1315153563</v>
       </c>
       <c r="G22" s="4">
-        <v>-1.215889552196231</v>
+        <v>-0.77761308606247015</v>
       </c>
       <c r="H22" s="4">
-        <v>-6.114659050176904</v>
+        <v>4.611332852447303E-2</v>
       </c>
       <c r="I22" s="3">
-        <v>358.03795248314606</v>
+        <v>-319.47314429293863</v>
       </c>
       <c r="J22" s="5">
-        <v>-406.59480486353078</v>
+        <v>-96.777620229560242</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C23" s="12">
         <v>46030</v>
       </c>
       <c r="D23" s="13">
-        <v>0.65</v>
+        <v>0.89</v>
       </c>
       <c r="E23" s="14">
-        <v>38.235155759999998</v>
+        <v>318.65377770999999</v>
       </c>
       <c r="F23" s="3">
-        <v>-1.1937184042999998</v>
+        <v>-0.27945015179999999</v>
       </c>
       <c r="G23" s="4">
-        <v>-3.3870493236573886</v>
+        <v>-1.215889552196231</v>
       </c>
       <c r="H23" s="4">
-        <v>-2.7883071388910277</v>
+        <v>-6.114659050176904</v>
       </c>
       <c r="I23" s="3">
-        <v>58.823316553846148</v>
+        <v>358.03795248314606</v>
       </c>
       <c r="J23" s="5">
-        <v>-13.122804380752411</v>
+        <v>-406.59480486353078</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C24" s="12">
         <v>46030</v>
       </c>
       <c r="D24" s="13">
-        <v>7.5</v>
+        <v>0.65</v>
       </c>
       <c r="E24" s="14">
-        <v>138.30968870000001</v>
+        <v>38.235155759999998</v>
       </c>
       <c r="F24" s="3">
-        <v>1.5041718126000001</v>
+        <v>-1.1937184042999998</v>
       </c>
       <c r="G24" s="4">
-        <v>-2.067761601164174</v>
+        <v>-3.3870493236573886</v>
       </c>
       <c r="H24" s="4">
-        <v>3.6692649363822438E-2</v>
+        <v>-2.7883071388910277</v>
       </c>
       <c r="I24" s="3">
-        <v>18.441291826666667</v>
+        <v>58.823316553846148</v>
       </c>
       <c r="J24" s="5">
-        <v>23.192903375511577</v>
+        <v>-13.122804380752411</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C25" s="12">
         <v>46030</v>
       </c>
       <c r="D25" s="13">
-        <v>6.4527000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="E25" s="14">
-        <v>179.67508939000001</v>
+        <v>138.30968870000001</v>
       </c>
       <c r="F25" s="3">
-        <v>-0.79526324769999945</v>
+        <v>1.5041718126000001</v>
       </c>
       <c r="G25" s="4">
-        <v>-1.2313549459108819</v>
+        <v>-2.067761601164174</v>
       </c>
       <c r="H25" s="4">
-        <v>-3.9908502338647569</v>
+        <v>3.6692649363822438E-2</v>
       </c>
       <c r="I25" s="3">
-        <v>27.844946981883552</v>
+        <v>18.441291826666667</v>
       </c>
       <c r="J25" s="5">
-        <v>-84.756757492822203</v>
+        <v>23.192903375511577</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C26" s="12">
         <v>46030</v>
       </c>
       <c r="D26" s="13">
-        <v>1.4</v>
+        <v>6.4527000000000001</v>
       </c>
       <c r="E26" s="14">
-        <v>70.584750740000004</v>
+        <v>179.67508939000001</v>
       </c>
       <c r="F26" s="3">
-        <v>6.9736847599999985E-2</v>
+        <v>-0.79526324769999945</v>
       </c>
       <c r="G26" s="4">
-        <v>-1.0934984144581934</v>
+        <v>-1.2313549459108819</v>
       </c>
       <c r="H26" s="4">
-        <v>-0.81033726030608033</v>
+        <v>-3.9908502338647569</v>
       </c>
       <c r="I26" s="3">
-        <v>50.417679100000008</v>
+        <v>27.844946981883552</v>
       </c>
       <c r="J26" s="5">
-        <v>122.35195437596708</v>
+        <v>-84.756757492822203</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C27" s="12">
         <v>46030</v>
       </c>
       <c r="D27" s="13">
-        <v>2.2000000000000002</v>
+        <v>1.4</v>
       </c>
       <c r="E27" s="14">
-        <v>171.40622166</v>
+        <v>70.584750740000004</v>
       </c>
       <c r="F27" s="3">
-        <v>0.38592278410000014</v>
+        <v>6.9736847599999985E-2</v>
       </c>
       <c r="G27" s="4">
-        <v>-0.44540560203288138</v>
+        <v>-1.0934984144581934</v>
       </c>
       <c r="H27" s="4">
-        <v>-0.45434279054801441</v>
+        <v>-0.81033726030608033</v>
       </c>
       <c r="I27" s="3">
-        <v>77.911918936363634</v>
+        <v>50.417679100000008</v>
       </c>
       <c r="J27" s="5">
-        <v>91.905309745847561</v>
+        <v>122.35195437596708</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C28" s="12">
         <v>46030</v>
       </c>
       <c r="D28" s="13">
-        <v>3.935997</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E28" s="14">
-        <v>184.40453772000001</v>
+        <v>171.40622166</v>
       </c>
       <c r="F28" s="3">
-        <v>0.50138628940000007</v>
+        <v>0.38592278410000014</v>
       </c>
       <c r="G28" s="4">
-        <v>-0.41475384534107851</v>
+        <v>-0.44540560203288138</v>
       </c>
       <c r="H28" s="4">
-        <v>-8.6654813870212122E-2</v>
+        <v>-0.45434279054801441</v>
       </c>
       <c r="I28" s="3">
-        <v>46.850782081388786</v>
+        <v>77.911918936363634</v>
       </c>
       <c r="J28" s="5">
-        <v>89.816962306906277</v>
+        <v>91.905309745847561</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C29" s="12">
-        <v>46029</v>
+        <v>46030</v>
       </c>
       <c r="D29" s="13">
-        <v>4.5999999999999996</v>
+        <v>3.935997</v>
       </c>
       <c r="E29" s="14">
-        <v>112.94169287</v>
+        <v>184.40453772000001</v>
       </c>
       <c r="F29" s="3">
-        <v>0.74101392009999945</v>
+        <v>0.50138628940000007</v>
       </c>
       <c r="G29" s="4">
-        <v>-0.11128152436163574</v>
+        <v>-0.41475384534107851</v>
       </c>
       <c r="H29" s="4">
-        <v>-0.34727230073267856</v>
+        <v>-8.6654813870212122E-2</v>
       </c>
       <c r="I29" s="3">
-        <v>24.552541928260872</v>
+        <v>46.850782081388786</v>
       </c>
       <c r="J29" s="5">
-        <v>33.630623437535021</v>
+        <v>89.816962306906277</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C30" s="12">
-        <v>46028</v>
+        <v>46029</v>
       </c>
       <c r="D30" s="13">
-        <v>10.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E30" s="14">
-        <v>620.06666428999995</v>
+        <v>112.94169287</v>
       </c>
       <c r="F30" s="3">
-        <v>-1.4726384748000001</v>
+        <v>0.74101392009999945</v>
       </c>
       <c r="G30" s="4">
-        <v>-3.4659085236588472</v>
+        <v>-0.11128152436163574</v>
       </c>
       <c r="H30" s="4">
-        <v>-1.3784662943693422</v>
+        <v>-0.34727230073267856</v>
       </c>
       <c r="I30" s="3">
-        <v>59.053968027619042</v>
+        <v>24.552541928260872</v>
       </c>
       <c r="J30" s="5">
-        <v>-1176.9401182014335</v>
+        <v>33.630623437535021</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C31" s="12">
         <v>46028</v>
       </c>
       <c r="D31" s="13">
-        <v>3.6446000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="E31" s="14">
-        <v>144.85275240000001</v>
+        <v>620.06666428999995</v>
       </c>
       <c r="F31" s="3">
-        <v>-0.10388885729999986</v>
+        <v>-1.4726384748000001</v>
       </c>
       <c r="G31" s="4">
-        <v>-1.1784037590974692</v>
+        <v>-3.4659085236588472</v>
       </c>
       <c r="H31" s="4">
-        <v>-1.094805613098722</v>
+        <v>-1.3784662943693422</v>
       </c>
       <c r="I31" s="3">
-        <v>39.744485650002744</v>
+        <v>59.053968027619042</v>
       </c>
       <c r="J31" s="5">
-        <v>184.72757174989093</v>
+        <v>-1176.9401182014335</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C32" s="12">
         <v>46028</v>
       </c>
       <c r="D32" s="13">
-        <v>23.088055000000001</v>
+        <v>3.6446000000000001</v>
       </c>
       <c r="E32" s="14">
-        <v>445.30146624999998</v>
+        <v>144.85275240000001</v>
       </c>
       <c r="F32" s="3">
-        <v>2.733146102900001</v>
+        <v>-0.10388885729999986</v>
       </c>
       <c r="G32" s="4">
-        <v>-0.26380285372150991</v>
+        <v>-1.1784037590974692</v>
       </c>
       <c r="H32" s="4">
-        <v>-0.65012486567479122</v>
+        <v>-1.094805613098722</v>
       </c>
       <c r="I32" s="3">
-        <v>19.287093098574132</v>
+        <v>39.744485650002744</v>
       </c>
       <c r="J32" s="5">
-        <v>27.811848844195225</v>
+        <v>184.72757174989093</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C33" s="12">
         <v>46028</v>
       </c>
       <c r="D33" s="13">
-        <v>0.66</v>
+        <v>23.088055000000001</v>
       </c>
       <c r="E33" s="14">
-        <v>29.363636339999996</v>
+        <v>445.30146624999998</v>
       </c>
       <c r="F33" s="3">
-        <v>0.11276508360000004</v>
+        <v>2.733146102900001</v>
       </c>
       <c r="G33" s="4">
-        <v>-1.4081659753178475</v>
+        <v>-0.26380285372150991</v>
       </c>
       <c r="H33" s="4">
-        <v>-0.44716229252463924</v>
+        <v>-0.65012486567479122</v>
       </c>
       <c r="I33" s="3">
-        <v>44.490358090909083</v>
+        <v>19.287093098574132</v>
       </c>
       <c r="J33" s="5">
-        <v>54.149448729628105</v>
+        <v>27.811848844195225</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C34" s="12">
         <v>46028</v>
       </c>
       <c r="D34" s="13">
-        <v>0.75</v>
+        <v>0.66</v>
       </c>
       <c r="E34" s="14">
-        <v>69.609413100000012</v>
+        <v>29.363636339999996</v>
       </c>
       <c r="F34" s="3">
-        <v>-8.3983389599999958E-2</v>
+        <v>0.11276508360000004</v>
       </c>
       <c r="G34" s="4">
-        <v>-0.97820342262151239</v>
+        <v>-1.4081659753178475</v>
       </c>
       <c r="H34" s="4">
-        <v>-1.312527283771749</v>
+        <v>-0.44716229252463924</v>
       </c>
       <c r="I34" s="3">
-        <v>92.812550800000011</v>
+        <v>44.490358090909083</v>
       </c>
       <c r="J34" s="5">
-        <v>4150.0337365233254</v>
+        <v>54.149448729628105</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C35" s="12">
         <v>46028</v>
       </c>
       <c r="D35" s="13">
-        <v>0.20200000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="E35" s="14">
-        <v>70.894925760000007</v>
+        <v>69.609413100000012</v>
       </c>
       <c r="F35" s="3">
-        <v>-6.6484206800000001E-2</v>
+        <v>-8.3983389599999958E-2</v>
       </c>
       <c r="G35" s="4">
-        <v>-0.84466173917481935</v>
+        <v>-0.97820342262151239</v>
       </c>
       <c r="H35" s="4">
-        <v>-1.9192901667278055</v>
+        <v>-1.312527283771749</v>
       </c>
       <c r="I35" s="3">
-        <v>350.96497900990101</v>
+        <v>92.812550800000011</v>
       </c>
       <c r="J35" s="5">
-        <v>-557.65088653778162</v>
+        <v>4150.0337365233254</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C36" s="12">
         <v>46028</v>
       </c>
       <c r="D36" s="13">
-        <v>4.03</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="E36" s="14">
-        <v>90.063985500000001</v>
+        <v>70.894925760000007</v>
       </c>
       <c r="F36" s="3">
-        <v>0.80094345580000015</v>
+        <v>-6.6484206800000001E-2</v>
       </c>
       <c r="G36" s="4">
-        <v>-1.2858293626321196</v>
+        <v>-0.84466173917481935</v>
       </c>
       <c r="H36" s="4">
-        <v>-0.59425728716139126</v>
+        <v>-1.9192901667278055</v>
       </c>
       <c r="I36" s="3">
-        <v>22.348383498759304</v>
+        <v>350.96497900990101</v>
       </c>
       <c r="J36" s="5">
-        <v>20.577359791525463</v>
+        <v>-557.65088653778162</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C37" s="12">
         <v>46028</v>
       </c>
       <c r="D37" s="13">
-        <v>7.89</v>
+        <v>4.03</v>
       </c>
       <c r="E37" s="14">
-        <v>265.97068417000003</v>
+        <v>90.063985500000001</v>
       </c>
       <c r="F37" s="3">
-        <v>1.8714762679999994</v>
+        <v>0.80094345580000015</v>
       </c>
       <c r="G37" s="4">
-        <v>0.48651435074850657</v>
+        <v>-1.2858293626321196</v>
       </c>
       <c r="H37" s="4">
-        <v>-0.28860722640422576</v>
+        <v>-0.59425728716139126</v>
       </c>
       <c r="I37" s="3">
-        <v>33.709845902408119</v>
+        <v>22.348383498759304</v>
       </c>
       <c r="J37" s="5">
-        <v>32.257833296220156</v>
+        <v>20.577359791525463</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C38" s="12">
         <v>46028</v>
       </c>
       <c r="D38" s="13">
-        <v>4.55</v>
+        <v>7.89</v>
       </c>
       <c r="E38" s="14">
-        <v>82.392192499999993</v>
+        <v>265.97068417000003</v>
       </c>
       <c r="F38" s="3">
-        <v>1.5602262200999997</v>
+        <v>1.8714762679999994</v>
       </c>
       <c r="G38" s="4">
-        <v>8.7884507507891119E-2</v>
+        <v>0.48651435074850657</v>
       </c>
       <c r="H38" s="4">
-        <v>0.65750233945878489</v>
+        <v>-0.28860722640422576</v>
       </c>
       <c r="I38" s="3">
-        <v>18.108174175824175</v>
+        <v>33.709845902408119</v>
       </c>
       <c r="J38" s="5">
-        <v>14.65534238289777</v>
+        <v>32.257833296220156</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C39" s="12">
         <v>46028</v>
       </c>
       <c r="D39" s="13">
-        <v>29.7</v>
+        <v>4.55</v>
       </c>
       <c r="E39" s="14">
-        <v>608.32161808000001</v>
+        <v>82.392192499999993</v>
       </c>
       <c r="F39" s="3">
-        <v>9.4403574307000007</v>
+        <v>1.5602262200999997</v>
       </c>
       <c r="G39" s="4">
-        <v>0.42596668327549247</v>
+        <v>8.7884507507891119E-2</v>
       </c>
       <c r="H39" s="4">
-        <v>3.2799025652821889E-2</v>
+        <v>0.65750233945878489</v>
       </c>
       <c r="I39" s="3">
-        <v>20.482209362962962</v>
+        <v>18.108174175824175</v>
       </c>
       <c r="J39" s="5">
-        <v>16.238525772687648</v>
+        <v>14.65534238289777</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C40" s="12">
         <v>46028</v>
       </c>
       <c r="D40" s="13">
-        <v>56</v>
+        <v>29.7</v>
       </c>
       <c r="E40" s="14">
-        <v>1393.9050375500001</v>
+        <v>608.32161808000001</v>
       </c>
       <c r="F40" s="3">
-        <v>15.876938041199999</v>
+        <v>9.4403574307000007</v>
       </c>
       <c r="G40" s="4">
-        <v>1.1066323433139691</v>
+        <v>0.42596668327549247</v>
       </c>
       <c r="H40" s="4">
-        <v>0.11408335990772889</v>
+        <v>3.2799025652821889E-2</v>
       </c>
       <c r="I40" s="3">
-        <v>24.89116138482143</v>
+        <v>20.482209362962962</v>
       </c>
       <c r="J40" s="5">
-        <v>22.525233074656636</v>
+        <v>16.238525772687648</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C41" s="12">
-        <v>46027</v>
+        <v>46028</v>
       </c>
       <c r="D41" s="13">
-        <v>0.9</v>
+        <v>56</v>
       </c>
       <c r="E41" s="14">
-        <v>27.594000000000001</v>
+        <v>1393.9050375500001</v>
       </c>
       <c r="F41" s="3">
-        <v>0.15016428980000007</v>
+        <v>15.876938041199999</v>
       </c>
       <c r="G41" s="4">
-        <v>0.15682643216677539</v>
+        <v>1.1066323433139691</v>
       </c>
       <c r="H41" s="4">
-        <v>-0.46792996369576445</v>
+        <v>0.11408335990772889</v>
       </c>
       <c r="I41" s="3">
-        <v>30.66</v>
+        <v>24.89116138482143</v>
       </c>
       <c r="J41" s="5">
-        <v>37.659708932809941</v>
+        <v>22.525233074656636</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C42" s="12">
         <v>46027</v>
       </c>
       <c r="D42" s="13">
-        <v>7.5</v>
+        <v>0.9</v>
       </c>
       <c r="E42" s="14">
-        <v>161.31733942</v>
+        <v>27.594000000000001</v>
       </c>
       <c r="F42" s="3">
-        <v>1.9039578037</v>
+        <v>0.15016428980000007</v>
       </c>
       <c r="G42" s="4">
-        <v>0.10287908438798188</v>
+        <v>0.15682643216677539</v>
       </c>
       <c r="H42" s="4">
-        <v>-4.848428610376132E-2</v>
+        <v>-0.46792996369576445</v>
       </c>
       <c r="I42" s="3">
-        <v>21.508978589333331</v>
+        <v>30.66</v>
       </c>
       <c r="J42" s="5">
-        <v>20.915407711689269</v>
+        <v>37.659708932809941</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C43" s="12">
         <v>46027</v>
       </c>
       <c r="D43" s="13">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="E43" s="14">
-        <v>585.93100000000004</v>
+        <v>161.31733942</v>
       </c>
       <c r="F43" s="3">
-        <v>1.1736889479999997</v>
+        <v>1.9039578037</v>
       </c>
       <c r="G43" s="4">
-        <v>1.0956248781961242</v>
+        <v>0.10287908438798188</v>
       </c>
       <c r="H43" s="4">
-        <v>2.2297593733174637E-2</v>
+        <v>-4.848428610376132E-2</v>
       </c>
       <c r="I43" s="3">
-        <v>154.19236842105266</v>
+        <v>21.508978589333331</v>
       </c>
       <c r="J43" s="5">
-        <v>125.48969868864462</v>
+        <v>20.915407711689269</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C44" s="12">
         <v>46027</v>
       </c>
       <c r="D44" s="13">
-        <v>6.23</v>
+        <v>3.8</v>
       </c>
       <c r="E44" s="14">
-        <v>251.89174322</v>
+        <v>585.93100000000004</v>
       </c>
       <c r="F44" s="3">
-        <v>1.7657430041000008</v>
+        <v>1.1736889479999997</v>
       </c>
       <c r="G44" s="4">
-        <v>0.34603534721136908</v>
+        <v>1.0956248781961242</v>
       </c>
       <c r="H44" s="4">
-        <v>-5.9916549815653863E-2</v>
+        <v>2.2297593733174637E-2</v>
       </c>
       <c r="I44" s="3">
-        <v>40.432061512038523</v>
+        <v>154.19236842105266</v>
       </c>
       <c r="J44" s="5">
-        <v>35.104356844147041</v>
+        <v>125.48969868864462</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C45" s="12">
         <v>46027</v>
       </c>
       <c r="D45" s="13">
+        <v>6.23</v>
+      </c>
+      <c r="E45" s="14">
+        <v>251.89174322</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1.7657430041000008</v>
+      </c>
+      <c r="G45" s="4">
+        <v>0.34603534721136908</v>
+      </c>
+      <c r="H45" s="4">
+        <v>-5.9916549815653863E-2</v>
+      </c>
+      <c r="I45" s="3">
+        <v>40.432061512038523</v>
+      </c>
+      <c r="J45" s="5">
+        <v>35.104356844147041</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="12">
+        <v>46027</v>
+      </c>
+      <c r="D46" s="13">
         <v>5.5</v>
       </c>
-      <c r="E45" s="14">
+      <c r="E46" s="14">
         <v>87.724786499999993</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F46" s="3">
         <v>0.4117901220000002</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G46" s="4">
         <v>-2.1612575903014815</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H46" s="4">
         <v>-0.72238387058545861</v>
       </c>
-      <c r="I45" s="3">
+      <c r="I46" s="3">
         <v>15.94996118181818</v>
       </c>
-      <c r="J45" s="5">
+      <c r="J46" s="5">
         <v>32.267442757842517</v>
       </c>
     </row>

--- a/data/2025/Q4预告/B/B.xlsx
+++ b/data/2025/Q4预告/B/B.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J72"/>
+  <dimension ref="A1:J87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,2557 +492,3097 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>000408.SZ</t>
+          <t>000100.SZ</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>藏格矿业</t>
+          <t>TCL科技</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>46035</v>
+        <v>46036</v>
       </c>
       <c r="D2" t="n">
-        <v>38.7</v>
+        <v>28.9</v>
       </c>
       <c r="E2" t="n">
-        <v>1341.1298088</v>
+        <v>990.1</v>
       </c>
       <c r="F2" t="n">
-        <v>11.13602543530001</v>
+        <v>4.6</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5899590584024701</v>
+        <v>-2.072</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1746868853132804</v>
+        <v>-0.47</v>
       </c>
       <c r="I2" t="n">
-        <v>34.65451702325581</v>
+        <v>34.3</v>
       </c>
       <c r="J2" t="n">
-        <v>31.2704623373031</v>
+        <v>43.9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>002284.SZ</t>
+          <t>000738.SZ</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>亚太股份</t>
+          <t>航发控制</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>46035</v>
+        <v>46036</v>
       </c>
       <c r="D3" t="n">
-        <v>4.2195</v>
+        <v>3.1</v>
       </c>
       <c r="E3" t="n">
-        <v>114.78228404</v>
+        <v>298.8</v>
       </c>
       <c r="F3" t="n">
-        <v>1.3186191733</v>
+        <v>-0.8</v>
       </c>
       <c r="G3" t="n">
-        <v>1.425789540504816</v>
+        <v>-1.734</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2265052765840716</v>
+        <v>-1.943</v>
       </c>
       <c r="I3" t="n">
-        <v>27.20281645692618</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>22.81518404036203</v>
+        <v>-183.9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>002345.SZ</t>
+          <t>001283.SZ</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>潮宏基</t>
+          <t>豪鹏科技</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>46035</v>
+        <v>46036</v>
       </c>
       <c r="D4" t="n">
-        <v>4.213301</v>
+        <v>1.8</v>
       </c>
       <c r="E4" t="n">
-        <v>110.88638583</v>
+        <v>69.5</v>
       </c>
       <c r="F4" t="n">
-        <v>1.0729632944</v>
+        <v>0.2</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.872981940136119</v>
+        <v>0.367</v>
       </c>
       <c r="H4" t="n">
-        <v>-7.933174862974732</v>
+        <v>-0.78</v>
       </c>
       <c r="I4" t="n">
-        <v>26.31817328740576</v>
+        <v>38.6</v>
       </c>
       <c r="J4" t="n">
-        <v>36.18851437736483</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>002459.SZ</t>
+          <t>002107.SZ</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>晶澳科技</t>
+          <t>沃华医药</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>46035</v>
+        <v>46036</v>
       </c>
       <c r="D5" t="n">
-        <v>-51</v>
+        <v>0.8</v>
       </c>
       <c r="E5" t="n">
-        <v>403.11994992</v>
+        <v>41.4</v>
       </c>
       <c r="F5" t="n">
-        <v>-16.4743679222</v>
+        <v>0.1</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.5516517615288209</v>
+        <v>0.051</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4129324362794691</v>
+        <v>-0.259</v>
       </c>
       <c r="I5" t="n">
-        <v>-7.904312743529412</v>
+        <v>55.2</v>
       </c>
       <c r="J5" t="n">
-        <v>-6.599565294226408</v>
+        <v>69.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>002942.SZ</t>
+          <t>002240.SZ</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>新农股份</t>
+          <t>盛新锂能</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>46035</v>
+        <v>46036</v>
       </c>
       <c r="D6" t="n">
-        <v>0.68</v>
+        <v>-7.5</v>
       </c>
       <c r="E6" t="n">
-        <v>31.65474558</v>
+        <v>343.3</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2124406781</v>
+        <v>0.9</v>
       </c>
       <c r="G6" t="n">
-        <v>0.005973041998307949</v>
+        <v>-1.276</v>
       </c>
       <c r="H6" t="n">
-        <v>-3.264180418698891</v>
+        <v>0.464</v>
       </c>
       <c r="I6" t="n">
-        <v>46.55109644117647</v>
+        <v>-45.8</v>
       </c>
       <c r="J6" t="n">
-        <v>-58.24290695011756</v>
+        <v>108.9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>300782.SZ</t>
+          <t>002879.SZ</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>卓胜微</t>
+          <t>长缆科技</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>46035</v>
+        <v>46036</v>
       </c>
       <c r="D7" t="n">
-        <v>-3.36</v>
+        <v>1.2</v>
       </c>
       <c r="E7" t="n">
-        <v>453.31086599</v>
+        <v>36.4</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.3071375635</v>
+        <v>0.9</v>
       </c>
       <c r="G7" t="n">
-        <v>1.571674439818355</v>
+        <v>4.787</v>
       </c>
       <c r="H7" t="n">
-        <v>1.426278637972505</v>
+        <v>47.748</v>
       </c>
       <c r="I7" t="n">
-        <v>-134.9139482113095</v>
+        <v>30.2</v>
       </c>
       <c r="J7" t="n">
-        <v>-101.6356885263799</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>600186.SH</t>
+          <t>600135.SH</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>莲花控股</t>
+          <t>乐凯胶片</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>46035</v>
+        <v>46036</v>
       </c>
       <c r="D8" t="n">
-        <v>2.8</v>
+        <v>-1.3</v>
       </c>
       <c r="E8" t="n">
-        <v>115.65541059</v>
+        <v>65.8</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2867011136000004</v>
+        <v>-0.3</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2421827417217146</v>
+        <v>0.266</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.681186554210643</v>
+        <v>-0.235</v>
       </c>
       <c r="I8" t="n">
-        <v>41.30550378214286</v>
+        <v>-49.7</v>
       </c>
       <c r="J8" t="n">
-        <v>65.73650279675012</v>
+        <v>-49.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>600703.SH</t>
+          <t>600231.SH</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>三安光电</t>
+          <t>凌钢股份</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>46035</v>
+        <v>46036</v>
       </c>
       <c r="D9" t="n">
-        <v>-8.5</v>
+        <v>-16.8</v>
       </c>
       <c r="E9" t="n">
-        <v>788.26495887</v>
+        <v>61.8</v>
       </c>
       <c r="F9" t="n">
-        <v>-5.2104372756</v>
+        <v>-8.4</v>
       </c>
       <c r="G9" t="n">
-        <v>2.259904358194851</v>
+        <v>1.535</v>
       </c>
       <c r="H9" t="n">
-        <v>1.279207957353187</v>
+        <v>2.077</v>
       </c>
       <c r="I9" t="n">
-        <v>-92.73705398470588</v>
+        <v>-3.7</v>
       </c>
       <c r="J9" t="n">
-        <v>-43.99441868776686</v>
+        <v>-2.2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>603259.SH</t>
+          <t>600588.SH</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>药明康德</t>
+          <t>用友网络</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>46035</v>
+        <v>46036</v>
       </c>
       <c r="D10" t="n">
-        <v>132.4056</v>
+        <v>-15.4</v>
       </c>
       <c r="E10" t="n">
-        <v>2944.37156055</v>
+        <v>590.5</v>
       </c>
       <c r="F10" t="n">
-        <v>37.18146854769999</v>
+        <v>-0.6</v>
       </c>
       <c r="G10" t="n">
-        <v>0.124540293577452</v>
+        <v>-0.892</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.05637653242170304</v>
+        <v>-0.872</v>
       </c>
       <c r="I10" t="n">
-        <v>22.23751533583172</v>
+        <v>-38.3</v>
       </c>
       <c r="J10" t="n">
-        <v>19.50596084864677</v>
+        <v>-91</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>603663.SH</t>
+          <t>601015.SH</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>三祥新材</t>
+          <t>陕西黑猫</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>46035</v>
+        <v>46036</v>
       </c>
       <c r="D11" t="n">
-        <v>0.93</v>
+        <v>-12.2</v>
       </c>
       <c r="E11" t="n">
-        <v>157.467507</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>0.157688127</v>
+        <v>-4.1</v>
       </c>
       <c r="G11" t="n">
-        <v>2.881996199281418</v>
+        <v>-0.143</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.5145075216116561</v>
+        <v>0.454</v>
       </c>
       <c r="I11" t="n">
-        <v>169.3199</v>
+        <v>-6.6</v>
       </c>
       <c r="J11" t="n">
-        <v>197.361157652835</v>
+        <v>-5.3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>688005.SH</t>
+          <t>603773.SH</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>容百科技</t>
+          <t>沃格光电</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>46035</v>
+        <v>46036</v>
       </c>
       <c r="D12" t="n">
-        <v>-2.2</v>
+        <v>-1.6</v>
       </c>
       <c r="E12" t="n">
-        <v>262.5901376800001</v>
+        <v>77.3</v>
       </c>
       <c r="F12" t="n">
-        <v>0.00804637330000002</v>
+        <v>-0.8</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.9948207230603167</v>
+        <v>0.175</v>
       </c>
       <c r="H12" t="n">
-        <v>-1.005686508251718</v>
+        <v>4.559</v>
       </c>
       <c r="I12" t="n">
-        <v>-119.3591534909091</v>
+        <v>-48.3</v>
       </c>
       <c r="J12" t="n">
-        <v>-188.7976954142104</v>
+        <v>-29.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>688192.SH</t>
+          <t>605499.SH</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>迪哲医药-U</t>
+          <t>东鹏饮料</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>46035</v>
+        <v>46036</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.5</v>
+        <v>41.2</v>
       </c>
       <c r="E13" t="n">
-        <v>308.71917624</v>
+        <v>1417.6</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.1933909537</v>
+        <v>5.8</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.267299386769896</v>
+        <v>-0.032</v>
       </c>
       <c r="H13" t="n">
-        <v>0.03740965434654298</v>
+        <v>-0.543</v>
       </c>
       <c r="I13" t="n">
-        <v>-36.31990308705883</v>
+        <v>34.4</v>
       </c>
       <c r="J13" t="n">
-        <v>-35.50753767504757</v>
+        <v>47.1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>300122.SZ</t>
+          <t>688525.SH</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>智飞生物</t>
+          <t>佰维存储</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>46034</v>
+        <v>46036</v>
       </c>
       <c r="D14" t="n">
-        <v>-135.414282</v>
+        <v>7.6</v>
       </c>
       <c r="E14" t="n">
-        <v>473.97036991</v>
+        <v>632.4</v>
       </c>
       <c r="F14" t="n">
-        <v>-123.1468289874</v>
+        <v>7.8</v>
       </c>
       <c r="G14" t="n">
-        <v>80.2857714887781</v>
+        <v>-5.94</v>
       </c>
       <c r="H14" t="n">
-        <v>19.29123744006478</v>
+        <v>2.649</v>
       </c>
       <c r="I14" t="n">
-        <v>-3.500150522601448</v>
+        <v>83.2</v>
       </c>
       <c r="J14" t="n">
-        <v>-1.262206227410921</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>300926.SZ</t>
+          <t>000408.SZ</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>博俊科技</t>
+          <t>藏格矿业</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>46034</v>
+        <v>46035</v>
       </c>
       <c r="D15" t="n">
-        <v>8.2608</v>
+        <v>38.7</v>
       </c>
       <c r="E15" t="n">
-        <v>143.41242933</v>
+        <v>1341.1</v>
       </c>
       <c r="F15" t="n">
-        <v>2.0113791374</v>
+        <v>11.1</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.1786065977559771</v>
+        <v>0.59</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.2659485634631132</v>
+        <v>0.175</v>
       </c>
       <c r="I15" t="n">
-        <v>17.36059816603719</v>
+        <v>34.7</v>
       </c>
       <c r="J15" t="n">
-        <v>16.34470504953066</v>
+        <v>31.3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>600990.SH</t>
+          <t>002284.SZ</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>四创电子</t>
+          <t>亚太股份</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>46034</v>
+        <v>46035</v>
       </c>
       <c r="D16" t="n">
-        <v>-3.5</v>
+        <v>4.2</v>
       </c>
       <c r="E16" t="n">
-        <v>94.84916419</v>
+        <v>114.8</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.5497969705</v>
+        <v>1.3</v>
       </c>
       <c r="G16" t="n">
-        <v>0.08843422743928686</v>
+        <v>1.426</v>
       </c>
       <c r="H16" t="n">
-        <v>4.222896152762437</v>
+        <v>0.227</v>
       </c>
       <c r="I16" t="n">
-        <v>-27.09976119714286</v>
+        <v>27.2</v>
       </c>
       <c r="J16" t="n">
-        <v>-11.65568679144217</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>605555.SH</t>
+          <t>002345.SZ</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>德昌股份</t>
+          <t>潮宏基</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>46034</v>
+        <v>46035</v>
       </c>
       <c r="D17" t="n">
-        <v>1.4536</v>
+        <v>4.2</v>
       </c>
       <c r="E17" t="n">
-        <v>90.66613119</v>
+        <v>110.9</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.04065366400000014</v>
+        <v>1.1</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.038126709057235</v>
+        <v>-1.873</v>
       </c>
       <c r="H17" t="n">
-        <v>-1.080208863159419</v>
+        <v>-7.933</v>
       </c>
       <c r="I17" t="n">
-        <v>62.37350797330765</v>
+        <v>26.3</v>
       </c>
       <c r="J17" t="n">
-        <v>235.5658687866215</v>
+        <v>36.2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>600501.SH</t>
+          <t>002459.SZ</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>航天晨光</t>
+          <t>晶澳科技</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>46032</v>
+        <v>46035</v>
       </c>
       <c r="D18" t="n">
-        <v>-2.1</v>
+        <v>-51</v>
       </c>
       <c r="E18" t="n">
-        <v>156.54087478</v>
+        <v>403.1</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.8664098445999999</v>
+        <v>-16.5</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.6302422425336378</v>
+        <v>-0.552</v>
       </c>
       <c r="H18" t="n">
-        <v>1.561434753068235</v>
+        <v>0.413</v>
       </c>
       <c r="I18" t="n">
-        <v>-74.5432737047619</v>
+        <v>-7.9</v>
       </c>
       <c r="J18" t="n">
-        <v>-53.29084970183636</v>
+        <v>-6.6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>600606.SH</t>
+          <t>002942.SZ</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>绿地控股</t>
+          <t>新农股份</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>46032</v>
+        <v>46035</v>
       </c>
       <c r="D19" t="n">
-        <v>-189.5</v>
+        <v>0.7</v>
       </c>
       <c r="E19" t="n">
-        <v>240.32713317</v>
+        <v>31.7</v>
       </c>
       <c r="F19" t="n">
-        <v>-129.1178902247</v>
+        <v>-0.2</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.08378147378649969</v>
+        <v>0.006</v>
       </c>
       <c r="H19" t="n">
-        <v>3.388784330422833</v>
+        <v>-3.264</v>
       </c>
       <c r="I19" t="n">
-        <v>-1.268217061583113</v>
+        <v>46.6</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.5766370793128019</v>
+        <v>-58.2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>600685.SH</t>
+          <t>300782.SZ</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>中船防务</t>
+          <t>卓胜微</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>46032</v>
+        <v>46035</v>
       </c>
       <c r="D20" t="n">
-        <v>8.5</v>
+        <v>-3.4</v>
       </c>
       <c r="E20" t="n">
-        <v>442.28614568</v>
+        <v>453.3</v>
       </c>
       <c r="F20" t="n">
-        <v>2.4488863317</v>
+        <v>-1.3</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3925582284651215</v>
+        <v>1.572</v>
       </c>
       <c r="H20" t="n">
-        <v>1.146039674737727</v>
+        <v>1.426</v>
       </c>
       <c r="I20" t="n">
-        <v>52.03366419764706</v>
+        <v>-134.9</v>
       </c>
       <c r="J20" t="n">
-        <v>52.10859115374092</v>
+        <v>-101.6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>688208.SH</t>
+          <t>600186.SH</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>道通科技</t>
+          <t>莲花控股</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>46032</v>
+        <v>46035</v>
       </c>
       <c r="D21" t="n">
-        <v>8.700000000000001</v>
+        <v>2.8</v>
       </c>
       <c r="E21" t="n">
-        <v>250.64860693</v>
+        <v>115.7</v>
       </c>
       <c r="F21" t="n">
-        <v>1.522102469400002</v>
+        <v>0.3</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5663500539899557</v>
+        <v>-0.242</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.373953854403248</v>
+        <v>-0.681</v>
       </c>
       <c r="I21" t="n">
-        <v>28.8101847045977</v>
+        <v>41.3</v>
       </c>
       <c r="J21" t="n">
-        <v>35.81921561991867</v>
+        <v>65.7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>688508.SH</t>
+          <t>600703.SH</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>芯朋微</t>
+          <t>三安光电</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>46032</v>
+        <v>46035</v>
       </c>
       <c r="D22" t="n">
-        <v>0.55</v>
+        <v>-8.5</v>
       </c>
       <c r="E22" t="n">
-        <v>84.9709249</v>
+        <v>788.3</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.1705207481</v>
+        <v>-5.2</v>
       </c>
       <c r="G22" t="n">
-        <v>-3.65515537346911</v>
+        <v>2.26</v>
       </c>
       <c r="H22" t="n">
-        <v>-5.722969699803384</v>
+        <v>1.279</v>
       </c>
       <c r="I22" t="n">
-        <v>154.4925907272727</v>
+        <v>-92.7</v>
       </c>
       <c r="J22" t="n">
-        <v>-178.7139589965512</v>
+        <v>-44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>688660.SH</t>
+          <t>603259.SH</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>电气风电</t>
+          <t>药明康德</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
-        <v>46032</v>
+        <v>46035</v>
       </c>
       <c r="D23" t="n">
-        <v>-11.3</v>
+        <v>132.4</v>
       </c>
       <c r="E23" t="n">
-        <v>239.86667866</v>
+        <v>2944.4</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.776686459800001</v>
+        <v>37.2</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1517861545605992</v>
+        <v>0.125</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.1706964427989118</v>
+        <v>-0.056</v>
       </c>
       <c r="I23" t="n">
-        <v>-21.22713970442478</v>
+        <v>22.2</v>
       </c>
       <c r="J23" t="n">
-        <v>-15.10105067467399</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>688707.SH</t>
+          <t>603663.SH</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>振华新材</t>
+          <t>三祥新材</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
-        <v>46032</v>
+        <v>46035</v>
       </c>
       <c r="D24" t="n">
-        <v>-5.14</v>
+        <v>0.9</v>
       </c>
       <c r="E24" t="n">
-        <v>75.14092828</v>
+        <v>157.5</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.739965999999999</v>
+        <v>0.2</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.1210872464236648</v>
+        <v>2.882</v>
       </c>
       <c r="H24" t="n">
-        <v>0.4845831045432298</v>
+        <v>-0.515</v>
       </c>
       <c r="I24" t="n">
-        <v>-14.61885764202335</v>
+        <v>169.3</v>
       </c>
       <c r="J24" t="n">
-        <v>-11.75560909915453</v>
+        <v>197.4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>688777.SH</t>
+          <t>688005.SH</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>中控技术</t>
+          <t>容百科技</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
-        <v>46032</v>
+        <v>46035</v>
       </c>
       <c r="D25" t="n">
-        <v>3.276293</v>
+        <v>-2.2</v>
       </c>
       <c r="E25" t="n">
-        <v>424.39406228</v>
+        <v>262.6</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.1066987199000002</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>-1.027902201178304</v>
+        <v>-0.995</v>
       </c>
       <c r="H25" t="n">
-        <v>-1.215250034076386</v>
+        <v>-1.006</v>
       </c>
       <c r="I25" t="n">
-        <v>129.5348316771424</v>
+        <v>-119.4</v>
       </c>
       <c r="J25" t="n">
-        <v>2416.815987845957</v>
+        <v>-188.8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>002925.SZ</t>
+          <t>688192.SH</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>盈趣科技</t>
+          <t>迪哲医药-U</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
-        <v>46031</v>
+        <v>46035</v>
       </c>
       <c r="D26" t="n">
-        <v>2.2</v>
+        <v>-8.5</v>
       </c>
       <c r="E26" t="n">
-        <v>156.11031023</v>
+        <v>308.7</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5211638279000002</v>
+        <v>-2.2</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.4449038209464793</v>
+        <v>-0.267</v>
       </c>
       <c r="H26" t="n">
-        <v>0.3625124984623291</v>
+        <v>0.037</v>
       </c>
       <c r="I26" t="n">
-        <v>70.95923192272727</v>
+        <v>-36.3</v>
       </c>
       <c r="J26" t="n">
-        <v>80.22139194497561</v>
+        <v>-35.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>300482.SZ</t>
+          <t>300122.SZ</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>万孚生物</t>
+          <t>智飞生物</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
-        <v>46031</v>
+        <v>46034</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.15</v>
+        <v>-135.4</v>
       </c>
       <c r="E27" t="n">
-        <v>94.41272615</v>
+        <v>474</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.9764157755</v>
+        <v>-123.1</v>
       </c>
       <c r="G27" t="n">
-        <v>-1.888200433161166</v>
+        <v>80.286</v>
       </c>
       <c r="H27" t="n">
-        <v>0.3770494746874256</v>
+        <v>19.291</v>
       </c>
       <c r="I27" t="n">
-        <v>-629.4181743333334</v>
+        <v>-3.5</v>
       </c>
       <c r="J27" t="n">
-        <v>-25.94960294521269</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>300627.SZ</t>
+          <t>300926.SZ</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>华测导航</t>
+          <t>博俊科技</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
-        <v>46031</v>
+        <v>46034</v>
       </c>
       <c r="D28" t="n">
-        <v>5.98</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="E28" t="n">
-        <v>326.92225498</v>
+        <v>143.4</v>
       </c>
       <c r="F28" t="n">
-        <v>1.454262459800001</v>
+        <v>2</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.103470004668036</v>
+        <v>-0.179</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.05268576765824362</v>
+        <v>-0.266</v>
       </c>
       <c r="I28" t="n">
-        <v>54.66927340802675</v>
+        <v>17.4</v>
       </c>
       <c r="J28" t="n">
-        <v>55.42999910002151</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>300871.SZ</t>
+          <t>600990.SH</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>回盛生物</t>
+          <t>四创电子</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
-        <v>46031</v>
+        <v>46034</v>
       </c>
       <c r="D29" t="n">
-        <v>2.125</v>
+        <v>-3.5</v>
       </c>
       <c r="E29" t="n">
-        <v>45.4438923</v>
+        <v>94.8</v>
       </c>
       <c r="F29" t="n">
-        <v>0.4665297784</v>
+        <v>-2.5</v>
       </c>
       <c r="G29" t="n">
-        <v>1.887172584282327</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.2989367930895116</v>
+        <v>4.223</v>
       </c>
       <c r="I29" t="n">
-        <v>21.38536108235294</v>
+        <v>-27.1</v>
       </c>
       <c r="J29" t="n">
-        <v>22.00619785043979</v>
+        <v>-11.7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>300887.SZ</t>
+          <t>605555.SH</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>谱尼测试</t>
+          <t>德昌股份</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
-        <v>46031</v>
+        <v>46034</v>
       </c>
       <c r="D30" t="n">
-        <v>-2.61</v>
+        <v>1.5</v>
       </c>
       <c r="E30" t="n">
-        <v>87.15423292</v>
+        <v>90.7</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.5892865777999998</v>
+        <v>-0</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.5592520569503936</v>
+        <v>-1.038</v>
       </c>
       <c r="H30" t="n">
-        <v>1.762124717285314</v>
+        <v>-1.08</v>
       </c>
       <c r="I30" t="n">
-        <v>-33.39242640613027</v>
+        <v>62.4</v>
       </c>
       <c r="J30" t="n">
-        <v>-43.99051458459877</v>
+        <v>235.6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>601872.SH</t>
+          <t>600501.SH</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>招商轮船</t>
+          <t>航天晨光</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
-        <v>46031</v>
+        <v>46032</v>
       </c>
       <c r="D31" t="n">
-        <v>50.05</v>
+        <v>-2.1</v>
       </c>
       <c r="E31" t="n">
-        <v>775.15569619</v>
+        <v>156.5</v>
       </c>
       <c r="F31" t="n">
-        <v>21.04103542530001</v>
+        <v>-0.9</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2184847009632467</v>
+        <v>-0.63</v>
       </c>
       <c r="H31" t="n">
-        <v>1.115287182968654</v>
+        <v>1.561</v>
       </c>
       <c r="I31" t="n">
-        <v>15.4876262975025</v>
+        <v>-74.5</v>
       </c>
       <c r="J31" t="n">
-        <v>10.60836452117032</v>
+        <v>-53.3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>603895.SH</t>
+          <t>600606.SH</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>天永智能</t>
+          <t>绿地控股</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
-        <v>46031</v>
+        <v>46032</v>
       </c>
       <c r="D32" t="n">
-        <v>0.04</v>
+        <v>-189.5</v>
       </c>
       <c r="E32" t="n">
-        <v>33.45076</v>
+        <v>240.3</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.06201412009999999</v>
+        <v>-129.1</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.9612744874584072</v>
+        <v>-0.08400000000000001</v>
       </c>
       <c r="H32" t="n">
-        <v>-3.76293708455946</v>
+        <v>3.389</v>
       </c>
       <c r="I32" t="n">
-        <v>836.269</v>
+        <v>-1.3</v>
       </c>
       <c r="J32" t="n">
-        <v>-204.4700460581329</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>688362.SH</t>
+          <t>600685.SH</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>甬矽电子</t>
+          <t>中船防务</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
-        <v>46031</v>
+        <v>46032</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.5</v>
+        <v>8.5</v>
       </c>
       <c r="E33" t="n">
-        <v>167.35393133</v>
+        <v>442.3</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.1809939089</v>
+        <v>2.4</v>
       </c>
       <c r="G33" t="n">
-        <v>-20.43238382401235</v>
+        <v>0.393</v>
       </c>
       <c r="H33" t="n">
-        <v>-2.60679480194509</v>
+        <v>1.146</v>
       </c>
       <c r="I33" t="n">
-        <v>-334.70786266</v>
+        <v>52</v>
       </c>
       <c r="J33" t="n">
-        <v>-388.8886908589175</v>
+        <v>52.1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>300389.SZ</t>
+          <t>688208.SH</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>艾比森</t>
+          <t>道通科技</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
-        <v>46030</v>
+        <v>46032</v>
       </c>
       <c r="D34" t="n">
-        <v>2.1885</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="E34" t="n">
-        <v>64.8509257</v>
+        <v>250.6</v>
       </c>
       <c r="F34" t="n">
-        <v>0.5589855183000001</v>
+        <v>1.5</v>
       </c>
       <c r="G34" t="n">
-        <v>-21.93284202193485</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="H34" t="n">
-        <v>0.005246228068547465</v>
+        <v>-0.374</v>
       </c>
       <c r="I34" t="n">
-        <v>29.63259113548093</v>
+        <v>28.8</v>
       </c>
       <c r="J34" t="n">
-        <v>29.04173986011557</v>
+        <v>35.8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>300498.SZ</t>
+          <t>688508.SH</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>温氏股份</t>
+          <t>芯朋微</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
-        <v>46030</v>
+        <v>46032</v>
       </c>
       <c r="D35" t="n">
-        <v>48</v>
+        <v>0.6</v>
       </c>
       <c r="E35" t="n">
-        <v>1125.17910017</v>
+        <v>85</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.8883856945000019</v>
+        <v>-0.2</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.028538854312662</v>
+        <v>-3.655</v>
       </c>
       <c r="H35" t="n">
-        <v>-1.054403624053379</v>
+        <v>-5.723</v>
       </c>
       <c r="I35" t="n">
-        <v>23.44123125354167</v>
+        <v>154.5</v>
       </c>
       <c r="J35" t="n">
-        <v>82.3439890579626</v>
+        <v>-178.7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>300505.SZ</t>
+          <t>688660.SH</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>川金诺</t>
+          <t>电气风电</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
-        <v>46030</v>
+        <v>46032</v>
       </c>
       <c r="D36" t="n">
-        <v>4.15</v>
+        <v>-11.3</v>
       </c>
       <c r="E36" t="n">
-        <v>65.11611619999999</v>
+        <v>239.9</v>
       </c>
       <c r="F36" t="n">
-        <v>1.2430390383</v>
+        <v>-3.8</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8831151553331604</v>
+        <v>0.152</v>
       </c>
       <c r="H36" t="n">
-        <v>0.001170054778526719</v>
+        <v>-0.171</v>
       </c>
       <c r="I36" t="n">
-        <v>15.69063040963855</v>
+        <v>-21.2</v>
       </c>
       <c r="J36" t="n">
-        <v>13.09998013912489</v>
+        <v>-15.1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>300748.SZ</t>
+          <t>688707.SH</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>金力永磁</t>
+          <t>振华新材</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
-        <v>46030</v>
+        <v>46032</v>
       </c>
       <c r="D37" t="n">
-        <v>5.8</v>
+        <v>-5.1</v>
       </c>
       <c r="E37" t="n">
-        <v>502.2276523299999</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="F37" t="n">
-        <v>1.4989346388</v>
+        <v>-1.7</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8503608141438344</v>
+        <v>-0.121</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.2356042238728517</v>
+        <v>0.485</v>
       </c>
       <c r="I37" t="n">
-        <v>86.59097453965516</v>
+        <v>-14.6</v>
       </c>
       <c r="J37" t="n">
-        <v>77.77137334707075</v>
+        <v>-11.8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>300905.SZ</t>
+          <t>688777.SH</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>宝丽迪</t>
+          <t>中控技术</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
-        <v>46030</v>
+        <v>46032</v>
       </c>
       <c r="D38" t="n">
-        <v>1.41</v>
+        <v>3.3</v>
       </c>
       <c r="E38" t="n">
-        <v>60.86137412</v>
+        <v>424.4</v>
       </c>
       <c r="F38" t="n">
-        <v>0.3818073292999999</v>
+        <v>-0.1</v>
       </c>
       <c r="G38" t="n">
-        <v>0.186407235330136</v>
+        <v>-1.028</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.08935087755490301</v>
+        <v>-1.215</v>
       </c>
       <c r="I38" t="n">
-        <v>43.16409512056738</v>
+        <v>129.5</v>
       </c>
       <c r="J38" t="n">
-        <v>38.89672673896305</v>
+        <v>2416.8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>600189.SH</t>
+          <t>002925.SZ</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>泉阳泉</t>
+          <t>盈趣科技</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
-        <v>46030</v>
+        <v>46031</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.157603</v>
+        <v>2.2</v>
       </c>
       <c r="E39" t="n">
-        <v>49.92080728</v>
+        <v>156.1</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.1315153563</v>
+        <v>0.5</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.7776130860624701</v>
+        <v>-0.445</v>
       </c>
       <c r="H39" t="n">
-        <v>0.04611332852447303</v>
+        <v>0.363</v>
       </c>
       <c r="I39" t="n">
-        <v>-316.7503618585941</v>
+        <v>71</v>
       </c>
       <c r="J39" t="n">
-        <v>-95.95281098000061</v>
+        <v>80.2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>600435.SH</t>
+          <t>300482.SZ</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>北方导航</t>
+          <t>万孚生物</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
-        <v>46030</v>
+        <v>46031</v>
       </c>
       <c r="D40" t="n">
-        <v>0.89</v>
+        <v>-0.2</v>
       </c>
       <c r="E40" t="n">
-        <v>299.74930585</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.2794501518</v>
+        <v>-1</v>
       </c>
       <c r="G40" t="n">
-        <v>-1.215889552196231</v>
+        <v>-1.888</v>
       </c>
       <c r="H40" t="n">
-        <v>-6.114659050176905</v>
+        <v>0.377</v>
       </c>
       <c r="I40" t="n">
-        <v>336.7969728651685</v>
+        <v>-629.4</v>
       </c>
       <c r="J40" t="n">
-        <v>-382.4731387022085</v>
+        <v>-25.9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>603309.SH</t>
+          <t>300627.SZ</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>维力医疗</t>
+          <t>华测导航</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
-        <v>46030</v>
+        <v>46031</v>
       </c>
       <c r="D41" t="n">
-        <v>0.65</v>
+        <v>6</v>
       </c>
       <c r="E41" t="n">
-        <v>41.41655421</v>
+        <v>326.9</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.1937184043</v>
+        <v>1.5</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.38704932365739</v>
+        <v>-0.103</v>
       </c>
       <c r="H41" t="n">
-        <v>-2.788307138891028</v>
+        <v>-0.053</v>
       </c>
       <c r="I41" t="n">
-        <v>63.7177757076923</v>
+        <v>54.7</v>
       </c>
       <c r="J41" t="n">
-        <v>-14.21470184230937</v>
+        <v>55.4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>603588.SH</t>
+          <t>300871.SZ</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>高能环境</t>
+          <t>回盛生物</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
-        <v>46030</v>
+        <v>46031</v>
       </c>
       <c r="D42" t="n">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="E42" t="n">
-        <v>126.12381304</v>
+        <v>45.4</v>
       </c>
       <c r="F42" t="n">
-        <v>1.5041718126</v>
+        <v>0.5</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.067761601164174</v>
+        <v>1.887</v>
       </c>
       <c r="H42" t="n">
-        <v>0.03669264936382244</v>
+        <v>-0.299</v>
       </c>
       <c r="I42" t="n">
-        <v>16.81650840533333</v>
+        <v>21.4</v>
       </c>
       <c r="J42" t="n">
-        <v>21.1494757647286</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>603589.SH</t>
+          <t>300887.SZ</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>口子窖</t>
+          <t>谱尼测试</t>
         </is>
       </c>
       <c r="C43" s="2" t="n">
-        <v>46030</v>
+        <v>46031</v>
       </c>
       <c r="D43" t="n">
-        <v>6.4527</v>
+        <v>-2.6</v>
       </c>
       <c r="E43" t="n">
-        <v>181.34982391</v>
+        <v>87.2</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.7952632476999995</v>
+        <v>-0.6</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.231354945910882</v>
+        <v>-0.5590000000000001</v>
       </c>
       <c r="H43" t="n">
-        <v>-3.990850233864757</v>
+        <v>1.762</v>
       </c>
       <c r="I43" t="n">
-        <v>28.10448709997365</v>
+        <v>-33.4</v>
       </c>
       <c r="J43" t="n">
-        <v>-85.54676721569699</v>
+        <v>-44</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>603590.SH</t>
+          <t>600340.SH</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>康辰药业</t>
+          <t>华夏幸福</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
-        <v>46030</v>
+        <v>46031</v>
       </c>
       <c r="D44" t="n">
-        <v>1.4</v>
+        <v>-250</v>
       </c>
       <c r="E44" t="n">
-        <v>66.59358777</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06973684760000021</v>
+        <v>-148.2</v>
       </c>
       <c r="G44" t="n">
-        <v>-1.093498414458194</v>
+        <v>2.799</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.8103372603060798</v>
+        <v>4.994</v>
       </c>
       <c r="I44" t="n">
-        <v>47.56684840714285</v>
+        <v>-0.4</v>
       </c>
       <c r="J44" t="n">
-        <v>115.4336528378451</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>688332.SH</t>
+          <t>601872.SH</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>中科蓝讯</t>
+          <t>招商轮船</t>
         </is>
       </c>
       <c r="C45" s="2" t="n">
-        <v>46030</v>
+        <v>46031</v>
       </c>
       <c r="D45" t="n">
-        <v>2.2</v>
+        <v>50.1</v>
       </c>
       <c r="E45" t="n">
-        <v>161.25185322</v>
+        <v>775.2</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3859227841000001</v>
+        <v>21</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.4454056020328815</v>
+        <v>0.218</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.4543427905480144</v>
+        <v>1.115</v>
       </c>
       <c r="I45" t="n">
-        <v>73.29629691818181</v>
+        <v>15.5</v>
       </c>
       <c r="J45" t="n">
-        <v>86.46069771418614</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>688516.SH</t>
+          <t>603895.SH</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>奥特维</t>
+          <t>天永智能</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
-        <v>46030</v>
+        <v>46031</v>
       </c>
       <c r="D46" t="n">
-        <v>3.935997</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.86080894</v>
+        <v>33.5</v>
       </c>
       <c r="F46" t="n">
-        <v>0.5013862894000001</v>
+        <v>-0.1</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.4147538453410785</v>
+        <v>-0.961</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.08665481387021212</v>
+        <v>-3.763</v>
       </c>
       <c r="I46" t="n">
-        <v>41.8854000498476</v>
+        <v>836.3</v>
       </c>
       <c r="J46" t="n">
-        <v>80.29789963701147</v>
+        <v>-204.5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>002258.SZ</t>
+          <t>688362.SH</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>利尔化学</t>
+          <t>甬矽电子</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
-        <v>46029</v>
+        <v>46031</v>
       </c>
       <c r="D47" t="n">
-        <v>4.600000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="E47" t="n">
-        <v>108.61933184</v>
+        <v>167.4</v>
       </c>
       <c r="F47" t="n">
-        <v>0.7410139201000003</v>
+        <v>-0.2</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.1112815243616346</v>
+        <v>-20.432</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.3472723007326778</v>
+        <v>-2.607</v>
       </c>
       <c r="I47" t="n">
-        <v>23.61289822608695</v>
+        <v>-334.7</v>
       </c>
       <c r="J47" t="n">
-        <v>32.34355492928866</v>
+        <v>-388.9</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>002080.SZ</t>
+          <t>300389.SZ</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>中材科技</t>
+          <t>艾比森</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
-        <v>46028</v>
+        <v>46030</v>
       </c>
       <c r="D48" t="n">
-        <v>10.5</v>
+        <v>2.2</v>
       </c>
       <c r="E48" t="n">
-        <v>637.3513372000001</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.4726384748</v>
+        <v>0.6</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.465908523658847</v>
+        <v>-21.933</v>
       </c>
       <c r="H48" t="n">
-        <v>-1.378466294369342</v>
+        <v>0.005</v>
       </c>
       <c r="I48" t="n">
-        <v>60.70012735238096</v>
+        <v>29.6</v>
       </c>
       <c r="J48" t="n">
-        <v>-1209.747921215747</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>002204.SZ</t>
+          <t>300498.SZ</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>大连重工</t>
+          <t>温氏股份</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
-        <v>46028</v>
+        <v>46030</v>
       </c>
       <c r="D49" t="n">
-        <v>3.6446</v>
+        <v>48</v>
       </c>
       <c r="E49" t="n">
-        <v>146.39784843</v>
+        <v>1125.2</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.1038888573000003</v>
+        <v>-0.9</v>
       </c>
       <c r="G49" t="n">
-        <v>-1.17840375909747</v>
+        <v>-1.029</v>
       </c>
       <c r="H49" t="n">
-        <v>-1.094805613098722</v>
+        <v>-1.054</v>
       </c>
       <c r="I49" t="n">
-        <v>40.1684268314767</v>
+        <v>23.4</v>
       </c>
       <c r="J49" t="n">
-        <v>186.6979991875013</v>
+        <v>82.3</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>002444.SZ</t>
+          <t>300505.SZ</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>巨星科技</t>
+          <t>川金诺</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
-        <v>46028</v>
+        <v>46030</v>
       </c>
       <c r="D50" t="n">
-        <v>23.088055</v>
+        <v>4.2</v>
       </c>
       <c r="E50" t="n">
-        <v>408.8698817</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="F50" t="n">
-        <v>2.733146102900001</v>
+        <v>1.2</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.26380285372151</v>
+        <v>0.883</v>
       </c>
       <c r="H50" t="n">
-        <v>-0.6501248656747912</v>
+        <v>0.001</v>
       </c>
       <c r="I50" t="n">
-        <v>17.70915227376234</v>
+        <v>15.7</v>
       </c>
       <c r="J50" t="n">
-        <v>25.53646957991436</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>002598.SZ</t>
+          <t>300748.SZ</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>山东章鼓</t>
+          <t>金力永磁</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
-        <v>46028</v>
+        <v>46030</v>
       </c>
       <c r="D51" t="n">
-        <v>0.66</v>
+        <v>5.8</v>
       </c>
       <c r="E51" t="n">
-        <v>30.01892506</v>
+        <v>502.2</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1127650836</v>
+        <v>1.5</v>
       </c>
       <c r="G51" t="n">
-        <v>-1.408165975317847</v>
+        <v>0.85</v>
       </c>
       <c r="H51" t="n">
-        <v>-0.4471622925246393</v>
+        <v>-0.236</v>
       </c>
       <c r="I51" t="n">
-        <v>45.4832197878788</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="J51" t="n">
-        <v>55.35786592073761</v>
+        <v>77.8</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>002757.SZ</t>
+          <t>300905.SZ</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>南兴股份</t>
+          <t>宝丽迪</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
-        <v>46028</v>
+        <v>46030</v>
       </c>
       <c r="D52" t="n">
-        <v>0.75</v>
+        <v>1.4</v>
       </c>
       <c r="E52" t="n">
-        <v>63.28665656</v>
+        <v>60.9</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.08398338959999996</v>
+        <v>0.4</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.9782034226215124</v>
+        <v>0.186</v>
       </c>
       <c r="H52" t="n">
-        <v>-1.312527283771749</v>
+        <v>-0.089</v>
       </c>
       <c r="I52" t="n">
-        <v>84.38220874666666</v>
+        <v>43.2</v>
       </c>
       <c r="J52" t="n">
-        <v>3773.07821024805</v>
+        <v>38.9</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>002846.SZ</t>
+          <t>600189.SH</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>英联股份</t>
+          <t>泉阳泉</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
-        <v>46028</v>
+        <v>46030</v>
       </c>
       <c r="D53" t="n">
-        <v>0.202</v>
+        <v>-0.2</v>
       </c>
       <c r="E53" t="n">
-        <v>70.01293912</v>
+        <v>49.9</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.0664842068</v>
+        <v>-0.1</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.8446617391748193</v>
+        <v>-0.778</v>
       </c>
       <c r="H53" t="n">
-        <v>-1.919290166727806</v>
+        <v>0.046</v>
       </c>
       <c r="I53" t="n">
-        <v>346.5987085148515</v>
+        <v>-316.8</v>
       </c>
       <c r="J53" t="n">
-        <v>-550.7132866117233</v>
+        <v>-96</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>300435.SZ</t>
+          <t>600435.SH</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>中泰股份</t>
+          <t>北方导航</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
-        <v>46028</v>
+        <v>46030</v>
       </c>
       <c r="D54" t="n">
-        <v>4.03</v>
+        <v>0.9</v>
       </c>
       <c r="E54" t="n">
-        <v>91.37540970000001</v>
+        <v>299.7</v>
       </c>
       <c r="F54" t="n">
-        <v>0.8009434558000001</v>
+        <v>-0.3</v>
       </c>
       <c r="G54" t="n">
-        <v>-1.28582936263212</v>
+        <v>-1.216</v>
       </c>
       <c r="H54" t="n">
-        <v>-0.5942572871613913</v>
+        <v>-6.115</v>
       </c>
       <c r="I54" t="n">
-        <v>22.67379893300248</v>
+        <v>336.8</v>
       </c>
       <c r="J54" t="n">
-        <v>20.87698730026716</v>
+        <v>-382.5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>301345.SZ</t>
+          <t>600537.SH</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>涛涛车业</t>
+          <t>亿晶光电</t>
         </is>
       </c>
       <c r="C55" s="2" t="n">
-        <v>46028</v>
+        <v>46030</v>
       </c>
       <c r="D55" t="n">
-        <v>7.890000000000001</v>
+        <v>-6</v>
       </c>
       <c r="E55" t="n">
-        <v>280.9104069</v>
+        <v>51</v>
       </c>
       <c r="F55" t="n">
-        <v>1.871476268</v>
+        <v>-3.9</v>
       </c>
       <c r="G55" t="n">
-        <v>0.4865143507485072</v>
+        <v>-0.746</v>
       </c>
       <c r="H55" t="n">
-        <v>-0.2886072264042254</v>
+        <v>5.3</v>
       </c>
       <c r="I55" t="n">
-        <v>35.60334688212927</v>
+        <v>-8.5</v>
       </c>
       <c r="J55" t="n">
-        <v>34.06977391223202</v>
+        <v>-4.2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>600983.SH</t>
+          <t>603309.SH</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>惠而浦</t>
+          <t>维力医疗</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
-        <v>46028</v>
+        <v>46030</v>
       </c>
       <c r="D56" t="n">
-        <v>4.55</v>
+        <v>0.6</v>
       </c>
       <c r="E56" t="n">
-        <v>75.0343781</v>
+        <v>41.4</v>
       </c>
       <c r="F56" t="n">
-        <v>1.5602262201</v>
+        <v>-1.2</v>
       </c>
       <c r="G56" t="n">
-        <v>0.08788450750789112</v>
+        <v>-3.387</v>
       </c>
       <c r="H56" t="n">
-        <v>0.6575023394587849</v>
+        <v>-2.788</v>
       </c>
       <c r="I56" t="n">
-        <v>16.49107210989011</v>
+        <v>63.7</v>
       </c>
       <c r="J56" t="n">
-        <v>13.34658622591341</v>
+        <v>-14.2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>600988.SH</t>
+          <t>603588.SH</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>赤峰黄金</t>
+          <t>高能环境</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
-        <v>46028</v>
+        <v>46030</v>
       </c>
       <c r="D57" t="n">
-        <v>29.7</v>
+        <v>7.5</v>
       </c>
       <c r="E57" t="n">
-        <v>607.94153584</v>
+        <v>126.1</v>
       </c>
       <c r="F57" t="n">
-        <v>9.440357430699997</v>
+        <v>1.5</v>
       </c>
       <c r="G57" t="n">
-        <v>0.425966683275492</v>
+        <v>-2.068</v>
       </c>
       <c r="H57" t="n">
-        <v>0.03279902565282167</v>
+        <v>0.037</v>
       </c>
       <c r="I57" t="n">
-        <v>20.46941198114478</v>
+        <v>16.8</v>
       </c>
       <c r="J57" t="n">
-        <v>16.22837986455856</v>
+        <v>21.1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>603799.SH</t>
+          <t>603589.SH</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>华友钴业</t>
+          <t>口子窖</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
-        <v>46028</v>
+        <v>46030</v>
       </c>
       <c r="D58" t="n">
-        <v>56</v>
+        <v>6.5</v>
       </c>
       <c r="E58" t="n">
-        <v>1289.77469796</v>
+        <v>181.3</v>
       </c>
       <c r="F58" t="n">
-        <v>15.8769380412</v>
+        <v>-0.8</v>
       </c>
       <c r="G58" t="n">
-        <v>1.106632343313969</v>
+        <v>-1.231</v>
       </c>
       <c r="H58" t="n">
-        <v>0.1140833599077289</v>
+        <v>-3.991</v>
       </c>
       <c r="I58" t="n">
-        <v>23.031691035</v>
+        <v>28.1</v>
       </c>
       <c r="J58" t="n">
-        <v>20.84250713119453</v>
+        <v>-85.5</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>003017.SZ</t>
+          <t>603590.SH</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>大洋生物</t>
+          <t>康辰药业</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
-        <v>46027</v>
+        <v>46030</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="E59" t="n">
-        <v>25.0824</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1501642898000001</v>
+        <v>0.1</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1568264321667754</v>
+        <v>-1.093</v>
       </c>
       <c r="H59" t="n">
-        <v>-0.4679299636957645</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="I59" t="n">
-        <v>27.86933333333333</v>
+        <v>47.6</v>
       </c>
       <c r="J59" t="n">
-        <v>34.2319302506455</v>
+        <v>115.4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>300428.SZ</t>
+          <t>688332.SH</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>立中集团</t>
+          <t>中科蓝讯</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
-        <v>46027</v>
+        <v>46030</v>
       </c>
       <c r="D60" t="n">
-        <v>7.5</v>
+        <v>2.2</v>
       </c>
       <c r="E60" t="n">
-        <v>160.08329263</v>
+        <v>161.3</v>
       </c>
       <c r="F60" t="n">
-        <v>1.9039578037</v>
+        <v>0.4</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1028790843879819</v>
+        <v>-0.445</v>
       </c>
       <c r="H60" t="n">
-        <v>-0.04848428610376132</v>
+        <v>-0.454</v>
       </c>
       <c r="I60" t="n">
-        <v>21.34443901733333</v>
+        <v>73.3</v>
       </c>
       <c r="J60" t="n">
-        <v>20.75540884336581</v>
+        <v>86.5</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>301377.SZ</t>
+          <t>688516.SH</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>鼎泰高科</t>
+          <t>奥特维</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
-        <v>46027</v>
+        <v>46030</v>
       </c>
       <c r="D61" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="E61" t="n">
-        <v>570.3099999999999</v>
+        <v>164.9</v>
       </c>
       <c r="F61" t="n">
-        <v>1.173688948</v>
+        <v>0.5</v>
       </c>
       <c r="G61" t="n">
-        <v>1.095624878196125</v>
+        <v>-0.415</v>
       </c>
       <c r="H61" t="n">
-        <v>0.02229759373317508</v>
+        <v>-0.08699999999999999</v>
       </c>
       <c r="I61" t="n">
-        <v>150.0815789473684</v>
+        <v>41.9</v>
       </c>
       <c r="J61" t="n">
-        <v>122.1441262864073</v>
+        <v>80.3</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>301606.SZ</t>
+          <t>002258.SZ</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>绿联科技</t>
+          <t>利尔化学</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
-        <v>46027</v>
+        <v>46029</v>
       </c>
       <c r="D62" t="n">
-        <v>6.23</v>
+        <v>4.6</v>
       </c>
       <c r="E62" t="n">
-        <v>243.71802004</v>
+        <v>108.6</v>
       </c>
       <c r="F62" t="n">
-        <v>1.765743004100001</v>
+        <v>0.7</v>
       </c>
       <c r="G62" t="n">
-        <v>0.3460353472113691</v>
+        <v>-0.111</v>
       </c>
       <c r="H62" t="n">
-        <v>-0.05991654981565375</v>
+        <v>-0.347</v>
       </c>
       <c r="I62" t="n">
-        <v>39.12006742215088</v>
+        <v>23.6</v>
       </c>
       <c r="J62" t="n">
-        <v>33.96524330438567</v>
+        <v>32.3</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>601339.SH</t>
+          <t>002080.SZ</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>百隆东方</t>
+          <t>中材科技</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
-        <v>46027</v>
+        <v>46028</v>
       </c>
       <c r="D63" t="n">
-        <v>5.5</v>
+        <v>10.5</v>
       </c>
       <c r="E63" t="n">
-        <v>86.8250451</v>
+        <v>637.4</v>
       </c>
       <c r="F63" t="n">
-        <v>0.4117901220000002</v>
+        <v>-1.5</v>
       </c>
       <c r="G63" t="n">
-        <v>-2.161257590301481</v>
+        <v>-3.466</v>
       </c>
       <c r="H63" t="n">
-        <v>-0.7223838705854586</v>
+        <v>-1.378</v>
       </c>
       <c r="I63" t="n">
-        <v>15.78637183636364</v>
+        <v>60.7</v>
       </c>
       <c r="J63" t="n">
-        <v>31.93649462699285</v>
+        <v>-1209.7</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>000792.SZ</t>
+          <t>002204.SZ</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>盐湖股份</t>
+          <t>大连重工</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
-        <v>46022</v>
+        <v>46028</v>
       </c>
       <c r="D64" t="n">
-        <v>82.3</v>
+        <v>3.6</v>
       </c>
       <c r="E64" t="n">
-        <v>1467.88222287</v>
+        <v>146.4</v>
       </c>
       <c r="F64" t="n">
-        <v>37.3597164381</v>
+        <v>-0.1</v>
       </c>
       <c r="G64" t="n">
-        <v>1.808790339825388</v>
+        <v>-1.178</v>
       </c>
       <c r="H64" t="n">
-        <v>0.8823094759987054</v>
+        <v>-1.095</v>
       </c>
       <c r="I64" t="n">
-        <v>17.83574997411908</v>
+        <v>40.2</v>
       </c>
       <c r="J64" t="n">
-        <v>11.12647677566628</v>
+        <v>186.7</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>000932.SZ</t>
+          <t>002444.SZ</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>华菱钢铁</t>
+          <t>巨星科技</t>
         </is>
       </c>
       <c r="C65" s="2" t="n">
-        <v>46022</v>
+        <v>46028</v>
       </c>
       <c r="D65" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="E65" t="n">
-        <v>386.88341994</v>
+        <v>408.9</v>
       </c>
       <c r="F65" t="n">
-        <v>0.06716918480000089</v>
+        <v>2.7</v>
       </c>
       <c r="G65" t="n">
-        <v>-1.035945848199878</v>
+        <v>-0.264</v>
       </c>
       <c r="H65" t="n">
-        <v>-0.9912948609000458</v>
+        <v>-0.65</v>
       </c>
       <c r="I65" t="n">
-        <v>16.82101825826087</v>
+        <v>17.7</v>
       </c>
       <c r="J65" t="n">
-        <v>48.86405936023661</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>000959.SZ</t>
+          <t>002598.SZ</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>首钢股份</t>
+          <t>山东章鼓</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
-        <v>46022</v>
+        <v>46028</v>
       </c>
       <c r="D66" t="n">
-        <v>9.17</v>
+        <v>0.7</v>
       </c>
       <c r="E66" t="n">
-        <v>379.99340113</v>
+        <v>30</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.7097636114999997</v>
+        <v>0.1</v>
       </c>
       <c r="G66" t="n">
-        <v>-1.32676677347687</v>
+        <v>-1.408</v>
       </c>
       <c r="H66" t="n">
-        <v>-1.232265202496934</v>
+        <v>-0.447</v>
       </c>
       <c r="I66" t="n">
-        <v>41.4387569389313</v>
+        <v>45.5</v>
       </c>
       <c r="J66" t="n">
-        <v>410.120035041743</v>
+        <v>55.4</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>002010.SZ</t>
+          <t>002757.SZ</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>传化智联</t>
+          <t>南兴股份</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
-        <v>46022</v>
+        <v>46028</v>
       </c>
       <c r="D67" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="E67" t="n">
-        <v>161.69580812</v>
+        <v>63.3</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.5876061782999997</v>
+        <v>-0.1</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.5957134144538123</v>
+        <v>-0.978</v>
       </c>
       <c r="H67" t="n">
-        <v>-1.603382745861397</v>
+        <v>-1.313</v>
       </c>
       <c r="I67" t="n">
-        <v>50.52994003749999</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="J67" t="n">
-        <v>-204.9466402677821</v>
+        <v>3773.1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>002709.SZ</t>
+          <t>002846.SZ</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>天赐材料</t>
+          <t>英联股份</t>
         </is>
       </c>
       <c r="C68" s="2" t="n">
-        <v>46022</v>
+        <v>46028</v>
       </c>
       <c r="D68" t="n">
-        <v>10.5</v>
+        <v>0.2</v>
       </c>
       <c r="E68" t="n">
-        <v>922.57322386</v>
+        <v>70</v>
       </c>
       <c r="F68" t="n">
-        <v>6.7682630308</v>
+        <v>-0.1</v>
       </c>
       <c r="G68" t="n">
-        <v>6.13661803411709</v>
+        <v>-0.845</v>
       </c>
       <c r="H68" t="n">
-        <v>3.884352720988655</v>
+        <v>-1.919</v>
       </c>
       <c r="I68" t="n">
-        <v>87.86411655809523</v>
+        <v>346.6</v>
       </c>
       <c r="J68" t="n">
-        <v>42.53353095248256</v>
+        <v>-550.7</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>300620.SZ</t>
+          <t>300435.SZ</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>光库科技</t>
+          <t>中泰股份</t>
         </is>
       </c>
       <c r="C69" s="2" t="n">
-        <v>46022</v>
+        <v>46028</v>
       </c>
       <c r="D69" t="n">
-        <v>1.3411</v>
+        <v>4</v>
       </c>
       <c r="E69" t="n">
-        <v>384.98394203</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="F69" t="n">
-        <v>0.4937006226999999</v>
+        <v>0.8</v>
       </c>
       <c r="G69" t="n">
-        <v>12.81443467143056</v>
+        <v>-1.286</v>
       </c>
       <c r="H69" t="n">
-        <v>0.1434858086840858</v>
+        <v>-0.594</v>
       </c>
       <c r="I69" t="n">
-        <v>287.0657982477071</v>
+        <v>22.7</v>
       </c>
       <c r="J69" t="n">
-        <v>201.2617069208818</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>301078.SZ</t>
+          <t>301345.SZ</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>孩子王</t>
+          <t>涛涛车业</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
-        <v>46022</v>
+        <v>46028</v>
       </c>
       <c r="D70" t="n">
-        <v>2.05</v>
+        <v>7.9</v>
       </c>
       <c r="E70" t="n">
-        <v>129.77774919</v>
+        <v>280.9</v>
       </c>
       <c r="F70" t="n">
-        <v>0.4907372216999997</v>
+        <v>1.9</v>
       </c>
       <c r="G70" t="n">
-        <v>0.8061091562994884</v>
+        <v>0.487</v>
       </c>
       <c r="H70" t="n">
-        <v>0.1942585524931957</v>
+        <v>-0.289</v>
       </c>
       <c r="I70" t="n">
-        <v>63.30621911707318</v>
+        <v>35.6</v>
       </c>
       <c r="J70" t="n">
-        <v>68.91614885304921</v>
+        <v>34.1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>601899.SH</t>
+          <t>600983.SH</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>紫金矿业</t>
+          <t>惠而浦</t>
         </is>
       </c>
       <c r="C71" s="2" t="n">
-        <v>46022</v>
+        <v>46028</v>
       </c>
       <c r="D71" t="n">
-        <v>475</v>
+        <v>4.6</v>
       </c>
       <c r="E71" t="n">
-        <v>8886.28881539</v>
+        <v>75</v>
       </c>
       <c r="F71" t="n">
-        <v>133.73356697</v>
+        <v>1.6</v>
       </c>
       <c r="G71" t="n">
-        <v>0.6832200401879163</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="H71" t="n">
-        <v>0.06964038600094091</v>
+        <v>0.658</v>
       </c>
       <c r="I71" t="n">
-        <v>18.70797645345263</v>
+        <v>16.5</v>
       </c>
       <c r="J71" t="n">
-        <v>16.88678590705747</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
+          <t>600988.SH</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>赤峰黄金</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="n">
+        <v>46028</v>
+      </c>
+      <c r="D72" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="E72" t="n">
+        <v>607.9</v>
+      </c>
+      <c r="F72" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.426</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="I72" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="J72" t="n">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>603799.SH</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>华友钴业</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="n">
+        <v>46028</v>
+      </c>
+      <c r="D73" t="n">
+        <v>56</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1289.8</v>
+      </c>
+      <c r="F73" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1.107</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="I73" t="n">
+        <v>23</v>
+      </c>
+      <c r="J73" t="n">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>003017.SZ</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>大洋生物</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="n">
+        <v>46027</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E74" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.157</v>
+      </c>
+      <c r="H74" t="n">
+        <v>-0.468</v>
+      </c>
+      <c r="I74" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="J74" t="n">
+        <v>34.2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>300428.SZ</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>立中集团</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="n">
+        <v>46027</v>
+      </c>
+      <c r="D75" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E75" t="n">
+        <v>160.1</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="H75" t="n">
+        <v>-0.048</v>
+      </c>
+      <c r="I75" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="J75" t="n">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>301377.SZ</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>鼎泰高科</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="n">
+        <v>46027</v>
+      </c>
+      <c r="D76" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E76" t="n">
+        <v>570.3</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1.096</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="I76" t="n">
+        <v>150.1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>122.1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>301606.SZ</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>绿联科技</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="n">
+        <v>46027</v>
+      </c>
+      <c r="D77" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="E77" t="n">
+        <v>243.7</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.346</v>
+      </c>
+      <c r="H77" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="I77" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>601339.SH</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>百隆东方</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="n">
+        <v>46027</v>
+      </c>
+      <c r="D78" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E78" t="n">
+        <v>86.8</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-2.161</v>
+      </c>
+      <c r="H78" t="n">
+        <v>-0.722</v>
+      </c>
+      <c r="I78" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="J78" t="n">
+        <v>31.9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>000792.SZ</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>盐湖股份</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="n">
+        <v>46022</v>
+      </c>
+      <c r="D79" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1467.9</v>
+      </c>
+      <c r="F79" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1.809</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.882</v>
+      </c>
+      <c r="I79" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J79" t="n">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>000932.SZ</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>华菱钢铁</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>46022</v>
+      </c>
+      <c r="D80" t="n">
+        <v>23</v>
+      </c>
+      <c r="E80" t="n">
+        <v>386.9</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-1.036</v>
+      </c>
+      <c r="H80" t="n">
+        <v>-0.991</v>
+      </c>
+      <c r="I80" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="J80" t="n">
+        <v>48.9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>000959.SZ</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>首钢股份</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>46022</v>
+      </c>
+      <c r="D81" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="E81" t="n">
+        <v>380</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-1.327</v>
+      </c>
+      <c r="H81" t="n">
+        <v>-1.232</v>
+      </c>
+      <c r="I81" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="J81" t="n">
+        <v>410.1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>002010.SZ</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>传化智联</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>46022</v>
+      </c>
+      <c r="D82" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E82" t="n">
+        <v>161.7</v>
+      </c>
+      <c r="F82" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-0.596</v>
+      </c>
+      <c r="H82" t="n">
+        <v>-1.603</v>
+      </c>
+      <c r="I82" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="J82" t="n">
+        <v>-204.9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>002709.SZ</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>天赐材料</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="n">
+        <v>46022</v>
+      </c>
+      <c r="D83" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E83" t="n">
+        <v>922.6</v>
+      </c>
+      <c r="F83" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G83" t="n">
+        <v>6.137</v>
+      </c>
+      <c r="H83" t="n">
+        <v>3.884</v>
+      </c>
+      <c r="I83" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="J83" t="n">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>300620.SZ</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>光库科技</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="n">
+        <v>46022</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E84" t="n">
+        <v>385</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G84" t="n">
+        <v>12.814</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="I84" t="n">
+        <v>287.1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>201.3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>301078.SZ</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>孩子王</t>
+        </is>
+      </c>
+      <c r="C85" s="2" t="n">
+        <v>46022</v>
+      </c>
+      <c r="D85" t="n">
+        <v>2</v>
+      </c>
+      <c r="E85" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.806</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="I85" t="n">
+        <v>63.3</v>
+      </c>
+      <c r="J85" t="n">
+        <v>68.90000000000001</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>601899.SH</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="n">
+        <v>46022</v>
+      </c>
+      <c r="D86" t="n">
+        <v>475</v>
+      </c>
+      <c r="E86" t="n">
+        <v>8886.299999999999</v>
+      </c>
+      <c r="F86" t="n">
+        <v>133.7</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.6830000000000001</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I86" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="J86" t="n">
+        <v>16.9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
           <t>002050.SZ</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B87" t="inlineStr">
         <is>
           <t>三花智控</t>
         </is>
       </c>
-      <c r="C72" s="2" t="n">
+      <c r="C87" s="2" t="n">
         <v>46014</v>
       </c>
-      <c r="D72" t="n">
-        <v>36.791636</v>
-      </c>
-      <c r="E72" t="n">
-        <v>1911.27992928</v>
-      </c>
-      <c r="F72" t="n">
-        <v>5.959122044100003</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-0.3149733710928816</v>
-      </c>
-      <c r="H72" t="n">
-        <v>-0.4446848099148817</v>
-      </c>
-      <c r="I72" t="n">
-        <v>51.94876165006634</v>
-      </c>
-      <c r="J72" t="n">
-        <v>66.80828052403318</v>
+      <c r="D87" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1911.3</v>
+      </c>
+      <c r="F87" t="n">
+        <v>6</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-0.315</v>
+      </c>
+      <c r="H87" t="n">
+        <v>-0.445</v>
+      </c>
+      <c r="I87" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="J87" t="n">
+        <v>66.8</v>
       </c>
     </row>
   </sheetData>

--- a/data/2025/Q4预告/B/B.xlsx
+++ b/data/2025/Q4预告/B/B.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J87"/>
+  <dimension ref="A1:J111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,3096 +492,3960 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>000100.SZ</t>
+          <t>000032.SZ</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TCL科技</t>
+          <t>深桑达A</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>46036</v>
+        <v>46037</v>
       </c>
       <c r="D2" t="n">
-        <v>28.9</v>
+        <v>-3.8</v>
       </c>
       <c r="E2" t="n">
-        <v>990.1</v>
+        <v>264.7</v>
       </c>
       <c r="F2" t="n">
-        <v>4.6</v>
+        <v>0.7</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.072</v>
+        <v>-0.8070000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.47</v>
+        <v>-1.199</v>
       </c>
       <c r="I2" t="n">
-        <v>34.3</v>
+        <v>-68.8</v>
       </c>
       <c r="J2" t="n">
-        <v>43.9</v>
+        <v>-193.4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>000738.SZ</t>
+          <t>000430.SZ</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>航发控制</t>
+          <t>*ST张股</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>46036</v>
+        <v>46037</v>
       </c>
       <c r="D3" t="n">
-        <v>3.1</v>
+        <v>-5.3</v>
       </c>
       <c r="E3" t="n">
-        <v>298.8</v>
+        <v>60.5</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.8</v>
+        <v>-5</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.734</v>
+        <v>-0.033</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.943</v>
+        <v>-1880.538</v>
       </c>
       <c r="I3" t="n">
-        <v>96.40000000000001</v>
+        <v>-11.4</v>
       </c>
       <c r="J3" t="n">
-        <v>-183.9</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>001283.SZ</t>
+          <t>000859.SZ</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>豪鹏科技</t>
+          <t>国风新材</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>46036</v>
+        <v>46037</v>
       </c>
       <c r="D4" t="n">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="E4" t="n">
-        <v>69.5</v>
+        <v>110.9</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="G4" t="n">
-        <v>0.367</v>
+        <v>-11.325</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.78</v>
+        <v>-0.199</v>
       </c>
       <c r="I4" t="n">
-        <v>38.6</v>
+        <v>-116.8</v>
       </c>
       <c r="J4" t="n">
-        <v>51</v>
+        <v>-119.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>002107.SZ</t>
+          <t>001212.SZ</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>沃华医药</t>
+          <t>中旗新材</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>46036</v>
+        <v>46037</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8</v>
+        <v>-0.4</v>
       </c>
       <c r="E5" t="n">
-        <v>41.4</v>
+        <v>97.3</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1</v>
+        <v>-0.4</v>
       </c>
       <c r="G5" t="n">
-        <v>0.051</v>
+        <v>3.447</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.259</v>
+        <v>-325.786</v>
       </c>
       <c r="I5" t="n">
-        <v>55.2</v>
+        <v>-246.2</v>
       </c>
       <c r="J5" t="n">
-        <v>69.3</v>
+        <v>-81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>002240.SZ</t>
+          <t>002299.SZ</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>盛新锂能</t>
+          <t>圣农发展</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>46036</v>
+        <v>46037</v>
       </c>
       <c r="D6" t="n">
-        <v>-7.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>343.3</v>
+        <v>200.4</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.276</v>
+        <v>-0.387</v>
       </c>
       <c r="H6" t="n">
-        <v>0.464</v>
+        <v>-0.229</v>
       </c>
       <c r="I6" t="n">
-        <v>-45.8</v>
+        <v>24.1</v>
       </c>
       <c r="J6" t="n">
-        <v>108.9</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>002879.SZ</t>
+          <t>002405.SZ</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>长缆科技</t>
+          <t>四维图新</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>46036</v>
+        <v>46037</v>
       </c>
       <c r="D7" t="n">
-        <v>1.2</v>
+        <v>-15.1</v>
       </c>
       <c r="E7" t="n">
-        <v>36.4</v>
+        <v>250.8</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9</v>
+        <v>-7.9</v>
       </c>
       <c r="G7" t="n">
-        <v>4.787</v>
+        <v>0.276</v>
       </c>
       <c r="H7" t="n">
-        <v>47.748</v>
+        <v>0.958</v>
       </c>
       <c r="I7" t="n">
-        <v>30.2</v>
+        <v>-16.6</v>
       </c>
       <c r="J7" t="n">
-        <v>13.4</v>
+        <v>-9.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>600135.SH</t>
+          <t>002534.SZ</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>乐凯胶片</t>
+          <t>西子洁能</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>46036</v>
+        <v>46037</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.3</v>
+        <v>2.2</v>
       </c>
       <c r="E8" t="n">
-        <v>65.8</v>
+        <v>147.1</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.3</v>
+        <v>0.7</v>
       </c>
       <c r="G8" t="n">
-        <v>0.266</v>
+        <v>-3.745</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.235</v>
+        <v>2.266</v>
       </c>
       <c r="I8" t="n">
-        <v>-49.7</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>-49.2</v>
+        <v>63.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>600231.SH</t>
+          <t>002969.SZ</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>凌钢股份</t>
+          <t>嘉美包装</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>46036</v>
+        <v>46037</v>
       </c>
       <c r="D9" t="n">
-        <v>-16.8</v>
+        <v>0.8</v>
       </c>
       <c r="E9" t="n">
-        <v>61.8</v>
+        <v>194.1</v>
       </c>
       <c r="F9" t="n">
-        <v>-8.4</v>
+        <v>0.4</v>
       </c>
       <c r="G9" t="n">
-        <v>1.535</v>
+        <v>-0.622</v>
       </c>
       <c r="H9" t="n">
-        <v>2.077</v>
+        <v>1.191</v>
       </c>
       <c r="I9" t="n">
-        <v>-3.7</v>
+        <v>252.6</v>
       </c>
       <c r="J9" t="n">
-        <v>-2.2</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>600588.SH</t>
+          <t>300723.SZ</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>用友网络</t>
+          <t>一品红</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>46036</v>
+        <v>46037</v>
       </c>
       <c r="D10" t="n">
-        <v>-15.4</v>
+        <v>-4.7</v>
       </c>
       <c r="E10" t="n">
-        <v>590.5</v>
+        <v>188.6</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.6</v>
+        <v>-3</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.892</v>
+        <v>0.01</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.872</v>
+        <v>3.168</v>
       </c>
       <c r="I10" t="n">
-        <v>-38.3</v>
+        <v>-39.7</v>
       </c>
       <c r="J10" t="n">
-        <v>-91</v>
+        <v>-19.7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>601015.SH</t>
+          <t>600403.SH</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>陕西黑猫</t>
+          <t>大有能源</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>46036</v>
+        <v>46037</v>
       </c>
       <c r="D11" t="n">
-        <v>-12.2</v>
+        <v>-18.4</v>
       </c>
       <c r="E11" t="n">
-        <v>80.90000000000001</v>
+        <v>183.4</v>
       </c>
       <c r="F11" t="n">
-        <v>-4.1</v>
+        <v>-6.8</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.143</v>
+        <v>0.947</v>
       </c>
       <c r="H11" t="n">
-        <v>0.454</v>
+        <v>1.411</v>
       </c>
       <c r="I11" t="n">
-        <v>-6.6</v>
+        <v>-10</v>
       </c>
       <c r="J11" t="n">
-        <v>-5.3</v>
+        <v>-7.9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>603773.SH</t>
+          <t>601588.SH</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>沃格光电</t>
+          <t>北辰实业</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>46036</v>
+        <v>46037</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.6</v>
+        <v>-33.7</v>
       </c>
       <c r="E12" t="n">
-        <v>77.3</v>
+        <v>59.6</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.8</v>
+        <v>-11.6</v>
       </c>
       <c r="G12" t="n">
-        <v>0.175</v>
+        <v>-0.41</v>
       </c>
       <c r="H12" t="n">
-        <v>4.559</v>
+        <v>0.926</v>
       </c>
       <c r="I12" t="n">
-        <v>-48.3</v>
+        <v>-1.8</v>
       </c>
       <c r="J12" t="n">
-        <v>-29.7</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>605499.SH</t>
+          <t>601798.SH</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>东鹏饮料</t>
+          <t>蓝科高新</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>46036</v>
+        <v>46037</v>
       </c>
       <c r="D13" t="n">
-        <v>41.2</v>
+        <v>0.3</v>
       </c>
       <c r="E13" t="n">
-        <v>1417.6</v>
+        <v>32.9</v>
       </c>
       <c r="F13" t="n">
-        <v>5.8</v>
+        <v>0.1</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.032</v>
+        <v>-1.072</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.543</v>
+        <v>-0.46</v>
       </c>
       <c r="I13" t="n">
-        <v>34.4</v>
+        <v>107.3</v>
       </c>
       <c r="J13" t="n">
-        <v>47.1</v>
+        <v>125.3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>688525.SH</t>
+          <t>601992.SH</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>佰维存储</t>
+          <t>金隅集团</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>46036</v>
+        <v>46037</v>
       </c>
       <c r="D14" t="n">
-        <v>7.6</v>
+        <v>-37.5</v>
       </c>
       <c r="E14" t="n">
-        <v>632.4</v>
+        <v>249.9</v>
       </c>
       <c r="F14" t="n">
-        <v>7.8</v>
+        <v>-3.7</v>
       </c>
       <c r="G14" t="n">
-        <v>-5.94</v>
+        <v>-0.413</v>
       </c>
       <c r="H14" t="n">
-        <v>2.649</v>
+        <v>-0.6830000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>83.2</v>
+        <v>-6.7</v>
       </c>
       <c r="J14" t="n">
-        <v>24.8</v>
+        <v>-10.9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>000408.SZ</t>
+          <t>603061.SH</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>藏格矿业</t>
+          <t>金海通</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>46035</v>
+        <v>46037</v>
       </c>
       <c r="D15" t="n">
-        <v>38.7</v>
+        <v>1.6</v>
       </c>
       <c r="E15" t="n">
-        <v>1341.1</v>
+        <v>120</v>
       </c>
       <c r="F15" t="n">
-        <v>11.1</v>
+        <v>0.3</v>
       </c>
       <c r="G15" t="n">
-        <v>0.59</v>
+        <v>0.115</v>
       </c>
       <c r="H15" t="n">
-        <v>0.175</v>
+        <v>-0.297</v>
       </c>
       <c r="I15" t="n">
-        <v>34.7</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="J15" t="n">
-        <v>31.3</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>002284.SZ</t>
+          <t>603186.SH</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>亚太股份</t>
+          <t>华正新材</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>46035</v>
+        <v>46037</v>
       </c>
       <c r="D16" t="n">
-        <v>4.2</v>
+        <v>0.6</v>
       </c>
       <c r="E16" t="n">
-        <v>114.8</v>
+        <v>77.3</v>
       </c>
       <c r="F16" t="n">
-        <v>1.3</v>
+        <v>0.1</v>
       </c>
       <c r="G16" t="n">
-        <v>1.426</v>
+        <v>-1.096</v>
       </c>
       <c r="H16" t="n">
-        <v>0.227</v>
+        <v>-0.32</v>
       </c>
       <c r="I16" t="n">
-        <v>27.2</v>
+        <v>128.8</v>
       </c>
       <c r="J16" t="n">
-        <v>22.8</v>
+        <v>166.3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>002345.SZ</t>
+          <t>603818.SH</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>潮宏基</t>
+          <t>曲美家居</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>46035</v>
+        <v>46037</v>
       </c>
       <c r="D17" t="n">
-        <v>4.2</v>
+        <v>-1.4</v>
       </c>
       <c r="E17" t="n">
-        <v>110.9</v>
+        <v>25.2</v>
       </c>
       <c r="F17" t="n">
-        <v>1.1</v>
+        <v>-0.3</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.873</v>
+        <v>-0.174</v>
       </c>
       <c r="H17" t="n">
-        <v>-7.933</v>
+        <v>0.001</v>
       </c>
       <c r="I17" t="n">
-        <v>26.3</v>
+        <v>-17.4</v>
       </c>
       <c r="J17" t="n">
-        <v>36.2</v>
+        <v>-18.6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>002459.SZ</t>
+          <t>603956.SH</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>晶澳科技</t>
+          <t>威派格</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>46035</v>
+        <v>46037</v>
       </c>
       <c r="D18" t="n">
-        <v>-51</v>
+        <v>-1.5</v>
       </c>
       <c r="E18" t="n">
-        <v>403.1</v>
+        <v>40.2</v>
       </c>
       <c r="F18" t="n">
-        <v>-16.5</v>
+        <v>-0.7</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.552</v>
+        <v>-0.041</v>
       </c>
       <c r="H18" t="n">
-        <v>0.413</v>
+        <v>-10.356</v>
       </c>
       <c r="I18" t="n">
-        <v>-7.9</v>
+        <v>-26.7</v>
       </c>
       <c r="J18" t="n">
-        <v>-6.6</v>
+        <v>-20.6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>002942.SZ</t>
+          <t>603992.SH</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>新农股份</t>
+          <t>松霖科技</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>46035</v>
+        <v>46037</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="E19" t="n">
-        <v>31.7</v>
+        <v>192.8</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G19" t="n">
-        <v>0.006</v>
+        <v>-0.761</v>
       </c>
       <c r="H19" t="n">
-        <v>-3.264</v>
+        <v>-0.481</v>
       </c>
       <c r="I19" t="n">
-        <v>46.6</v>
+        <v>124.4</v>
       </c>
       <c r="J19" t="n">
-        <v>-58.2</v>
+        <v>136.3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>300782.SZ</t>
+          <t>605006.SH</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>卓胜微</t>
+          <t>山东玻纤</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>46035</v>
+        <v>46037</v>
       </c>
       <c r="D20" t="n">
-        <v>-3.4</v>
+        <v>-0.3</v>
       </c>
       <c r="E20" t="n">
-        <v>453.3</v>
+        <v>44.1</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.3</v>
+        <v>-0.2</v>
       </c>
       <c r="G20" t="n">
-        <v>1.572</v>
+        <v>-0.49</v>
       </c>
       <c r="H20" t="n">
-        <v>1.426</v>
+        <v>0.043</v>
       </c>
       <c r="I20" t="n">
-        <v>-134.9</v>
+        <v>-133.1</v>
       </c>
       <c r="J20" t="n">
-        <v>-101.6</v>
+        <v>-56.3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>600186.SH</t>
+          <t>605020.SH</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>莲花控股</t>
+          <t>永和股份</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>46035</v>
+        <v>46037</v>
       </c>
       <c r="D21" t="n">
-        <v>2.8</v>
+        <v>5.2</v>
       </c>
       <c r="E21" t="n">
-        <v>115.7</v>
+        <v>134.2</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.242</v>
+        <v>-0.359</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.681</v>
+        <v>-0.646</v>
       </c>
       <c r="I21" t="n">
-        <v>41.3</v>
+        <v>25.6</v>
       </c>
       <c r="J21" t="n">
-        <v>65.7</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>600703.SH</t>
+          <t>605055.SH</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>三安光电</t>
+          <t>迎丰股份</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>46035</v>
+        <v>46037</v>
       </c>
       <c r="D22" t="n">
-        <v>-8.5</v>
+        <v>-0.5</v>
       </c>
       <c r="E22" t="n">
-        <v>788.3</v>
+        <v>42.8</v>
       </c>
       <c r="F22" t="n">
-        <v>-5.2</v>
+        <v>-0.2</v>
       </c>
       <c r="G22" t="n">
-        <v>2.26</v>
+        <v>-1.918</v>
       </c>
       <c r="H22" t="n">
-        <v>1.279</v>
+        <v>-0.2</v>
       </c>
       <c r="I22" t="n">
-        <v>-92.7</v>
+        <v>-80.7</v>
       </c>
       <c r="J22" t="n">
-        <v>-44</v>
+        <v>-66.90000000000001</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>603259.SH</t>
+          <t>688126.SH</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>药明康德</t>
+          <t>沪硅产业</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
-        <v>46035</v>
+        <v>46037</v>
       </c>
       <c r="D23" t="n">
-        <v>132.4</v>
+        <v>-18</v>
       </c>
       <c r="E23" t="n">
-        <v>2944.4</v>
+        <v>752.9</v>
       </c>
       <c r="F23" t="n">
-        <v>37.2</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="G23" t="n">
-        <v>0.125</v>
+        <v>0.632</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.056</v>
+        <v>1.852</v>
       </c>
       <c r="I23" t="n">
-        <v>22.2</v>
+        <v>-41.8</v>
       </c>
       <c r="J23" t="n">
-        <v>19.5</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>603663.SH</t>
+          <t>688528.SH</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>三祥新材</t>
+          <t>秦川物联</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
-        <v>46035</v>
+        <v>46037</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9</v>
+        <v>-1.2</v>
       </c>
       <c r="E24" t="n">
-        <v>157.5</v>
+        <v>19</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="G24" t="n">
-        <v>2.882</v>
+        <v>0.898</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.515</v>
+        <v>4.27</v>
       </c>
       <c r="I24" t="n">
-        <v>169.3</v>
+        <v>-15.2</v>
       </c>
       <c r="J24" t="n">
-        <v>197.4</v>
+        <v>-11.1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>688005.SH</t>
+          <t>000100.SZ</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>容百科技</t>
+          <t>TCL科技</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
-        <v>46035</v>
+        <v>46036</v>
       </c>
       <c r="D25" t="n">
-        <v>-2.2</v>
+        <v>28.9</v>
       </c>
       <c r="E25" t="n">
-        <v>262.6</v>
+        <v>990.1</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.995</v>
+        <v>-2.072</v>
       </c>
       <c r="H25" t="n">
-        <v>-1.006</v>
+        <v>-0.47</v>
       </c>
       <c r="I25" t="n">
-        <v>-119.4</v>
+        <v>34.3</v>
       </c>
       <c r="J25" t="n">
-        <v>-188.8</v>
+        <v>43.9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>688192.SH</t>
+          <t>000738.SZ</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>迪哲医药-U</t>
+          <t>航发控制</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
-        <v>46035</v>
+        <v>46036</v>
       </c>
       <c r="D26" t="n">
-        <v>-8.5</v>
+        <v>3.1</v>
       </c>
       <c r="E26" t="n">
-        <v>308.7</v>
+        <v>298.8</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.2</v>
+        <v>-0.8</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.267</v>
+        <v>-1.734</v>
       </c>
       <c r="H26" t="n">
-        <v>0.037</v>
+        <v>-1.943</v>
       </c>
       <c r="I26" t="n">
-        <v>-36.3</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="J26" t="n">
-        <v>-35.5</v>
+        <v>-183.9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>300122.SZ</t>
+          <t>001283.SZ</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>智飞生物</t>
+          <t>豪鹏科技</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
-        <v>46034</v>
+        <v>46036</v>
       </c>
       <c r="D27" t="n">
-        <v>-135.4</v>
+        <v>1.8</v>
       </c>
       <c r="E27" t="n">
-        <v>474</v>
+        <v>69.5</v>
       </c>
       <c r="F27" t="n">
-        <v>-123.1</v>
+        <v>0.2</v>
       </c>
       <c r="G27" t="n">
-        <v>80.286</v>
+        <v>0.367</v>
       </c>
       <c r="H27" t="n">
-        <v>19.291</v>
+        <v>-0.78</v>
       </c>
       <c r="I27" t="n">
-        <v>-3.5</v>
+        <v>38.6</v>
       </c>
       <c r="J27" t="n">
-        <v>-1.3</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>300926.SZ</t>
+          <t>002107.SZ</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>博俊科技</t>
+          <t>沃华医药</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
-        <v>46034</v>
+        <v>46036</v>
       </c>
       <c r="D28" t="n">
-        <v>8.300000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="E28" t="n">
-        <v>143.4</v>
+        <v>41.4</v>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.179</v>
+        <v>0.051</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.266</v>
+        <v>-0.259</v>
       </c>
       <c r="I28" t="n">
-        <v>17.4</v>
+        <v>55.2</v>
       </c>
       <c r="J28" t="n">
-        <v>16.3</v>
+        <v>69.3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>600990.SH</t>
+          <t>002240.SZ</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>四创电子</t>
+          <t>盛新锂能</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
-        <v>46034</v>
+        <v>46036</v>
       </c>
       <c r="D29" t="n">
-        <v>-3.5</v>
+        <v>-7.5</v>
       </c>
       <c r="E29" t="n">
-        <v>94.8</v>
+        <v>343.3</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.5</v>
+        <v>0.9</v>
       </c>
       <c r="G29" t="n">
-        <v>0.08799999999999999</v>
+        <v>-1.276</v>
       </c>
       <c r="H29" t="n">
-        <v>4.223</v>
+        <v>0.464</v>
       </c>
       <c r="I29" t="n">
-        <v>-27.1</v>
+        <v>-45.8</v>
       </c>
       <c r="J29" t="n">
-        <v>-11.7</v>
+        <v>108.9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>605555.SH</t>
+          <t>002879.SZ</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>德昌股份</t>
+          <t>长缆科技</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
-        <v>46034</v>
+        <v>46036</v>
       </c>
       <c r="D30" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="E30" t="n">
-        <v>90.7</v>
+        <v>36.4</v>
       </c>
       <c r="F30" t="n">
-        <v>-0</v>
+        <v>0.9</v>
       </c>
       <c r="G30" t="n">
-        <v>-1.038</v>
+        <v>4.787</v>
       </c>
       <c r="H30" t="n">
-        <v>-1.08</v>
+        <v>47.748</v>
       </c>
       <c r="I30" t="n">
-        <v>62.4</v>
+        <v>30.2</v>
       </c>
       <c r="J30" t="n">
-        <v>235.6</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>600501.SH</t>
+          <t>600135.SH</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>航天晨光</t>
+          <t>乐凯胶片</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
-        <v>46032</v>
+        <v>46036</v>
       </c>
       <c r="D31" t="n">
-        <v>-2.1</v>
+        <v>-1.3</v>
       </c>
       <c r="E31" t="n">
-        <v>156.5</v>
+        <v>65.8</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.9</v>
+        <v>-0.3</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.63</v>
+        <v>0.266</v>
       </c>
       <c r="H31" t="n">
-        <v>1.561</v>
+        <v>-0.235</v>
       </c>
       <c r="I31" t="n">
-        <v>-74.5</v>
+        <v>-49.7</v>
       </c>
       <c r="J31" t="n">
-        <v>-53.3</v>
+        <v>-49.2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>600606.SH</t>
+          <t>600231.SH</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>绿地控股</t>
+          <t>凌钢股份</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
-        <v>46032</v>
+        <v>46036</v>
       </c>
       <c r="D32" t="n">
-        <v>-189.5</v>
+        <v>-16.8</v>
       </c>
       <c r="E32" t="n">
-        <v>240.3</v>
+        <v>61.8</v>
       </c>
       <c r="F32" t="n">
-        <v>-129.1</v>
+        <v>-8.4</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.08400000000000001</v>
+        <v>1.535</v>
       </c>
       <c r="H32" t="n">
-        <v>3.389</v>
+        <v>2.077</v>
       </c>
       <c r="I32" t="n">
-        <v>-1.3</v>
+        <v>-3.7</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.6</v>
+        <v>-2.2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>600685.SH</t>
+          <t>600588.SH</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>中船防务</t>
+          <t>用友网络</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
-        <v>46032</v>
+        <v>46036</v>
       </c>
       <c r="D33" t="n">
-        <v>8.5</v>
+        <v>-15.4</v>
       </c>
       <c r="E33" t="n">
-        <v>442.3</v>
+        <v>590.5</v>
       </c>
       <c r="F33" t="n">
-        <v>2.4</v>
+        <v>-0.6</v>
       </c>
       <c r="G33" t="n">
-        <v>0.393</v>
+        <v>-0.892</v>
       </c>
       <c r="H33" t="n">
-        <v>1.146</v>
+        <v>-0.872</v>
       </c>
       <c r="I33" t="n">
-        <v>52</v>
+        <v>-38.3</v>
       </c>
       <c r="J33" t="n">
-        <v>52.1</v>
+        <v>-91</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>688208.SH</t>
+          <t>601015.SH</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>道通科技</t>
+          <t>陕西黑猫</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
-        <v>46032</v>
+        <v>46036</v>
       </c>
       <c r="D34" t="n">
-        <v>8.699999999999999</v>
+        <v>-12.2</v>
       </c>
       <c r="E34" t="n">
-        <v>250.6</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="F34" t="n">
-        <v>1.5</v>
+        <v>-4.1</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5659999999999999</v>
+        <v>-0.143</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.374</v>
+        <v>0.454</v>
       </c>
       <c r="I34" t="n">
-        <v>28.8</v>
+        <v>-6.6</v>
       </c>
       <c r="J34" t="n">
-        <v>35.8</v>
+        <v>-5.3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>688508.SH</t>
+          <t>603773.SH</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>芯朋微</t>
+          <t>沃格光电</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
-        <v>46032</v>
+        <v>46036</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6</v>
+        <v>-1.6</v>
       </c>
       <c r="E35" t="n">
-        <v>85</v>
+        <v>77.3</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.2</v>
+        <v>-0.8</v>
       </c>
       <c r="G35" t="n">
-        <v>-3.655</v>
+        <v>0.175</v>
       </c>
       <c r="H35" t="n">
-        <v>-5.723</v>
+        <v>4.559</v>
       </c>
       <c r="I35" t="n">
-        <v>154.5</v>
+        <v>-48.3</v>
       </c>
       <c r="J35" t="n">
-        <v>-178.7</v>
+        <v>-29.7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>688660.SH</t>
+          <t>605499.SH</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>电气风电</t>
+          <t>东鹏饮料</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
-        <v>46032</v>
+        <v>46036</v>
       </c>
       <c r="D36" t="n">
-        <v>-11.3</v>
+        <v>41.2</v>
       </c>
       <c r="E36" t="n">
-        <v>239.9</v>
+        <v>1417.6</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.8</v>
+        <v>5.8</v>
       </c>
       <c r="G36" t="n">
-        <v>0.152</v>
+        <v>-0.032</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.171</v>
+        <v>-0.543</v>
       </c>
       <c r="I36" t="n">
-        <v>-21.2</v>
+        <v>34.4</v>
       </c>
       <c r="J36" t="n">
-        <v>-15.1</v>
+        <v>47.1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>688707.SH</t>
+          <t>688525.SH</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>振华新材</t>
+          <t>佰维存储</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
-        <v>46032</v>
+        <v>46036</v>
       </c>
       <c r="D37" t="n">
-        <v>-5.1</v>
+        <v>7.6</v>
       </c>
       <c r="E37" t="n">
-        <v>75.09999999999999</v>
+        <v>632.4</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.7</v>
+        <v>7.8</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.121</v>
+        <v>-5.94</v>
       </c>
       <c r="H37" t="n">
-        <v>0.485</v>
+        <v>2.649</v>
       </c>
       <c r="I37" t="n">
-        <v>-14.6</v>
+        <v>83.2</v>
       </c>
       <c r="J37" t="n">
-        <v>-11.8</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>688777.SH</t>
+          <t>000408.SZ</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>中控技术</t>
+          <t>藏格矿业</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
-        <v>46032</v>
+        <v>46035</v>
       </c>
       <c r="D38" t="n">
-        <v>3.3</v>
+        <v>38.7</v>
       </c>
       <c r="E38" t="n">
-        <v>424.4</v>
+        <v>1341.1</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.1</v>
+        <v>11.1</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.028</v>
+        <v>0.59</v>
       </c>
       <c r="H38" t="n">
-        <v>-1.215</v>
+        <v>0.175</v>
       </c>
       <c r="I38" t="n">
-        <v>129.5</v>
+        <v>34.7</v>
       </c>
       <c r="J38" t="n">
-        <v>2416.8</v>
+        <v>31.3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>002925.SZ</t>
+          <t>002284.SZ</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>盈趣科技</t>
+          <t>亚太股份</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
-        <v>46031</v>
+        <v>46035</v>
       </c>
       <c r="D39" t="n">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="E39" t="n">
-        <v>156.1</v>
+        <v>114.8</v>
       </c>
       <c r="F39" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.445</v>
+        <v>1.426</v>
       </c>
       <c r="H39" t="n">
-        <v>0.363</v>
+        <v>0.227</v>
       </c>
       <c r="I39" t="n">
-        <v>71</v>
+        <v>27.2</v>
       </c>
       <c r="J39" t="n">
-        <v>80.2</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>300482.SZ</t>
+          <t>002345.SZ</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>万孚生物</t>
+          <t>潮宏基</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
-        <v>46031</v>
+        <v>46035</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.2</v>
+        <v>4.2</v>
       </c>
       <c r="E40" t="n">
-        <v>94.40000000000001</v>
+        <v>110.9</v>
       </c>
       <c r="F40" t="n">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="G40" t="n">
-        <v>-1.888</v>
+        <v>-1.873</v>
       </c>
       <c r="H40" t="n">
-        <v>0.377</v>
+        <v>-7.933</v>
       </c>
       <c r="I40" t="n">
-        <v>-629.4</v>
+        <v>26.3</v>
       </c>
       <c r="J40" t="n">
-        <v>-25.9</v>
+        <v>36.2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>300627.SZ</t>
+          <t>002459.SZ</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>华测导航</t>
+          <t>晶澳科技</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
-        <v>46031</v>
+        <v>46035</v>
       </c>
       <c r="D41" t="n">
-        <v>6</v>
+        <v>-51</v>
       </c>
       <c r="E41" t="n">
-        <v>326.9</v>
+        <v>403.1</v>
       </c>
       <c r="F41" t="n">
-        <v>1.5</v>
+        <v>-16.5</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.103</v>
+        <v>-0.552</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.053</v>
+        <v>0.413</v>
       </c>
       <c r="I41" t="n">
-        <v>54.7</v>
+        <v>-7.9</v>
       </c>
       <c r="J41" t="n">
-        <v>55.4</v>
+        <v>-6.6</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>300871.SZ</t>
+          <t>002942.SZ</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>回盛生物</t>
+          <t>新农股份</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
-        <v>46031</v>
+        <v>46035</v>
       </c>
       <c r="D42" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="E42" t="n">
-        <v>45.4</v>
+        <v>31.7</v>
       </c>
       <c r="F42" t="n">
-        <v>0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="G42" t="n">
-        <v>1.887</v>
+        <v>0.006</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.299</v>
+        <v>-3.264</v>
       </c>
       <c r="I42" t="n">
-        <v>21.4</v>
+        <v>46.6</v>
       </c>
       <c r="J42" t="n">
-        <v>22</v>
+        <v>-58.2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>300887.SZ</t>
+          <t>300782.SZ</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>谱尼测试</t>
+          <t>卓胜微</t>
         </is>
       </c>
       <c r="C43" s="2" t="n">
-        <v>46031</v>
+        <v>46035</v>
       </c>
       <c r="D43" t="n">
-        <v>-2.6</v>
+        <v>-3.4</v>
       </c>
       <c r="E43" t="n">
-        <v>87.2</v>
+        <v>453.3</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.6</v>
+        <v>-1.3</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.5590000000000001</v>
+        <v>1.572</v>
       </c>
       <c r="H43" t="n">
-        <v>1.762</v>
+        <v>1.426</v>
       </c>
       <c r="I43" t="n">
-        <v>-33.4</v>
+        <v>-134.9</v>
       </c>
       <c r="J43" t="n">
-        <v>-44</v>
+        <v>-101.6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>600340.SH</t>
+          <t>600186.SH</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>华夏幸福</t>
+          <t>莲花控股</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
-        <v>46031</v>
+        <v>46035</v>
       </c>
       <c r="D44" t="n">
-        <v>-250</v>
+        <v>2.8</v>
       </c>
       <c r="E44" t="n">
-        <v>89.59999999999999</v>
+        <v>115.7</v>
       </c>
       <c r="F44" t="n">
-        <v>-148.2</v>
+        <v>0.3</v>
       </c>
       <c r="G44" t="n">
-        <v>2.799</v>
+        <v>-0.242</v>
       </c>
       <c r="H44" t="n">
-        <v>4.994</v>
+        <v>-0.681</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.4</v>
+        <v>41.3</v>
       </c>
       <c r="J44" t="n">
-        <v>-0.2</v>
+        <v>65.7</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>601872.SH</t>
+          <t>600703.SH</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>招商轮船</t>
+          <t>三安光电</t>
         </is>
       </c>
       <c r="C45" s="2" t="n">
-        <v>46031</v>
+        <v>46035</v>
       </c>
       <c r="D45" t="n">
-        <v>50.1</v>
+        <v>-8.5</v>
       </c>
       <c r="E45" t="n">
-        <v>775.2</v>
+        <v>788.3</v>
       </c>
       <c r="F45" t="n">
-        <v>21</v>
+        <v>-5.2</v>
       </c>
       <c r="G45" t="n">
-        <v>0.218</v>
+        <v>2.26</v>
       </c>
       <c r="H45" t="n">
-        <v>1.115</v>
+        <v>1.279</v>
       </c>
       <c r="I45" t="n">
-        <v>15.5</v>
+        <v>-92.7</v>
       </c>
       <c r="J45" t="n">
-        <v>10.6</v>
+        <v>-44</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>603895.SH</t>
+          <t>603259.SH</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>天永智能</t>
+          <t>药明康德</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
-        <v>46031</v>
+        <v>46035</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>132.4</v>
       </c>
       <c r="E46" t="n">
-        <v>33.5</v>
+        <v>2944.4</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.1</v>
+        <v>37.2</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.961</v>
+        <v>0.125</v>
       </c>
       <c r="H46" t="n">
-        <v>-3.763</v>
+        <v>-0.056</v>
       </c>
       <c r="I46" t="n">
-        <v>836.3</v>
+        <v>22.2</v>
       </c>
       <c r="J46" t="n">
-        <v>-204.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>688362.SH</t>
+          <t>603663.SH</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>甬矽电子</t>
+          <t>三祥新材</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
-        <v>46031</v>
+        <v>46035</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.5</v>
+        <v>0.9</v>
       </c>
       <c r="E47" t="n">
-        <v>167.4</v>
+        <v>157.5</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="G47" t="n">
-        <v>-20.432</v>
+        <v>2.882</v>
       </c>
       <c r="H47" t="n">
-        <v>-2.607</v>
+        <v>-0.515</v>
       </c>
       <c r="I47" t="n">
-        <v>-334.7</v>
+        <v>169.3</v>
       </c>
       <c r="J47" t="n">
-        <v>-388.9</v>
+        <v>197.4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>300389.SZ</t>
+          <t>688005.SH</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>艾比森</t>
+          <t>容百科技</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
-        <v>46030</v>
+        <v>46035</v>
       </c>
       <c r="D48" t="n">
-        <v>2.2</v>
+        <v>-2.2</v>
       </c>
       <c r="E48" t="n">
-        <v>64.90000000000001</v>
+        <v>262.6</v>
       </c>
       <c r="F48" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>-21.933</v>
+        <v>-0.995</v>
       </c>
       <c r="H48" t="n">
-        <v>0.005</v>
+        <v>-1.006</v>
       </c>
       <c r="I48" t="n">
-        <v>29.6</v>
+        <v>-119.4</v>
       </c>
       <c r="J48" t="n">
-        <v>29</v>
+        <v>-188.8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>300498.SZ</t>
+          <t>688192.SH</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>温氏股份</t>
+          <t>迪哲医药-U</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
-        <v>46030</v>
+        <v>46035</v>
       </c>
       <c r="D49" t="n">
-        <v>48</v>
+        <v>-8.5</v>
       </c>
       <c r="E49" t="n">
-        <v>1125.2</v>
+        <v>308.7</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.9</v>
+        <v>-2.2</v>
       </c>
       <c r="G49" t="n">
-        <v>-1.029</v>
+        <v>-0.267</v>
       </c>
       <c r="H49" t="n">
-        <v>-1.054</v>
+        <v>0.037</v>
       </c>
       <c r="I49" t="n">
-        <v>23.4</v>
+        <v>-36.3</v>
       </c>
       <c r="J49" t="n">
-        <v>82.3</v>
+        <v>-35.5</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>300505.SZ</t>
+          <t>300122.SZ</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>川金诺</t>
+          <t>智飞生物</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
-        <v>46030</v>
+        <v>46034</v>
       </c>
       <c r="D50" t="n">
-        <v>4.2</v>
+        <v>-135.4</v>
       </c>
       <c r="E50" t="n">
-        <v>65.09999999999999</v>
+        <v>474</v>
       </c>
       <c r="F50" t="n">
-        <v>1.2</v>
+        <v>-123.1</v>
       </c>
       <c r="G50" t="n">
-        <v>0.883</v>
+        <v>80.286</v>
       </c>
       <c r="H50" t="n">
-        <v>0.001</v>
+        <v>19.291</v>
       </c>
       <c r="I50" t="n">
-        <v>15.7</v>
+        <v>-3.5</v>
       </c>
       <c r="J50" t="n">
-        <v>13.1</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>300748.SZ</t>
+          <t>300926.SZ</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>金力永磁</t>
+          <t>博俊科技</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
-        <v>46030</v>
+        <v>46034</v>
       </c>
       <c r="D51" t="n">
-        <v>5.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="E51" t="n">
-        <v>502.2</v>
+        <v>143.4</v>
       </c>
       <c r="F51" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="G51" t="n">
-        <v>0.85</v>
+        <v>-0.179</v>
       </c>
       <c r="H51" t="n">
-        <v>-0.236</v>
+        <v>-0.266</v>
       </c>
       <c r="I51" t="n">
-        <v>86.59999999999999</v>
+        <v>17.4</v>
       </c>
       <c r="J51" t="n">
-        <v>77.8</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>300905.SZ</t>
+          <t>600990.SH</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>宝丽迪</t>
+          <t>四创电子</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
-        <v>46030</v>
+        <v>46034</v>
       </c>
       <c r="D52" t="n">
-        <v>1.4</v>
+        <v>-3.5</v>
       </c>
       <c r="E52" t="n">
-        <v>60.9</v>
+        <v>94.8</v>
       </c>
       <c r="F52" t="n">
-        <v>0.4</v>
+        <v>-2.5</v>
       </c>
       <c r="G52" t="n">
-        <v>0.186</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="H52" t="n">
-        <v>-0.089</v>
+        <v>4.223</v>
       </c>
       <c r="I52" t="n">
-        <v>43.2</v>
+        <v>-27.1</v>
       </c>
       <c r="J52" t="n">
-        <v>38.9</v>
+        <v>-11.7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>600189.SH</t>
+          <t>605555.SH</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>泉阳泉</t>
+          <t>德昌股份</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
-        <v>46030</v>
+        <v>46034</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.2</v>
+        <v>1.5</v>
       </c>
       <c r="E53" t="n">
-        <v>49.9</v>
+        <v>90.7</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.1</v>
+        <v>-0</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.778</v>
+        <v>-1.038</v>
       </c>
       <c r="H53" t="n">
-        <v>0.046</v>
+        <v>-1.08</v>
       </c>
       <c r="I53" t="n">
-        <v>-316.8</v>
+        <v>62.4</v>
       </c>
       <c r="J53" t="n">
-        <v>-96</v>
+        <v>235.6</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>600435.SH</t>
+          <t>600501.SH</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>北方导航</t>
+          <t>航天晨光</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
-        <v>46030</v>
+        <v>46032</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9</v>
+        <v>-2.1</v>
       </c>
       <c r="E54" t="n">
-        <v>299.7</v>
+        <v>156.5</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.3</v>
+        <v>-0.9</v>
       </c>
       <c r="G54" t="n">
-        <v>-1.216</v>
+        <v>-0.63</v>
       </c>
       <c r="H54" t="n">
-        <v>-6.115</v>
+        <v>1.561</v>
       </c>
       <c r="I54" t="n">
-        <v>336.8</v>
+        <v>-74.5</v>
       </c>
       <c r="J54" t="n">
-        <v>-382.5</v>
+        <v>-53.3</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>600537.SH</t>
+          <t>600606.SH</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>亿晶光电</t>
+          <t>绿地控股</t>
         </is>
       </c>
       <c r="C55" s="2" t="n">
-        <v>46030</v>
+        <v>46032</v>
       </c>
       <c r="D55" t="n">
-        <v>-6</v>
+        <v>-189.5</v>
       </c>
       <c r="E55" t="n">
-        <v>51</v>
+        <v>240.3</v>
       </c>
       <c r="F55" t="n">
-        <v>-3.9</v>
+        <v>-129.1</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.746</v>
+        <v>-0.08400000000000001</v>
       </c>
       <c r="H55" t="n">
-        <v>5.3</v>
+        <v>3.389</v>
       </c>
       <c r="I55" t="n">
-        <v>-8.5</v>
+        <v>-1.3</v>
       </c>
       <c r="J55" t="n">
-        <v>-4.2</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>603309.SH</t>
+          <t>600685.SH</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>维力医疗</t>
+          <t>中船防务</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
-        <v>46030</v>
+        <v>46032</v>
       </c>
       <c r="D56" t="n">
-        <v>0.6</v>
+        <v>8.5</v>
       </c>
       <c r="E56" t="n">
-        <v>41.4</v>
+        <v>442.3</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.2</v>
+        <v>2.4</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.387</v>
+        <v>0.393</v>
       </c>
       <c r="H56" t="n">
-        <v>-2.788</v>
+        <v>1.146</v>
       </c>
       <c r="I56" t="n">
-        <v>63.7</v>
+        <v>52</v>
       </c>
       <c r="J56" t="n">
-        <v>-14.2</v>
+        <v>52.1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>603588.SH</t>
+          <t>688208.SH</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>高能环境</t>
+          <t>道通科技</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
-        <v>46030</v>
+        <v>46032</v>
       </c>
       <c r="D57" t="n">
-        <v>7.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="E57" t="n">
-        <v>126.1</v>
+        <v>250.6</v>
       </c>
       <c r="F57" t="n">
         <v>1.5</v>
       </c>
       <c r="G57" t="n">
-        <v>-2.068</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="H57" t="n">
-        <v>0.037</v>
+        <v>-0.374</v>
       </c>
       <c r="I57" t="n">
-        <v>16.8</v>
+        <v>28.8</v>
       </c>
       <c r="J57" t="n">
-        <v>21.1</v>
+        <v>35.8</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>603589.SH</t>
+          <t>688508.SH</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>口子窖</t>
+          <t>芯朋微</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
-        <v>46030</v>
+        <v>46032</v>
       </c>
       <c r="D58" t="n">
-        <v>6.5</v>
+        <v>0.6</v>
       </c>
       <c r="E58" t="n">
-        <v>181.3</v>
+        <v>85</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.8</v>
+        <v>-0.2</v>
       </c>
       <c r="G58" t="n">
-        <v>-1.231</v>
+        <v>-3.655</v>
       </c>
       <c r="H58" t="n">
-        <v>-3.991</v>
+        <v>-5.723</v>
       </c>
       <c r="I58" t="n">
-        <v>28.1</v>
+        <v>154.5</v>
       </c>
       <c r="J58" t="n">
-        <v>-85.5</v>
+        <v>-178.7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>603590.SH</t>
+          <t>688660.SH</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>康辰药业</t>
+          <t>电气风电</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
-        <v>46030</v>
+        <v>46032</v>
       </c>
       <c r="D59" t="n">
-        <v>1.4</v>
+        <v>-11.3</v>
       </c>
       <c r="E59" t="n">
-        <v>66.59999999999999</v>
+        <v>239.9</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1</v>
+        <v>-3.8</v>
       </c>
       <c r="G59" t="n">
-        <v>-1.093</v>
+        <v>0.152</v>
       </c>
       <c r="H59" t="n">
-        <v>-0.8100000000000001</v>
+        <v>-0.171</v>
       </c>
       <c r="I59" t="n">
-        <v>47.6</v>
+        <v>-21.2</v>
       </c>
       <c r="J59" t="n">
-        <v>115.4</v>
+        <v>-15.1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>688332.SH</t>
+          <t>688707.SH</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>中科蓝讯</t>
+          <t>振华新材</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
-        <v>46030</v>
+        <v>46032</v>
       </c>
       <c r="D60" t="n">
-        <v>2.2</v>
+        <v>-5.1</v>
       </c>
       <c r="E60" t="n">
-        <v>161.3</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="F60" t="n">
-        <v>0.4</v>
+        <v>-1.7</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.445</v>
+        <v>-0.121</v>
       </c>
       <c r="H60" t="n">
-        <v>-0.454</v>
+        <v>0.485</v>
       </c>
       <c r="I60" t="n">
-        <v>73.3</v>
+        <v>-14.6</v>
       </c>
       <c r="J60" t="n">
-        <v>86.5</v>
+        <v>-11.8</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>688516.SH</t>
+          <t>688777.SH</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>奥特维</t>
+          <t>中控技术</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
-        <v>46030</v>
+        <v>46032</v>
       </c>
       <c r="D61" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="E61" t="n">
-        <v>164.9</v>
+        <v>424.4</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5</v>
+        <v>-0.1</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.415</v>
+        <v>-1.028</v>
       </c>
       <c r="H61" t="n">
-        <v>-0.08699999999999999</v>
+        <v>-1.215</v>
       </c>
       <c r="I61" t="n">
-        <v>41.9</v>
+        <v>129.5</v>
       </c>
       <c r="J61" t="n">
-        <v>80.3</v>
+        <v>2416.8</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>002258.SZ</t>
+          <t>002925.SZ</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>利尔化学</t>
+          <t>盈趣科技</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
-        <v>46029</v>
+        <v>46031</v>
       </c>
       <c r="D62" t="n">
-        <v>4.6</v>
+        <v>2.2</v>
       </c>
       <c r="E62" t="n">
-        <v>108.6</v>
+        <v>156.1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.111</v>
+        <v>-0.445</v>
       </c>
       <c r="H62" t="n">
-        <v>-0.347</v>
+        <v>0.363</v>
       </c>
       <c r="I62" t="n">
-        <v>23.6</v>
+        <v>71</v>
       </c>
       <c r="J62" t="n">
-        <v>32.3</v>
+        <v>80.2</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>002080.SZ</t>
+          <t>300482.SZ</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>中材科技</t>
+          <t>万孚生物</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
-        <v>46028</v>
+        <v>46031</v>
       </c>
       <c r="D63" t="n">
-        <v>10.5</v>
+        <v>-0.2</v>
       </c>
       <c r="E63" t="n">
-        <v>637.4</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="G63" t="n">
-        <v>-3.466</v>
+        <v>-1.888</v>
       </c>
       <c r="H63" t="n">
-        <v>-1.378</v>
+        <v>0.377</v>
       </c>
       <c r="I63" t="n">
-        <v>60.7</v>
+        <v>-629.4</v>
       </c>
       <c r="J63" t="n">
-        <v>-1209.7</v>
+        <v>-25.9</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>002204.SZ</t>
+          <t>300627.SZ</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>大连重工</t>
+          <t>华测导航</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
-        <v>46028</v>
+        <v>46031</v>
       </c>
       <c r="D64" t="n">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="E64" t="n">
-        <v>146.4</v>
+        <v>326.9</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.1</v>
+        <v>1.5</v>
       </c>
       <c r="G64" t="n">
-        <v>-1.178</v>
+        <v>-0.103</v>
       </c>
       <c r="H64" t="n">
-        <v>-1.095</v>
+        <v>-0.053</v>
       </c>
       <c r="I64" t="n">
-        <v>40.2</v>
+        <v>54.7</v>
       </c>
       <c r="J64" t="n">
-        <v>186.7</v>
+        <v>55.4</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>002444.SZ</t>
+          <t>300871.SZ</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>巨星科技</t>
+          <t>回盛生物</t>
         </is>
       </c>
       <c r="C65" s="2" t="n">
-        <v>46028</v>
+        <v>46031</v>
       </c>
       <c r="D65" t="n">
-        <v>23.1</v>
+        <v>2.1</v>
       </c>
       <c r="E65" t="n">
-        <v>408.9</v>
+        <v>45.4</v>
       </c>
       <c r="F65" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.264</v>
+        <v>1.887</v>
       </c>
       <c r="H65" t="n">
-        <v>-0.65</v>
+        <v>-0.299</v>
       </c>
       <c r="I65" t="n">
-        <v>17.7</v>
+        <v>21.4</v>
       </c>
       <c r="J65" t="n">
-        <v>25.5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>002598.SZ</t>
+          <t>300887.SZ</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>山东章鼓</t>
+          <t>谱尼测试</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
-        <v>46028</v>
+        <v>46031</v>
       </c>
       <c r="D66" t="n">
-        <v>0.7</v>
+        <v>-2.6</v>
       </c>
       <c r="E66" t="n">
-        <v>30</v>
+        <v>87.2</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1</v>
+        <v>-0.6</v>
       </c>
       <c r="G66" t="n">
-        <v>-1.408</v>
+        <v>-0.5590000000000001</v>
       </c>
       <c r="H66" t="n">
-        <v>-0.447</v>
+        <v>1.762</v>
       </c>
       <c r="I66" t="n">
-        <v>45.5</v>
+        <v>-33.4</v>
       </c>
       <c r="J66" t="n">
-        <v>55.4</v>
+        <v>-44</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>002757.SZ</t>
+          <t>600340.SH</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>南兴股份</t>
+          <t>华夏幸福</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
-        <v>46028</v>
+        <v>46031</v>
       </c>
       <c r="D67" t="n">
-        <v>0.8</v>
+        <v>-250</v>
       </c>
       <c r="E67" t="n">
-        <v>63.3</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.1</v>
+        <v>-148.2</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.978</v>
+        <v>2.799</v>
       </c>
       <c r="H67" t="n">
-        <v>-1.313</v>
+        <v>4.994</v>
       </c>
       <c r="I67" t="n">
-        <v>84.40000000000001</v>
+        <v>-0.4</v>
       </c>
       <c r="J67" t="n">
-        <v>3773.1</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>002846.SZ</t>
+          <t>601872.SH</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>英联股份</t>
+          <t>招商轮船</t>
         </is>
       </c>
       <c r="C68" s="2" t="n">
-        <v>46028</v>
+        <v>46031</v>
       </c>
       <c r="D68" t="n">
-        <v>0.2</v>
+        <v>50.1</v>
       </c>
       <c r="E68" t="n">
-        <v>70</v>
+        <v>775.2</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.1</v>
+        <v>21</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.845</v>
+        <v>0.218</v>
       </c>
       <c r="H68" t="n">
-        <v>-1.919</v>
+        <v>1.115</v>
       </c>
       <c r="I68" t="n">
-        <v>346.6</v>
+        <v>15.5</v>
       </c>
       <c r="J68" t="n">
-        <v>-550.7</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>300435.SZ</t>
+          <t>603895.SH</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>中泰股份</t>
+          <t>天永智能</t>
         </is>
       </c>
       <c r="C69" s="2" t="n">
-        <v>46028</v>
+        <v>46031</v>
       </c>
       <c r="D69" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>91.40000000000001</v>
+        <v>33.5</v>
       </c>
       <c r="F69" t="n">
-        <v>0.8</v>
+        <v>-0.1</v>
       </c>
       <c r="G69" t="n">
-        <v>-1.286</v>
+        <v>-0.961</v>
       </c>
       <c r="H69" t="n">
-        <v>-0.594</v>
+        <v>-3.763</v>
       </c>
       <c r="I69" t="n">
-        <v>22.7</v>
+        <v>836.3</v>
       </c>
       <c r="J69" t="n">
-        <v>20.9</v>
+        <v>-204.5</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>301345.SZ</t>
+          <t>688362.SH</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>涛涛车业</t>
+          <t>甬矽电子</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
-        <v>46028</v>
+        <v>46031</v>
       </c>
       <c r="D70" t="n">
-        <v>7.9</v>
+        <v>-0.5</v>
       </c>
       <c r="E70" t="n">
-        <v>280.9</v>
+        <v>167.4</v>
       </c>
       <c r="F70" t="n">
-        <v>1.9</v>
+        <v>-0.2</v>
       </c>
       <c r="G70" t="n">
-        <v>0.487</v>
+        <v>-20.432</v>
       </c>
       <c r="H70" t="n">
-        <v>-0.289</v>
+        <v>-2.607</v>
       </c>
       <c r="I70" t="n">
-        <v>35.6</v>
+        <v>-334.7</v>
       </c>
       <c r="J70" t="n">
-        <v>34.1</v>
+        <v>-388.9</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>600983.SH</t>
+          <t>300389.SZ</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>惠而浦</t>
+          <t>艾比森</t>
         </is>
       </c>
       <c r="C71" s="2" t="n">
-        <v>46028</v>
+        <v>46030</v>
       </c>
       <c r="D71" t="n">
-        <v>4.6</v>
+        <v>2.2</v>
       </c>
       <c r="E71" t="n">
-        <v>75</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="F71" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="G71" t="n">
-        <v>0.08799999999999999</v>
+        <v>-21.933</v>
       </c>
       <c r="H71" t="n">
-        <v>0.658</v>
+        <v>0.005</v>
       </c>
       <c r="I71" t="n">
-        <v>16.5</v>
+        <v>29.6</v>
       </c>
       <c r="J71" t="n">
-        <v>13.3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>600988.SH</t>
+          <t>300498.SZ</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>赤峰黄金</t>
+          <t>温氏股份</t>
         </is>
       </c>
       <c r="C72" s="2" t="n">
-        <v>46028</v>
+        <v>46030</v>
       </c>
       <c r="D72" t="n">
-        <v>29.7</v>
+        <v>48</v>
       </c>
       <c r="E72" t="n">
-        <v>607.9</v>
+        <v>1125.2</v>
       </c>
       <c r="F72" t="n">
-        <v>9.4</v>
+        <v>-0.9</v>
       </c>
       <c r="G72" t="n">
-        <v>0.426</v>
+        <v>-1.029</v>
       </c>
       <c r="H72" t="n">
-        <v>0.033</v>
+        <v>-1.054</v>
       </c>
       <c r="I72" t="n">
-        <v>20.5</v>
+        <v>23.4</v>
       </c>
       <c r="J72" t="n">
-        <v>16.2</v>
+        <v>82.3</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>603799.SH</t>
+          <t>300505.SZ</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>华友钴业</t>
+          <t>川金诺</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
-        <v>46028</v>
+        <v>46030</v>
       </c>
       <c r="D73" t="n">
-        <v>56</v>
+        <v>4.2</v>
       </c>
       <c r="E73" t="n">
-        <v>1289.8</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="F73" t="n">
-        <v>15.9</v>
+        <v>1.2</v>
       </c>
       <c r="G73" t="n">
-        <v>1.107</v>
+        <v>0.883</v>
       </c>
       <c r="H73" t="n">
-        <v>0.114</v>
+        <v>0.001</v>
       </c>
       <c r="I73" t="n">
-        <v>23</v>
+        <v>15.7</v>
       </c>
       <c r="J73" t="n">
-        <v>20.8</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>003017.SZ</t>
+          <t>300748.SZ</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>大洋生物</t>
+          <t>金力永磁</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
-        <v>46027</v>
+        <v>46030</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9</v>
+        <v>5.8</v>
       </c>
       <c r="E74" t="n">
-        <v>25.1</v>
+        <v>502.2</v>
       </c>
       <c r="F74" t="n">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="G74" t="n">
-        <v>0.157</v>
+        <v>0.85</v>
       </c>
       <c r="H74" t="n">
-        <v>-0.468</v>
+        <v>-0.236</v>
       </c>
       <c r="I74" t="n">
-        <v>27.9</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="J74" t="n">
-        <v>34.2</v>
+        <v>77.8</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>300428.SZ</t>
+          <t>300905.SZ</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>立中集团</t>
+          <t>宝丽迪</t>
         </is>
       </c>
       <c r="C75" s="2" t="n">
-        <v>46027</v>
+        <v>46030</v>
       </c>
       <c r="D75" t="n">
-        <v>7.5</v>
+        <v>1.4</v>
       </c>
       <c r="E75" t="n">
-        <v>160.1</v>
+        <v>60.9</v>
       </c>
       <c r="F75" t="n">
-        <v>1.9</v>
+        <v>0.4</v>
       </c>
       <c r="G75" t="n">
-        <v>0.103</v>
+        <v>0.186</v>
       </c>
       <c r="H75" t="n">
-        <v>-0.048</v>
+        <v>-0.089</v>
       </c>
       <c r="I75" t="n">
-        <v>21.3</v>
+        <v>43.2</v>
       </c>
       <c r="J75" t="n">
-        <v>20.8</v>
+        <v>38.9</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>301377.SZ</t>
+          <t>600189.SH</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>鼎泰高科</t>
+          <t>泉阳泉</t>
         </is>
       </c>
       <c r="C76" s="2" t="n">
-        <v>46027</v>
+        <v>46030</v>
       </c>
       <c r="D76" t="n">
-        <v>3.8</v>
+        <v>-0.2</v>
       </c>
       <c r="E76" t="n">
-        <v>570.3</v>
+        <v>49.9</v>
       </c>
       <c r="F76" t="n">
-        <v>1.2</v>
+        <v>-0.1</v>
       </c>
       <c r="G76" t="n">
-        <v>1.096</v>
+        <v>-0.778</v>
       </c>
       <c r="H76" t="n">
-        <v>0.022</v>
+        <v>0.046</v>
       </c>
       <c r="I76" t="n">
-        <v>150.1</v>
+        <v>-316.8</v>
       </c>
       <c r="J76" t="n">
-        <v>122.1</v>
+        <v>-96</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>301606.SZ</t>
+          <t>600435.SH</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>绿联科技</t>
+          <t>北方导航</t>
         </is>
       </c>
       <c r="C77" s="2" t="n">
-        <v>46027</v>
+        <v>46030</v>
       </c>
       <c r="D77" t="n">
-        <v>6.2</v>
+        <v>0.9</v>
       </c>
       <c r="E77" t="n">
-        <v>243.7</v>
+        <v>299.7</v>
       </c>
       <c r="F77" t="n">
-        <v>1.8</v>
+        <v>-0.3</v>
       </c>
       <c r="G77" t="n">
-        <v>0.346</v>
+        <v>-1.216</v>
       </c>
       <c r="H77" t="n">
-        <v>-0.06</v>
+        <v>-6.115</v>
       </c>
       <c r="I77" t="n">
-        <v>39.1</v>
+        <v>336.8</v>
       </c>
       <c r="J77" t="n">
-        <v>34</v>
+        <v>-382.5</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>601339.SH</t>
+          <t>600500.SH</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>百隆东方</t>
+          <t>中化国际</t>
         </is>
       </c>
       <c r="C78" s="2" t="n">
-        <v>46027</v>
+        <v>46030</v>
       </c>
       <c r="D78" t="n">
-        <v>5.5</v>
+        <v>-23</v>
       </c>
       <c r="E78" t="n">
-        <v>86.8</v>
+        <v>145.3</v>
       </c>
       <c r="F78" t="n">
-        <v>0.4</v>
+        <v>-10</v>
       </c>
       <c r="G78" t="n">
-        <v>-2.161</v>
+        <v>-0.572</v>
       </c>
       <c r="H78" t="n">
-        <v>-0.722</v>
+        <v>1.206</v>
       </c>
       <c r="I78" t="n">
-        <v>15.8</v>
+        <v>-6.3</v>
       </c>
       <c r="J78" t="n">
-        <v>31.9</v>
+        <v>-4.2</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>000792.SZ</t>
+          <t>600537.SH</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>盐湖股份</t>
+          <t>亿晶光电</t>
         </is>
       </c>
       <c r="C79" s="2" t="n">
-        <v>46022</v>
+        <v>46030</v>
       </c>
       <c r="D79" t="n">
-        <v>82.3</v>
+        <v>-6</v>
       </c>
       <c r="E79" t="n">
-        <v>1467.9</v>
+        <v>51</v>
       </c>
       <c r="F79" t="n">
-        <v>37.4</v>
+        <v>-3.9</v>
       </c>
       <c r="G79" t="n">
-        <v>1.809</v>
+        <v>-0.746</v>
       </c>
       <c r="H79" t="n">
-        <v>0.882</v>
+        <v>5.3</v>
       </c>
       <c r="I79" t="n">
-        <v>17.8</v>
+        <v>-8.5</v>
       </c>
       <c r="J79" t="n">
-        <v>11.1</v>
+        <v>-4.2</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>000932.SZ</t>
+          <t>603309.SH</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>华菱钢铁</t>
+          <t>维力医疗</t>
         </is>
       </c>
       <c r="C80" s="2" t="n">
-        <v>46022</v>
+        <v>46030</v>
       </c>
       <c r="D80" t="n">
-        <v>23</v>
+        <v>0.6</v>
       </c>
       <c r="E80" t="n">
-        <v>386.9</v>
+        <v>41.4</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1</v>
+        <v>-1.2</v>
       </c>
       <c r="G80" t="n">
-        <v>-1.036</v>
+        <v>-3.387</v>
       </c>
       <c r="H80" t="n">
-        <v>-0.991</v>
+        <v>-2.788</v>
       </c>
       <c r="I80" t="n">
-        <v>16.8</v>
+        <v>63.7</v>
       </c>
       <c r="J80" t="n">
-        <v>48.9</v>
+        <v>-14.2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>000959.SZ</t>
+          <t>603588.SH</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>首钢股份</t>
+          <t>高能环境</t>
         </is>
       </c>
       <c r="C81" s="2" t="n">
-        <v>46022</v>
+        <v>46030</v>
       </c>
       <c r="D81" t="n">
-        <v>9.199999999999999</v>
+        <v>7.5</v>
       </c>
       <c r="E81" t="n">
-        <v>380</v>
+        <v>126.1</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.7</v>
+        <v>1.5</v>
       </c>
       <c r="G81" t="n">
-        <v>-1.327</v>
+        <v>-2.068</v>
       </c>
       <c r="H81" t="n">
-        <v>-1.232</v>
+        <v>0.037</v>
       </c>
       <c r="I81" t="n">
-        <v>41.4</v>
+        <v>16.8</v>
       </c>
       <c r="J81" t="n">
-        <v>410.1</v>
+        <v>21.1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>002010.SZ</t>
+          <t>603589.SH</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>传化智联</t>
+          <t>口子窖</t>
         </is>
       </c>
       <c r="C82" s="2" t="n">
-        <v>46022</v>
+        <v>46030</v>
       </c>
       <c r="D82" t="n">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="E82" t="n">
-        <v>161.7</v>
+        <v>181.3</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.6</v>
+        <v>-0.8</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.596</v>
+        <v>-1.231</v>
       </c>
       <c r="H82" t="n">
-        <v>-1.603</v>
+        <v>-3.991</v>
       </c>
       <c r="I82" t="n">
-        <v>50.5</v>
+        <v>28.1</v>
       </c>
       <c r="J82" t="n">
-        <v>-204.9</v>
+        <v>-85.5</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>002709.SZ</t>
+          <t>603590.SH</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>天赐材料</t>
+          <t>康辰药业</t>
         </is>
       </c>
       <c r="C83" s="2" t="n">
-        <v>46022</v>
+        <v>46030</v>
       </c>
       <c r="D83" t="n">
-        <v>10.5</v>
+        <v>1.4</v>
       </c>
       <c r="E83" t="n">
-        <v>922.6</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F83" t="n">
-        <v>6.8</v>
+        <v>0.1</v>
       </c>
       <c r="G83" t="n">
-        <v>6.137</v>
+        <v>-1.093</v>
       </c>
       <c r="H83" t="n">
-        <v>3.884</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="I83" t="n">
-        <v>87.90000000000001</v>
+        <v>47.6</v>
       </c>
       <c r="J83" t="n">
-        <v>42.5</v>
+        <v>115.4</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>300620.SZ</t>
+          <t>688332.SH</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>光库科技</t>
+          <t>中科蓝讯</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
-        <v>46022</v>
+        <v>46030</v>
       </c>
       <c r="D84" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="E84" t="n">
-        <v>385</v>
+        <v>161.3</v>
       </c>
       <c r="F84" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G84" t="n">
-        <v>12.814</v>
+        <v>-0.445</v>
       </c>
       <c r="H84" t="n">
-        <v>0.143</v>
+        <v>-0.454</v>
       </c>
       <c r="I84" t="n">
-        <v>287.1</v>
+        <v>73.3</v>
       </c>
       <c r="J84" t="n">
-        <v>201.3</v>
+        <v>86.5</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>301078.SZ</t>
+          <t>688516.SH</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>孩子王</t>
+          <t>奥特维</t>
         </is>
       </c>
       <c r="C85" s="2" t="n">
-        <v>46022</v>
+        <v>46030</v>
       </c>
       <c r="D85" t="n">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="E85" t="n">
-        <v>129.8</v>
+        <v>164.9</v>
       </c>
       <c r="F85" t="n">
         <v>0.5</v>
       </c>
       <c r="G85" t="n">
-        <v>0.806</v>
+        <v>-0.415</v>
       </c>
       <c r="H85" t="n">
-        <v>0.194</v>
+        <v>-0.08699999999999999</v>
       </c>
       <c r="I85" t="n">
-        <v>63.3</v>
+        <v>41.9</v>
       </c>
       <c r="J85" t="n">
-        <v>68.90000000000001</v>
+        <v>80.3</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>601899.SH</t>
+          <t>002258.SZ</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>紫金矿业</t>
+          <t>利尔化学</t>
         </is>
       </c>
       <c r="C86" s="2" t="n">
-        <v>46022</v>
+        <v>46029</v>
       </c>
       <c r="D86" t="n">
-        <v>475</v>
+        <v>4.6</v>
       </c>
       <c r="E86" t="n">
-        <v>8886.299999999999</v>
+        <v>108.6</v>
       </c>
       <c r="F86" t="n">
-        <v>133.7</v>
+        <v>0.7</v>
       </c>
       <c r="G86" t="n">
-        <v>0.6830000000000001</v>
+        <v>-0.111</v>
       </c>
       <c r="H86" t="n">
-        <v>0.07000000000000001</v>
+        <v>-0.347</v>
       </c>
       <c r="I86" t="n">
-        <v>18.7</v>
+        <v>23.6</v>
       </c>
       <c r="J86" t="n">
-        <v>16.9</v>
+        <v>32.3</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
+          <t>002080.SZ</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>中材科技</t>
+        </is>
+      </c>
+      <c r="C87" s="2" t="n">
+        <v>46028</v>
+      </c>
+      <c r="D87" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E87" t="n">
+        <v>637.4</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-3.466</v>
+      </c>
+      <c r="H87" t="n">
+        <v>-1.378</v>
+      </c>
+      <c r="I87" t="n">
+        <v>60.7</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1209.7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>002204.SZ</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>大连重工</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="n">
+        <v>46028</v>
+      </c>
+      <c r="D88" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E88" t="n">
+        <v>146.4</v>
+      </c>
+      <c r="F88" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-1.178</v>
+      </c>
+      <c r="H88" t="n">
+        <v>-1.095</v>
+      </c>
+      <c r="I88" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="J88" t="n">
+        <v>186.7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>002444.SZ</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>巨星科技</t>
+        </is>
+      </c>
+      <c r="C89" s="2" t="n">
+        <v>46028</v>
+      </c>
+      <c r="D89" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="E89" t="n">
+        <v>408.9</v>
+      </c>
+      <c r="F89" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-0.264</v>
+      </c>
+      <c r="H89" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="I89" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="J89" t="n">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>002598.SZ</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>山东章鼓</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="n">
+        <v>46028</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E90" t="n">
+        <v>30</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-1.408</v>
+      </c>
+      <c r="H90" t="n">
+        <v>-0.447</v>
+      </c>
+      <c r="I90" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="J90" t="n">
+        <v>55.4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>002757.SZ</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>南兴股份</t>
+        </is>
+      </c>
+      <c r="C91" s="2" t="n">
+        <v>46028</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E91" t="n">
+        <v>63.3</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-0.978</v>
+      </c>
+      <c r="H91" t="n">
+        <v>-1.313</v>
+      </c>
+      <c r="I91" t="n">
+        <v>84.40000000000001</v>
+      </c>
+      <c r="J91" t="n">
+        <v>3773.1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>002846.SZ</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>英联股份</t>
+        </is>
+      </c>
+      <c r="C92" s="2" t="n">
+        <v>46028</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E92" t="n">
+        <v>70</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-0.845</v>
+      </c>
+      <c r="H92" t="n">
+        <v>-1.919</v>
+      </c>
+      <c r="I92" t="n">
+        <v>346.6</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-550.7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>300435.SZ</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>中泰股份</t>
+        </is>
+      </c>
+      <c r="C93" s="2" t="n">
+        <v>46028</v>
+      </c>
+      <c r="D93" t="n">
+        <v>4</v>
+      </c>
+      <c r="E93" t="n">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-1.286</v>
+      </c>
+      <c r="H93" t="n">
+        <v>-0.594</v>
+      </c>
+      <c r="I93" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="J93" t="n">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>301345.SZ</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>涛涛车业</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="n">
+        <v>46028</v>
+      </c>
+      <c r="D94" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="E94" t="n">
+        <v>280.9</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.487</v>
+      </c>
+      <c r="H94" t="n">
+        <v>-0.289</v>
+      </c>
+      <c r="I94" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="J94" t="n">
+        <v>34.1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>600983.SH</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>惠而浦</t>
+        </is>
+      </c>
+      <c r="C95" s="2" t="n">
+        <v>46028</v>
+      </c>
+      <c r="D95" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="E95" t="n">
+        <v>75</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.658</v>
+      </c>
+      <c r="I95" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="J95" t="n">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>600988.SH</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>赤峰黄金</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="n">
+        <v>46028</v>
+      </c>
+      <c r="D96" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="E96" t="n">
+        <v>607.9</v>
+      </c>
+      <c r="F96" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.426</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="I96" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="J96" t="n">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>603799.SH</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>华友钴业</t>
+        </is>
+      </c>
+      <c r="C97" s="2" t="n">
+        <v>46028</v>
+      </c>
+      <c r="D97" t="n">
+        <v>56</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1289.8</v>
+      </c>
+      <c r="F97" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="G97" t="n">
+        <v>1.107</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="I97" t="n">
+        <v>23</v>
+      </c>
+      <c r="J97" t="n">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>003017.SZ</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>大洋生物</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="n">
+        <v>46027</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E98" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.157</v>
+      </c>
+      <c r="H98" t="n">
+        <v>-0.468</v>
+      </c>
+      <c r="I98" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="J98" t="n">
+        <v>34.2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>300428.SZ</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>立中集团</t>
+        </is>
+      </c>
+      <c r="C99" s="2" t="n">
+        <v>46027</v>
+      </c>
+      <c r="D99" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E99" t="n">
+        <v>160.1</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="H99" t="n">
+        <v>-0.048</v>
+      </c>
+      <c r="I99" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="J99" t="n">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>301377.SZ</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>鼎泰高科</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="n">
+        <v>46027</v>
+      </c>
+      <c r="D100" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E100" t="n">
+        <v>570.3</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G100" t="n">
+        <v>1.096</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="I100" t="n">
+        <v>150.1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>122.1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>301606.SZ</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>绿联科技</t>
+        </is>
+      </c>
+      <c r="C101" s="2" t="n">
+        <v>46027</v>
+      </c>
+      <c r="D101" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="E101" t="n">
+        <v>243.7</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.346</v>
+      </c>
+      <c r="H101" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="I101" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>601339.SH</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>百隆东方</t>
+        </is>
+      </c>
+      <c r="C102" s="2" t="n">
+        <v>46027</v>
+      </c>
+      <c r="D102" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E102" t="n">
+        <v>86.8</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-2.161</v>
+      </c>
+      <c r="H102" t="n">
+        <v>-0.722</v>
+      </c>
+      <c r="I102" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="J102" t="n">
+        <v>31.9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>000792.SZ</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>盐湖股份</t>
+        </is>
+      </c>
+      <c r="C103" s="2" t="n">
+        <v>46022</v>
+      </c>
+      <c r="D103" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1467.9</v>
+      </c>
+      <c r="F103" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="G103" t="n">
+        <v>1.809</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.882</v>
+      </c>
+      <c r="I103" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J103" t="n">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>000932.SZ</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>华菱钢铁</t>
+        </is>
+      </c>
+      <c r="C104" s="2" t="n">
+        <v>46022</v>
+      </c>
+      <c r="D104" t="n">
+        <v>23</v>
+      </c>
+      <c r="E104" t="n">
+        <v>386.9</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-1.036</v>
+      </c>
+      <c r="H104" t="n">
+        <v>-0.991</v>
+      </c>
+      <c r="I104" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="J104" t="n">
+        <v>48.9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>000959.SZ</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>首钢股份</t>
+        </is>
+      </c>
+      <c r="C105" s="2" t="n">
+        <v>46022</v>
+      </c>
+      <c r="D105" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="E105" t="n">
+        <v>380</v>
+      </c>
+      <c r="F105" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-1.327</v>
+      </c>
+      <c r="H105" t="n">
+        <v>-1.232</v>
+      </c>
+      <c r="I105" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="J105" t="n">
+        <v>410.1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>002010.SZ</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>传化智联</t>
+        </is>
+      </c>
+      <c r="C106" s="2" t="n">
+        <v>46022</v>
+      </c>
+      <c r="D106" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E106" t="n">
+        <v>161.7</v>
+      </c>
+      <c r="F106" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-0.596</v>
+      </c>
+      <c r="H106" t="n">
+        <v>-1.603</v>
+      </c>
+      <c r="I106" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="J106" t="n">
+        <v>-204.9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>002709.SZ</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>天赐材料</t>
+        </is>
+      </c>
+      <c r="C107" s="2" t="n">
+        <v>46022</v>
+      </c>
+      <c r="D107" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E107" t="n">
+        <v>922.6</v>
+      </c>
+      <c r="F107" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G107" t="n">
+        <v>6.137</v>
+      </c>
+      <c r="H107" t="n">
+        <v>3.884</v>
+      </c>
+      <c r="I107" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="J107" t="n">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>300620.SZ</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>光库科技</t>
+        </is>
+      </c>
+      <c r="C108" s="2" t="n">
+        <v>46022</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E108" t="n">
+        <v>385</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G108" t="n">
+        <v>12.814</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="I108" t="n">
+        <v>287.1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>201.3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>301078.SZ</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>孩子王</t>
+        </is>
+      </c>
+      <c r="C109" s="2" t="n">
+        <v>46022</v>
+      </c>
+      <c r="D109" t="n">
+        <v>2</v>
+      </c>
+      <c r="E109" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.806</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="I109" t="n">
+        <v>63.3</v>
+      </c>
+      <c r="J109" t="n">
+        <v>68.90000000000001</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>601899.SH</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="C110" s="2" t="n">
+        <v>46022</v>
+      </c>
+      <c r="D110" t="n">
+        <v>475</v>
+      </c>
+      <c r="E110" t="n">
+        <v>8886.299999999999</v>
+      </c>
+      <c r="F110" t="n">
+        <v>133.7</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.6830000000000001</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I110" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="J110" t="n">
+        <v>16.9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
           <t>002050.SZ</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B111" t="inlineStr">
         <is>
           <t>三花智控</t>
         </is>
       </c>
-      <c r="C87" s="2" t="n">
+      <c r="C111" s="2" t="n">
         <v>46014</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D111" t="n">
         <v>36.8</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E111" t="n">
         <v>1911.3</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F111" t="n">
         <v>6</v>
       </c>
-      <c r="G87" t="n">
+      <c r="G111" t="n">
         <v>-0.315</v>
       </c>
-      <c r="H87" t="n">
+      <c r="H111" t="n">
         <v>-0.445</v>
       </c>
-      <c r="I87" t="n">
+      <c r="I111" t="n">
         <v>51.9</v>
       </c>
-      <c r="J87" t="n">
+      <c r="J111" t="n">
         <v>66.8</v>
       </c>
     </row>
